--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,19 +433,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="C2" t="n">
-        <v>11.73</v>
+        <v>11.8</v>
       </c>
       <c r="D2" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="E2" t="n">
-        <v>11.73</v>
+        <v>11.8</v>
       </c>
       <c r="F2" t="n">
-        <v>44997.1376</v>
+        <v>1662.6645</v>
       </c>
       <c r="G2" t="n">
         <v>11.75266666666667</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.73</v>
+        <v>11.77</v>
       </c>
       <c r="C3" t="n">
         <v>11.73</v>
       </c>
       <c r="D3" t="n">
-        <v>11.73</v>
+        <v>11.77</v>
       </c>
       <c r="E3" t="n">
         <v>11.73</v>
       </c>
       <c r="F3" t="n">
-        <v>60701.455</v>
+        <v>44997.1376</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74983333333334</v>
+        <v>11.75266666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.74</v>
+        <v>11.73</v>
       </c>
       <c r="C4" t="n">
         <v>11.73</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74</v>
+        <v>11.73</v>
       </c>
       <c r="E4" t="n">
         <v>11.73</v>
       </c>
       <c r="F4" t="n">
-        <v>64661.157</v>
+        <v>60701.455</v>
       </c>
       <c r="G4" t="n">
-        <v>11.75216666666667</v>
+        <v>11.74983333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.77</v>
+        <v>11.74</v>
       </c>
       <c r="C5" t="n">
-        <v>12.06</v>
+        <v>11.73</v>
       </c>
       <c r="D5" t="n">
-        <v>12.06</v>
+        <v>11.74</v>
       </c>
       <c r="E5" t="n">
-        <v>11.77</v>
+        <v>11.73</v>
       </c>
       <c r="F5" t="n">
-        <v>477516.1594</v>
+        <v>64661.157</v>
       </c>
       <c r="G5" t="n">
-        <v>11.75983333333334</v>
+        <v>11.75216666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.06</v>
+        <v>11.77</v>
       </c>
       <c r="C6" t="n">
         <v>12.06</v>
@@ -582,13 +582,13 @@
         <v>12.06</v>
       </c>
       <c r="E6" t="n">
-        <v>12.06</v>
+        <v>11.77</v>
       </c>
       <c r="F6" t="n">
-        <v>81619.66280000001</v>
+        <v>477516.1594</v>
       </c>
       <c r="G6" t="n">
-        <v>11.7675</v>
+        <v>11.75983333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="C7" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="D7" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="E7" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="F7" t="n">
-        <v>25261.3891</v>
+        <v>81619.66280000001</v>
       </c>
       <c r="G7" t="n">
-        <v>11.77666666666667</v>
+        <v>11.7675</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.07</v>
+        <v>12.12</v>
       </c>
       <c r="C8" t="n">
-        <v>12.07</v>
+        <v>12.12</v>
       </c>
       <c r="D8" t="n">
-        <v>12.07</v>
+        <v>12.12</v>
       </c>
       <c r="E8" t="n">
-        <v>12.07</v>
+        <v>12.12</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>25261.3891</v>
       </c>
       <c r="G8" t="n">
-        <v>11.78533333333334</v>
+        <v>11.77666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>12.07</v>
       </c>
       <c r="C9" t="n">
-        <v>12.06</v>
+        <v>12.07</v>
       </c>
       <c r="D9" t="n">
         <v>12.07</v>
       </c>
       <c r="E9" t="n">
-        <v>12.06</v>
+        <v>12.07</v>
       </c>
       <c r="F9" t="n">
-        <v>76654.6771</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>11.793</v>
+        <v>11.78533333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.11</v>
+        <v>12.07</v>
       </c>
       <c r="C10" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="D10" t="n">
-        <v>12.11</v>
+        <v>12.07</v>
       </c>
       <c r="E10" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>76654.6771</v>
       </c>
       <c r="G10" t="n">
-        <v>11.8015</v>
+        <v>11.793</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="C11" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="D11" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="E11" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="F11" t="n">
-        <v>188843.0313</v>
+        <v>42</v>
       </c>
       <c r="G11" t="n">
-        <v>11.811</v>
+        <v>11.8015</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C12" t="n">
         <v>12.14</v>
       </c>
-      <c r="C12" t="n">
-        <v>12.15</v>
-      </c>
       <c r="D12" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="E12" t="n">
-        <v>12.14</v>
+        <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>243804.5656</v>
+        <v>188843.0313</v>
       </c>
       <c r="G12" t="n">
-        <v>11.82066666666666</v>
+        <v>11.811</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.17</v>
+        <v>12.14</v>
       </c>
       <c r="C13" t="n">
-        <v>12.17</v>
+        <v>12.15</v>
       </c>
       <c r="D13" t="n">
-        <v>12.17</v>
+        <v>12.15</v>
       </c>
       <c r="E13" t="n">
-        <v>12.17</v>
+        <v>12.14</v>
       </c>
       <c r="F13" t="n">
-        <v>47.4081</v>
+        <v>243804.5656</v>
       </c>
       <c r="G13" t="n">
-        <v>11.83166666666667</v>
+        <v>11.82066666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>12.17</v>
       </c>
       <c r="F14" t="n">
-        <v>36201.9314</v>
+        <v>47.4081</v>
       </c>
       <c r="G14" t="n">
-        <v>11.84266666666666</v>
+        <v>11.83166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="C15" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="D15" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="E15" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="F15" t="n">
-        <v>50000</v>
+        <v>36201.9314</v>
       </c>
       <c r="G15" t="n">
-        <v>11.8485</v>
+        <v>11.84266666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>12.03</v>
       </c>
       <c r="F16" t="n">
-        <v>3077.206</v>
+        <v>50000</v>
       </c>
       <c r="G16" t="n">
-        <v>11.85733333333333</v>
+        <v>11.8485</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>12.03</v>
       </c>
       <c r="F17" t="n">
-        <v>4145.8852</v>
+        <v>3077.206</v>
       </c>
       <c r="G17" t="n">
-        <v>11.86383333333333</v>
+        <v>11.85733333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="C18" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="D18" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="E18" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="F18" t="n">
-        <v>1590.2043</v>
+        <v>4145.8852</v>
       </c>
       <c r="G18" t="n">
-        <v>11.8695</v>
+        <v>11.86383333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="C19" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="D19" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="E19" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>1590.2043</v>
       </c>
       <c r="G19" t="n">
-        <v>11.87266666666667</v>
+        <v>11.8695</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.78</v>
+        <v>11.82</v>
       </c>
       <c r="C20" t="n">
-        <v>11.78</v>
+        <v>11.82</v>
       </c>
       <c r="D20" t="n">
-        <v>11.78</v>
+        <v>11.82</v>
       </c>
       <c r="E20" t="n">
-        <v>11.78</v>
+        <v>11.82</v>
       </c>
       <c r="F20" t="n">
-        <v>27403.2412</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="n">
-        <v>11.87516666666667</v>
+        <v>11.87266666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>11.78</v>
       </c>
       <c r="F21" t="n">
-        <v>10980.7308</v>
+        <v>27403.2412</v>
       </c>
       <c r="G21" t="n">
-        <v>11.87783333333333</v>
+        <v>11.87516666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="C22" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="D22" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="E22" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="F22" t="n">
-        <v>133369.0904</v>
+        <v>10980.7308</v>
       </c>
       <c r="G22" t="n">
-        <v>11.88016666666666</v>
+        <v>11.87783333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.78</v>
+        <v>11.77</v>
       </c>
       <c r="C23" t="n">
-        <v>11.78</v>
+        <v>11.76</v>
       </c>
       <c r="D23" t="n">
-        <v>11.78</v>
+        <v>11.77</v>
       </c>
       <c r="E23" t="n">
-        <v>11.78</v>
+        <v>11.76</v>
       </c>
       <c r="F23" t="n">
-        <v>12364.8482</v>
+        <v>133369.0904</v>
       </c>
       <c r="G23" t="n">
-        <v>11.88116666666666</v>
+        <v>11.88016666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>11.78</v>
       </c>
       <c r="F24" t="n">
-        <v>10819.2421</v>
+        <v>12364.8482</v>
       </c>
       <c r="G24" t="n">
-        <v>11.88216666666666</v>
+        <v>11.88116666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>11.78</v>
       </c>
       <c r="F25" t="n">
-        <v>16228.8633</v>
+        <v>10819.2421</v>
       </c>
       <c r="G25" t="n">
-        <v>11.88533333333333</v>
+        <v>11.88216666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="C26" t="n">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="D26" t="n">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="E26" t="n">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="F26" t="n">
-        <v>14876.4579</v>
+        <v>16228.8633</v>
       </c>
       <c r="G26" t="n">
-        <v>11.88666666666666</v>
+        <v>11.88533333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.82</v>
+        <v>11.8</v>
       </c>
       <c r="C27" t="n">
         <v>11.8</v>
       </c>
       <c r="D27" t="n">
-        <v>11.82</v>
+        <v>11.8</v>
       </c>
       <c r="E27" t="n">
         <v>11.8</v>
       </c>
       <c r="F27" t="n">
-        <v>121463.5406</v>
+        <v>14876.4579</v>
       </c>
       <c r="G27" t="n">
-        <v>11.88733333333333</v>
+        <v>11.88666666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C28" t="n">
         <v>11.8</v>
       </c>
-      <c r="C28" t="n">
-        <v>11.7</v>
-      </c>
       <c r="D28" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E28" t="n">
         <v>11.8</v>
       </c>
-      <c r="E28" t="n">
-        <v>11.7</v>
-      </c>
       <c r="F28" t="n">
-        <v>429244.656</v>
+        <v>121463.5406</v>
       </c>
       <c r="G28" t="n">
-        <v>11.88883333333333</v>
+        <v>11.88733333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.71</v>
+        <v>11.8</v>
       </c>
       <c r="C29" t="n">
         <v>11.7</v>
       </c>
       <c r="D29" t="n">
-        <v>11.71</v>
+        <v>11.8</v>
       </c>
       <c r="E29" t="n">
         <v>11.7</v>
       </c>
       <c r="F29" t="n">
-        <v>62075.714</v>
+        <v>429244.656</v>
       </c>
       <c r="G29" t="n">
-        <v>11.89049999999999</v>
+        <v>11.88883333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="C30" t="n">
         <v>11.7</v>
       </c>
       <c r="D30" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="E30" t="n">
         <v>11.7</v>
       </c>
       <c r="F30" t="n">
-        <v>22457.5645</v>
+        <v>62075.714</v>
       </c>
       <c r="G30" t="n">
-        <v>11.88949999999999</v>
+        <v>11.89049999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="C31" t="n">
-        <v>11.92</v>
+        <v>11.7</v>
       </c>
       <c r="D31" t="n">
-        <v>11.92</v>
+        <v>11.7</v>
       </c>
       <c r="E31" t="n">
-        <v>11.65</v>
+        <v>11.7</v>
       </c>
       <c r="F31" t="n">
-        <v>12649.4919</v>
+        <v>22457.5645</v>
       </c>
       <c r="G31" t="n">
-        <v>11.89433333333333</v>
+        <v>11.88949999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,19 +1483,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.74</v>
+        <v>11.66</v>
       </c>
       <c r="C32" t="n">
-        <v>11.74</v>
+        <v>11.92</v>
       </c>
       <c r="D32" t="n">
-        <v>11.74</v>
+        <v>11.92</v>
       </c>
       <c r="E32" t="n">
-        <v>11.74</v>
+        <v>11.65</v>
       </c>
       <c r="F32" t="n">
-        <v>376.9705</v>
+        <v>12649.4919</v>
       </c>
       <c r="G32" t="n">
         <v>11.89433333333333</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.91</v>
+        <v>11.74</v>
       </c>
       <c r="C33" t="n">
-        <v>11.91</v>
+        <v>11.74</v>
       </c>
       <c r="D33" t="n">
-        <v>11.91</v>
+        <v>11.74</v>
       </c>
       <c r="E33" t="n">
-        <v>11.91</v>
+        <v>11.74</v>
       </c>
       <c r="F33" t="n">
-        <v>42</v>
+        <v>376.9705</v>
       </c>
       <c r="G33" t="n">
-        <v>11.89716666666666</v>
+        <v>11.89433333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.77</v>
+        <v>11.91</v>
       </c>
       <c r="C34" t="n">
-        <v>11.77</v>
+        <v>11.91</v>
       </c>
       <c r="D34" t="n">
-        <v>11.77</v>
+        <v>11.91</v>
       </c>
       <c r="E34" t="n">
-        <v>11.77</v>
+        <v>11.91</v>
       </c>
       <c r="F34" t="n">
-        <v>1214.4907</v>
+        <v>42</v>
       </c>
       <c r="G34" t="n">
-        <v>11.89849999999999</v>
+        <v>11.89716666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>11.77</v>
       </c>
       <c r="F35" t="n">
-        <v>11972.55734919286</v>
+        <v>1214.4907</v>
       </c>
       <c r="G35" t="n">
-        <v>11.89983333333332</v>
+        <v>11.89849999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.68</v>
+        <v>11.77</v>
       </c>
       <c r="C36" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="D36" t="n">
-        <v>11.68</v>
+        <v>11.77</v>
       </c>
       <c r="E36" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="F36" t="n">
-        <v>41033.6646</v>
+        <v>11972.55734919286</v>
       </c>
       <c r="G36" t="n">
-        <v>11.89949999999999</v>
+        <v>11.89983333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.77</v>
+        <v>11.68</v>
       </c>
       <c r="C37" t="n">
-        <v>11.77</v>
+        <v>11.67</v>
       </c>
       <c r="D37" t="n">
-        <v>11.77</v>
+        <v>11.68</v>
       </c>
       <c r="E37" t="n">
-        <v>11.77</v>
+        <v>11.67</v>
       </c>
       <c r="F37" t="n">
-        <v>43</v>
+        <v>41033.6646</v>
       </c>
       <c r="G37" t="n">
-        <v>11.90083333333332</v>
+        <v>11.89949999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,28 +1696,32 @@
         <v>11.77</v>
       </c>
       <c r="C38" t="n">
-        <v>12.12</v>
+        <v>11.77</v>
       </c>
       <c r="D38" t="n">
-        <v>12.12</v>
+        <v>11.77</v>
       </c>
       <c r="E38" t="n">
         <v>11.77</v>
       </c>
       <c r="F38" t="n">
-        <v>442485.709463926</v>
+        <v>43</v>
       </c>
       <c r="G38" t="n">
-        <v>11.90799999999999</v>
+        <v>11.90083333333332</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11.67</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1728,22 +1732,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.11</v>
+        <v>11.77</v>
       </c>
       <c r="C39" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="D39" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="E39" t="n">
-        <v>12.11</v>
+        <v>11.77</v>
       </c>
       <c r="F39" t="n">
-        <v>254620.912</v>
+        <v>442485.709463926</v>
       </c>
       <c r="G39" t="n">
-        <v>11.91666666666665</v>
+        <v>11.90799999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1773,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.13</v>
+        <v>12.11</v>
       </c>
       <c r="C40" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="D40" t="n">
-        <v>12.22</v>
+        <v>12.15</v>
       </c>
       <c r="E40" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="F40" t="n">
-        <v>402571.4204</v>
+        <v>254620.912</v>
       </c>
       <c r="G40" t="n">
-        <v>11.92366666666666</v>
+        <v>11.91666666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1797,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="C41" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D41" t="n">
         <v>12.22</v>
       </c>
-      <c r="D41" t="n">
-        <v>12.23</v>
-      </c>
       <c r="E41" t="n">
         <v>12.03</v>
       </c>
       <c r="F41" t="n">
-        <v>178273.6406868812</v>
+        <v>402571.4204</v>
       </c>
       <c r="G41" t="n">
-        <v>11.93133333333332</v>
+        <v>11.92366666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C42" t="n">
         <v>12.22</v>
       </c>
-      <c r="C42" t="n">
-        <v>12.27</v>
-      </c>
       <c r="D42" t="n">
-        <v>12.27</v>
+        <v>12.23</v>
       </c>
       <c r="E42" t="n">
-        <v>12.22</v>
+        <v>12.03</v>
       </c>
       <c r="F42" t="n">
-        <v>124887.8887</v>
+        <v>178273.6406868812</v>
       </c>
       <c r="G42" t="n">
-        <v>11.93966666666666</v>
+        <v>11.93133333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1887,19 @@
         <v>12.22</v>
       </c>
       <c r="C43" t="n">
-        <v>12.5</v>
+        <v>12.27</v>
       </c>
       <c r="D43" t="n">
-        <v>12.5</v>
+        <v>12.27</v>
       </c>
       <c r="E43" t="n">
         <v>12.22</v>
       </c>
       <c r="F43" t="n">
-        <v>952645.5450131188</v>
+        <v>124887.8887</v>
       </c>
       <c r="G43" t="n">
-        <v>11.94549999999999</v>
+        <v>11.93966666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.52</v>
+        <v>12.22</v>
       </c>
       <c r="C44" t="n">
-        <v>12.76</v>
+        <v>12.5</v>
       </c>
       <c r="D44" t="n">
-        <v>12.76</v>
+        <v>12.5</v>
       </c>
       <c r="E44" t="n">
-        <v>12.51</v>
+        <v>12.22</v>
       </c>
       <c r="F44" t="n">
-        <v>305872.5509</v>
+        <v>952645.5450131188</v>
       </c>
       <c r="G44" t="n">
-        <v>11.95449999999999</v>
+        <v>11.94549999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C45" t="n">
         <v>12.76</v>
       </c>
-      <c r="C45" t="n">
-        <v>12.79</v>
-      </c>
       <c r="D45" t="n">
-        <v>13.14</v>
+        <v>12.76</v>
       </c>
       <c r="E45" t="n">
-        <v>12.76</v>
+        <v>12.51</v>
       </c>
       <c r="F45" t="n">
-        <v>982794.9059840125</v>
+        <v>305872.5509</v>
       </c>
       <c r="G45" t="n">
-        <v>11.96416666666665</v>
+        <v>11.95449999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,28 +1989,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.78</v>
+        <v>12.76</v>
       </c>
       <c r="C46" t="n">
-        <v>12.75</v>
+        <v>12.79</v>
       </c>
       <c r="D46" t="n">
-        <v>12.78</v>
+        <v>13.14</v>
       </c>
       <c r="E46" t="n">
-        <v>12.75</v>
+        <v>12.76</v>
       </c>
       <c r="F46" t="n">
-        <v>62656.88280070422</v>
+        <v>982794.9059840125</v>
       </c>
       <c r="G46" t="n">
-        <v>11.98066666666665</v>
+        <v>11.96416666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2008,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.74</v>
+        <v>12.78</v>
       </c>
       <c r="C47" t="n">
-        <v>12.6</v>
+        <v>12.75</v>
       </c>
       <c r="D47" t="n">
-        <v>12.74</v>
+        <v>12.78</v>
       </c>
       <c r="E47" t="n">
-        <v>12.6</v>
+        <v>12.75</v>
       </c>
       <c r="F47" t="n">
-        <v>18879.5169</v>
+        <v>62656.88280070422</v>
       </c>
       <c r="G47" t="n">
-        <v>11.98716666666665</v>
+        <v>11.98066666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,28 +2059,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.69</v>
+        <v>12.74</v>
       </c>
       <c r="C48" t="n">
-        <v>12.67</v>
+        <v>12.6</v>
       </c>
       <c r="D48" t="n">
-        <v>12.69</v>
+        <v>12.74</v>
       </c>
       <c r="E48" t="n">
-        <v>12.41</v>
+        <v>12.6</v>
       </c>
       <c r="F48" t="n">
-        <v>64885.6952</v>
+        <v>18879.5169</v>
       </c>
       <c r="G48" t="n">
-        <v>11.99733333333332</v>
+        <v>11.98716666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.66</v>
+        <v>12.69</v>
       </c>
       <c r="C49" t="n">
-        <v>12.37</v>
+        <v>12.67</v>
       </c>
       <c r="D49" t="n">
-        <v>12.66</v>
+        <v>12.69</v>
       </c>
       <c r="E49" t="n">
-        <v>12.09</v>
+        <v>12.41</v>
       </c>
       <c r="F49" t="n">
-        <v>157329.2626</v>
+        <v>64885.6952</v>
       </c>
       <c r="G49" t="n">
-        <v>12.00249999999999</v>
+        <v>11.99733333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.4</v>
+        <v>12.66</v>
       </c>
       <c r="C50" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="D50" t="n">
-        <v>12.67</v>
+        <v>12.66</v>
       </c>
       <c r="E50" t="n">
-        <v>12.4</v>
+        <v>12.09</v>
       </c>
       <c r="F50" t="n">
-        <v>322505.9553</v>
+        <v>157329.2626</v>
       </c>
       <c r="G50" t="n">
-        <v>12.01133333333332</v>
+        <v>12.00249999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.66</v>
+        <v>12.4</v>
       </c>
       <c r="C51" t="n">
-        <v>12.42</v>
+        <v>12.59</v>
       </c>
       <c r="D51" t="n">
         <v>12.67</v>
       </c>
       <c r="E51" t="n">
-        <v>12.42</v>
+        <v>12.4</v>
       </c>
       <c r="F51" t="n">
-        <v>324610.4448</v>
+        <v>322505.9553</v>
       </c>
       <c r="G51" t="n">
-        <v>12.01733333333332</v>
+        <v>12.01133333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.6</v>
+        <v>12.66</v>
       </c>
       <c r="C52" t="n">
-        <v>12.62</v>
+        <v>12.42</v>
       </c>
       <c r="D52" t="n">
-        <v>12.66</v>
+        <v>12.67</v>
       </c>
       <c r="E52" t="n">
-        <v>12.6</v>
+        <v>12.42</v>
       </c>
       <c r="F52" t="n">
-        <v>4400</v>
+        <v>324610.4448</v>
       </c>
       <c r="G52" t="n">
-        <v>12.02666666666666</v>
+        <v>12.01733333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="C53" t="n">
-        <v>12.41</v>
+        <v>12.62</v>
       </c>
       <c r="D53" t="n">
-        <v>12.61</v>
+        <v>12.66</v>
       </c>
       <c r="E53" t="n">
-        <v>12.14</v>
+        <v>12.6</v>
       </c>
       <c r="F53" t="n">
-        <v>395361.9014</v>
+        <v>4400</v>
       </c>
       <c r="G53" t="n">
-        <v>12.03349999999999</v>
+        <v>12.02666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.49</v>
+        <v>12.61</v>
       </c>
       <c r="C54" t="n">
-        <v>12.49</v>
+        <v>12.41</v>
       </c>
       <c r="D54" t="n">
-        <v>12.49</v>
+        <v>12.61</v>
       </c>
       <c r="E54" t="n">
-        <v>12.2</v>
+        <v>12.14</v>
       </c>
       <c r="F54" t="n">
-        <v>73925.894</v>
+        <v>395361.9014</v>
       </c>
       <c r="G54" t="n">
-        <v>12.04483333333332</v>
+        <v>12.03349999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C55" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="D55" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="E55" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>73925.894</v>
       </c>
       <c r="G55" t="n">
-        <v>12.05649999999999</v>
+        <v>12.04483333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2342,19 @@
         <v>12.5</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D56" t="n">
-        <v>12.92</v>
+        <v>12.5</v>
       </c>
       <c r="E56" t="n">
         <v>12.5</v>
       </c>
       <c r="F56" t="n">
-        <v>239136.0099</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
-        <v>12.07299999999999</v>
+        <v>12.05649999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C57" t="n">
         <v>12.7</v>
       </c>
-      <c r="C57" t="n">
-        <v>12.98</v>
-      </c>
       <c r="D57" t="n">
-        <v>12.98</v>
+        <v>12.92</v>
       </c>
       <c r="E57" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F57" t="n">
-        <v>247917.5562</v>
+        <v>239136.0099</v>
       </c>
       <c r="G57" t="n">
-        <v>12.09099999999999</v>
+        <v>12.07299999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.04</v>
+        <v>12.7</v>
       </c>
       <c r="C58" t="n">
-        <v>13.15</v>
+        <v>12.98</v>
       </c>
       <c r="D58" t="n">
-        <v>13.16</v>
+        <v>12.98</v>
       </c>
       <c r="E58" t="n">
-        <v>13.04</v>
+        <v>12.7</v>
       </c>
       <c r="F58" t="n">
-        <v>228116.3585</v>
+        <v>247917.5562</v>
       </c>
       <c r="G58" t="n">
-        <v>12.11183333333333</v>
+        <v>12.09099999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.17</v>
+        <v>13.04</v>
       </c>
       <c r="C59" t="n">
-        <v>13.22</v>
+        <v>13.15</v>
       </c>
       <c r="D59" t="n">
-        <v>13.31</v>
+        <v>13.16</v>
       </c>
       <c r="E59" t="n">
-        <v>13.15</v>
+        <v>13.04</v>
       </c>
       <c r="F59" t="n">
-        <v>1394857.2097</v>
+        <v>228116.3585</v>
       </c>
       <c r="G59" t="n">
-        <v>12.13399999999999</v>
+        <v>12.11183333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.21</v>
+        <v>13.17</v>
       </c>
       <c r="C60" t="n">
-        <v>13.08</v>
+        <v>13.22</v>
       </c>
       <c r="D60" t="n">
-        <v>13.22</v>
+        <v>13.31</v>
       </c>
       <c r="E60" t="n">
-        <v>13.08</v>
+        <v>13.15</v>
       </c>
       <c r="F60" t="n">
-        <v>227021.8965</v>
+        <v>1394857.2097</v>
       </c>
       <c r="G60" t="n">
-        <v>12.15533333333333</v>
+        <v>12.13399999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.2</v>
+        <v>13.21</v>
       </c>
       <c r="C61" t="n">
-        <v>12.7</v>
+        <v>13.08</v>
       </c>
       <c r="D61" t="n">
-        <v>13.2</v>
+        <v>13.22</v>
       </c>
       <c r="E61" t="n">
-        <v>12.7</v>
+        <v>13.08</v>
       </c>
       <c r="F61" t="n">
-        <v>181034.0182</v>
+        <v>227021.8965</v>
       </c>
       <c r="G61" t="n">
-        <v>12.17033333333333</v>
+        <v>12.15533333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.09</v>
+        <v>13.2</v>
       </c>
       <c r="C62" t="n">
-        <v>12.85</v>
+        <v>12.7</v>
       </c>
       <c r="D62" t="n">
-        <v>13.09</v>
+        <v>13.2</v>
       </c>
       <c r="E62" t="n">
-        <v>12.57</v>
+        <v>12.7</v>
       </c>
       <c r="F62" t="n">
-        <v>105864.0392</v>
+        <v>181034.0182</v>
       </c>
       <c r="G62" t="n">
-        <v>12.189</v>
+        <v>12.17033333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.69</v>
+        <v>13.09</v>
       </c>
       <c r="C63" t="n">
-        <v>12.8</v>
+        <v>12.85</v>
       </c>
       <c r="D63" t="n">
-        <v>13.18</v>
+        <v>13.09</v>
       </c>
       <c r="E63" t="n">
-        <v>12.69</v>
+        <v>12.57</v>
       </c>
       <c r="F63" t="n">
-        <v>209997.3861</v>
+        <v>105864.0392</v>
       </c>
       <c r="G63" t="n">
-        <v>12.20683333333333</v>
+        <v>12.189</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C64" t="n">
         <v>12.8</v>
       </c>
-      <c r="C64" t="n">
-        <v>12.56</v>
-      </c>
       <c r="D64" t="n">
-        <v>12.8</v>
+        <v>13.18</v>
       </c>
       <c r="E64" t="n">
-        <v>12.56</v>
+        <v>12.69</v>
       </c>
       <c r="F64" t="n">
-        <v>115712.7233</v>
+        <v>209997.3861</v>
       </c>
       <c r="G64" t="n">
-        <v>12.22066666666666</v>
+        <v>12.20683333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C65" t="n">
         <v>12.56</v>
       </c>
-      <c r="C65" t="n">
-        <v>13.05</v>
-      </c>
       <c r="D65" t="n">
-        <v>13.08</v>
+        <v>12.8</v>
       </c>
       <c r="E65" t="n">
         <v>12.56</v>
       </c>
       <c r="F65" t="n">
-        <v>142608.2106</v>
+        <v>115712.7233</v>
       </c>
       <c r="G65" t="n">
-        <v>12.23716666666666</v>
+        <v>12.22066666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.72</v>
+        <v>12.56</v>
       </c>
       <c r="C66" t="n">
-        <v>12.7</v>
+        <v>13.05</v>
       </c>
       <c r="D66" t="n">
-        <v>12.72</v>
+        <v>13.08</v>
       </c>
       <c r="E66" t="n">
-        <v>12.7</v>
+        <v>12.56</v>
       </c>
       <c r="F66" t="n">
-        <v>218119.6066</v>
+        <v>142608.2106</v>
       </c>
       <c r="G66" t="n">
-        <v>12.24783333333333</v>
+        <v>12.23716666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.7</v>
+        <v>12.72</v>
       </c>
       <c r="C67" t="n">
         <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>12.7</v>
+        <v>12.72</v>
       </c>
       <c r="E67" t="n">
         <v>12.7</v>
       </c>
       <c r="F67" t="n">
-        <v>18018.3603</v>
+        <v>218119.6066</v>
       </c>
       <c r="G67" t="n">
-        <v>12.2575</v>
+        <v>12.24783333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2771,10 @@
         <v>12.7</v>
       </c>
       <c r="F68" t="n">
-        <v>47060.9444</v>
+        <v>18018.3603</v>
       </c>
       <c r="G68" t="n">
-        <v>12.268</v>
+        <v>12.2575</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2806,10 @@
         <v>12.7</v>
       </c>
       <c r="F69" t="n">
-        <v>150744.8104</v>
+        <v>47060.9444</v>
       </c>
       <c r="G69" t="n">
-        <v>12.27866666666666</v>
+        <v>12.268</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2841,10 @@
         <v>12.7</v>
       </c>
       <c r="F70" t="n">
-        <v>196324.5417</v>
+        <v>150744.8104</v>
       </c>
       <c r="G70" t="n">
-        <v>12.2885</v>
+        <v>12.27866666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2857,13 +2873,13 @@
         <v>12.7</v>
       </c>
       <c r="E71" t="n">
-        <v>12.58</v>
+        <v>12.7</v>
       </c>
       <c r="F71" t="n">
-        <v>74569.47259999999</v>
+        <v>196324.5417</v>
       </c>
       <c r="G71" t="n">
-        <v>12.29783333333333</v>
+        <v>12.2885</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.87</v>
+        <v>12.7</v>
       </c>
       <c r="C72" t="n">
-        <v>12.88</v>
+        <v>12.7</v>
       </c>
       <c r="D72" t="n">
-        <v>12.93</v>
+        <v>12.7</v>
       </c>
       <c r="E72" t="n">
         <v>12.58</v>
       </c>
       <c r="F72" t="n">
-        <v>70144.22659999999</v>
+        <v>74569.47259999999</v>
       </c>
       <c r="G72" t="n">
-        <v>12.31</v>
+        <v>12.29783333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2937,19 @@
         <v>12.87</v>
       </c>
       <c r="C73" t="n">
-        <v>12.8</v>
+        <v>12.88</v>
       </c>
       <c r="D73" t="n">
-        <v>12.87</v>
+        <v>12.93</v>
       </c>
       <c r="E73" t="n">
-        <v>12.71</v>
+        <v>12.58</v>
       </c>
       <c r="F73" t="n">
-        <v>69785.0003</v>
+        <v>70144.22659999999</v>
       </c>
       <c r="G73" t="n">
-        <v>12.3205</v>
+        <v>12.31</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.79</v>
+        <v>12.87</v>
       </c>
       <c r="C74" t="n">
         <v>12.8</v>
       </c>
       <c r="D74" t="n">
-        <v>12.8</v>
+        <v>12.87</v>
       </c>
       <c r="E74" t="n">
-        <v>12.79</v>
+        <v>12.71</v>
       </c>
       <c r="F74" t="n">
-        <v>3125.1875</v>
+        <v>69785.0003</v>
       </c>
       <c r="G74" t="n">
-        <v>12.331</v>
+        <v>12.3205</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +3004,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="C75" t="n">
         <v>12.8</v>
@@ -2997,13 +3013,13 @@
         <v>12.8</v>
       </c>
       <c r="E75" t="n">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="F75" t="n">
-        <v>60202.0425</v>
+        <v>3125.1875</v>
       </c>
       <c r="G75" t="n">
-        <v>12.34383333333333</v>
+        <v>12.331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C76" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D76" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E76" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F76" t="n">
-        <v>20240.8611</v>
+        <v>60202.0425</v>
       </c>
       <c r="G76" t="n">
-        <v>12.355</v>
+        <v>12.34383333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="C77" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="D77" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="E77" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="F77" t="n">
-        <v>426011.1715</v>
+        <v>20240.8611</v>
       </c>
       <c r="G77" t="n">
-        <v>12.363</v>
+        <v>12.355</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>12.65</v>
       </c>
       <c r="C78" t="n">
-        <v>12.49</v>
+        <v>12.51</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5</v>
+        <v>12.65</v>
       </c>
       <c r="E78" t="n">
-        <v>12.49</v>
+        <v>12.51</v>
       </c>
       <c r="F78" t="n">
-        <v>358040.7656</v>
+        <v>426011.1715</v>
       </c>
       <c r="G78" t="n">
-        <v>12.37366666666667</v>
+        <v>12.363</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="C79" t="n">
         <v>12.49</v>
       </c>
       <c r="D79" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="E79" t="n">
         <v>12.49</v>
       </c>
       <c r="F79" t="n">
-        <v>25166.929</v>
+        <v>358040.7656</v>
       </c>
       <c r="G79" t="n">
-        <v>12.38483333333333</v>
+        <v>12.37366666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3191,10 @@
         <v>12.49</v>
       </c>
       <c r="F80" t="n">
-        <v>7300</v>
+        <v>25166.929</v>
       </c>
       <c r="G80" t="n">
-        <v>12.39666666666667</v>
+        <v>12.38483333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.31</v>
+        <v>12.49</v>
       </c>
       <c r="C81" t="n">
-        <v>12.12</v>
+        <v>12.49</v>
       </c>
       <c r="D81" t="n">
-        <v>12.31</v>
+        <v>12.49</v>
       </c>
       <c r="E81" t="n">
-        <v>12.12</v>
+        <v>12.49</v>
       </c>
       <c r="F81" t="n">
-        <v>8110.8774</v>
+        <v>7300</v>
       </c>
       <c r="G81" t="n">
-        <v>12.40233333333333</v>
+        <v>12.39666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.34</v>
+        <v>12.31</v>
       </c>
       <c r="C82" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="D82" t="n">
-        <v>12.35</v>
+        <v>12.31</v>
       </c>
       <c r="E82" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="F82" t="n">
-        <v>72424.0866</v>
+        <v>8110.8774</v>
       </c>
       <c r="G82" t="n">
-        <v>12.409</v>
+        <v>12.40233333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.18</v>
+        <v>12.34</v>
       </c>
       <c r="C83" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="D83" t="n">
-        <v>12.18</v>
+        <v>12.35</v>
       </c>
       <c r="E83" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="F83" t="n">
-        <v>80207.376</v>
+        <v>72424.0866</v>
       </c>
       <c r="G83" t="n">
-        <v>12.41516666666667</v>
+        <v>12.409</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.14</v>
+        <v>12.18</v>
       </c>
       <c r="C84" t="n">
-        <v>12.14</v>
+        <v>12.15</v>
       </c>
       <c r="D84" t="n">
-        <v>12.14</v>
+        <v>12.18</v>
       </c>
       <c r="E84" t="n">
-        <v>12.14</v>
+        <v>12.15</v>
       </c>
       <c r="F84" t="n">
-        <v>51199.7726</v>
+        <v>80207.376</v>
       </c>
       <c r="G84" t="n">
-        <v>12.42116666666667</v>
+        <v>12.41516666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.22</v>
+        <v>12.14</v>
       </c>
       <c r="C85" t="n">
-        <v>12.13</v>
+        <v>12.14</v>
       </c>
       <c r="D85" t="n">
-        <v>12.22</v>
+        <v>12.14</v>
       </c>
       <c r="E85" t="n">
-        <v>12.13</v>
+        <v>12.14</v>
       </c>
       <c r="F85" t="n">
-        <v>92672.6243</v>
+        <v>51199.7726</v>
       </c>
       <c r="G85" t="n">
-        <v>12.427</v>
+        <v>12.42116666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.12</v>
+        <v>12.22</v>
       </c>
       <c r="C86" t="n">
-        <v>12.1</v>
+        <v>12.13</v>
       </c>
       <c r="D86" t="n">
-        <v>12.12</v>
+        <v>12.22</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>12.13</v>
       </c>
       <c r="F86" t="n">
-        <v>7807.6335</v>
+        <v>92672.6243</v>
       </c>
       <c r="G86" t="n">
-        <v>12.432</v>
+        <v>12.427</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="C87" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="E87" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>301554.1764</v>
+        <v>7807.6335</v>
       </c>
       <c r="G87" t="n">
-        <v>12.43583333333334</v>
+        <v>12.432</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="C88" t="n">
         <v>12.03</v>
       </c>
       <c r="D88" t="n">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="E88" t="n">
         <v>12.03</v>
       </c>
       <c r="F88" t="n">
-        <v>26102.652</v>
+        <v>301554.1764</v>
       </c>
       <c r="G88" t="n">
-        <v>12.44133333333334</v>
+        <v>12.43583333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,31 +3494,35 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.11</v>
+        <v>12.03</v>
       </c>
       <c r="C89" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="D89" t="n">
-        <v>12.11</v>
+        <v>12.03</v>
       </c>
       <c r="E89" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="F89" t="n">
-        <v>4993.3884</v>
+        <v>26102.652</v>
       </c>
       <c r="G89" t="n">
-        <v>12.448</v>
+        <v>12.44133333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12.03</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3513,32 +3533,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="C90" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="D90" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="E90" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="F90" t="n">
-        <v>2379.5362</v>
+        <v>4993.3884</v>
       </c>
       <c r="G90" t="n">
-        <v>12.45333333333333</v>
+        <v>12.448</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,32 +3576,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C91" t="n">
         <v>12.02</v>
       </c>
-      <c r="C91" t="n">
-        <v>11.88</v>
-      </c>
       <c r="D91" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E91" t="n">
         <v>12.02</v>
       </c>
-      <c r="E91" t="n">
-        <v>11.88</v>
-      </c>
       <c r="F91" t="n">
-        <v>68522.1663</v>
+        <v>2379.5362</v>
       </c>
       <c r="G91" t="n">
-        <v>12.45266666666667</v>
+        <v>12.45333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,32 +3619,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="C92" t="n">
-        <v>11.91</v>
+        <v>11.88</v>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="E92" t="n">
         <v>11.88</v>
       </c>
       <c r="F92" t="n">
-        <v>53622.7926</v>
+        <v>68522.1663</v>
       </c>
       <c r="G92" t="n">
-        <v>12.4555</v>
+        <v>12.45266666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="K92" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3662,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C93" t="n">
-        <v>12.1</v>
+        <v>11.91</v>
       </c>
       <c r="D93" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>12.1</v>
+        <v>11.88</v>
       </c>
       <c r="F93" t="n">
-        <v>173156.3043</v>
+        <v>53622.7926</v>
       </c>
       <c r="G93" t="n">
-        <v>12.45866666666667</v>
+        <v>12.4555</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3642,12 +3686,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>11.91</v>
+        <v>11.88</v>
       </c>
       <c r="K93" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3669,24 +3717,26 @@
         <v>12.1</v>
       </c>
       <c r="F94" t="n">
-        <v>1506.0027</v>
+        <v>173156.3043</v>
       </c>
       <c r="G94" t="n">
-        <v>12.46416666666667</v>
+        <v>12.45866666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K94" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -3698,22 +3748,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.22</v>
+        <v>12.1</v>
       </c>
       <c r="C95" t="n">
-        <v>12.22</v>
+        <v>12.1</v>
       </c>
       <c r="D95" t="n">
-        <v>12.22</v>
+        <v>12.1</v>
       </c>
       <c r="E95" t="n">
-        <v>12.22</v>
+        <v>12.1</v>
       </c>
       <c r="F95" t="n">
-        <v>3614.4878</v>
+        <v>1506.0027</v>
       </c>
       <c r="G95" t="n">
-        <v>12.47166666666667</v>
+        <v>12.46416666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,11 +3773,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3751,10 +3801,10 @@
         <v>12.22</v>
       </c>
       <c r="F96" t="n">
-        <v>1111</v>
+        <v>3614.4878</v>
       </c>
       <c r="G96" t="n">
-        <v>12.48083333333334</v>
+        <v>12.47166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3763,8 +3813,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3774,22 +3830,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.99</v>
+        <v>12.22</v>
       </c>
       <c r="C97" t="n">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
       <c r="D97" t="n">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
       <c r="E97" t="n">
-        <v>11.98</v>
+        <v>12.22</v>
       </c>
       <c r="F97" t="n">
-        <v>16888.2181</v>
+        <v>1111</v>
       </c>
       <c r="G97" t="n">
-        <v>12.489</v>
+        <v>12.48083333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3798,8 +3854,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3809,22 +3871,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.22</v>
+        <v>11.99</v>
       </c>
       <c r="C98" t="n">
-        <v>12.24</v>
+        <v>12.26</v>
       </c>
       <c r="D98" t="n">
-        <v>12.24</v>
+        <v>12.26</v>
       </c>
       <c r="E98" t="n">
-        <v>12.21</v>
+        <v>11.98</v>
       </c>
       <c r="F98" t="n">
-        <v>100033.5613</v>
+        <v>16888.2181</v>
       </c>
       <c r="G98" t="n">
-        <v>12.491</v>
+        <v>12.489</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,8 +3895,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3844,7 +3912,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.24</v>
+        <v>12.22</v>
       </c>
       <c r="C99" t="n">
         <v>12.24</v>
@@ -3853,13 +3921,13 @@
         <v>12.24</v>
       </c>
       <c r="E99" t="n">
-        <v>12.24</v>
+        <v>12.21</v>
       </c>
       <c r="F99" t="n">
-        <v>70783.98299999999</v>
+        <v>100033.5613</v>
       </c>
       <c r="G99" t="n">
-        <v>12.49250000000001</v>
+        <v>12.491</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,8 +3936,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +3953,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.26</v>
+        <v>12.24</v>
       </c>
       <c r="C100" t="n">
-        <v>12.28</v>
+        <v>12.24</v>
       </c>
       <c r="D100" t="n">
-        <v>12.28</v>
+        <v>12.24</v>
       </c>
       <c r="E100" t="n">
-        <v>12.26</v>
+        <v>12.24</v>
       </c>
       <c r="F100" t="n">
-        <v>7695.7111</v>
+        <v>70783.98299999999</v>
       </c>
       <c r="G100" t="n">
-        <v>12.494</v>
+        <v>12.49250000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3903,8 +3977,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +3994,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C101" t="n">
         <v>12.28</v>
       </c>
-      <c r="C101" t="n">
-        <v>12.65</v>
-      </c>
       <c r="D101" t="n">
-        <v>12.65</v>
+        <v>12.28</v>
       </c>
       <c r="E101" t="n">
-        <v>12.28</v>
+        <v>12.26</v>
       </c>
       <c r="F101" t="n">
-        <v>18969.1455</v>
+        <v>7695.7111</v>
       </c>
       <c r="G101" t="n">
-        <v>12.50116666666667</v>
+        <v>12.494</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3938,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3949,7 +4035,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.65</v>
+        <v>12.28</v>
       </c>
       <c r="C102" t="n">
         <v>12.65</v>
@@ -3958,13 +4044,13 @@
         <v>12.65</v>
       </c>
       <c r="E102" t="n">
-        <v>12.65</v>
+        <v>12.28</v>
       </c>
       <c r="F102" t="n">
-        <v>28755.7259</v>
+        <v>18969.1455</v>
       </c>
       <c r="G102" t="n">
-        <v>12.5075</v>
+        <v>12.50116666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3973,8 +4059,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4076,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.36</v>
+        <v>12.65</v>
       </c>
       <c r="C103" t="n">
-        <v>12.36</v>
+        <v>12.65</v>
       </c>
       <c r="D103" t="n">
-        <v>12.36</v>
+        <v>12.65</v>
       </c>
       <c r="E103" t="n">
-        <v>12.36</v>
+        <v>12.65</v>
       </c>
       <c r="F103" t="n">
-        <v>1828.6161</v>
+        <v>28755.7259</v>
       </c>
       <c r="G103" t="n">
-        <v>12.50516666666667</v>
+        <v>12.5075</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4008,8 +4100,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4022,19 +4120,19 @@
         <v>12.36</v>
       </c>
       <c r="C104" t="n">
-        <v>12.61</v>
+        <v>12.36</v>
       </c>
       <c r="D104" t="n">
-        <v>12.61</v>
+        <v>12.36</v>
       </c>
       <c r="E104" t="n">
         <v>12.36</v>
       </c>
       <c r="F104" t="n">
-        <v>10209.5285</v>
+        <v>1828.6161</v>
       </c>
       <c r="G104" t="n">
-        <v>12.50266666666667</v>
+        <v>12.50516666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4043,8 +4141,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4054,22 +4158,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.59</v>
+        <v>12.36</v>
       </c>
       <c r="C105" t="n">
-        <v>12.37</v>
+        <v>12.61</v>
       </c>
       <c r="D105" t="n">
-        <v>12.59</v>
+        <v>12.61</v>
       </c>
       <c r="E105" t="n">
-        <v>12.37</v>
+        <v>12.36</v>
       </c>
       <c r="F105" t="n">
-        <v>81</v>
+        <v>10209.5285</v>
       </c>
       <c r="G105" t="n">
-        <v>12.49566666666667</v>
+        <v>12.50266666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4078,8 +4182,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4089,10 +4199,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C106" t="n">
         <v>12.37</v>
-      </c>
-      <c r="C106" t="n">
-        <v>12.59</v>
       </c>
       <c r="D106" t="n">
         <v>12.59</v>
@@ -4101,10 +4211,10 @@
         <v>12.37</v>
       </c>
       <c r="F106" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="G106" t="n">
-        <v>12.493</v>
+        <v>12.49566666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4113,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4124,7 +4240,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.57</v>
+        <v>12.37</v>
       </c>
       <c r="C107" t="n">
         <v>12.59</v>
@@ -4133,13 +4249,13 @@
         <v>12.59</v>
       </c>
       <c r="E107" t="n">
-        <v>12.57</v>
+        <v>12.37</v>
       </c>
       <c r="F107" t="n">
-        <v>24058.3259</v>
+        <v>43</v>
       </c>
       <c r="G107" t="n">
-        <v>12.49283333333334</v>
+        <v>12.493</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4148,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +4281,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.35</v>
+        <v>12.57</v>
       </c>
       <c r="C108" t="n">
-        <v>12.35</v>
+        <v>12.59</v>
       </c>
       <c r="D108" t="n">
-        <v>12.35</v>
+        <v>12.59</v>
       </c>
       <c r="E108" t="n">
-        <v>12.35</v>
+        <v>12.57</v>
       </c>
       <c r="F108" t="n">
-        <v>14581.1123</v>
+        <v>24058.3259</v>
       </c>
       <c r="G108" t="n">
-        <v>12.48750000000001</v>
+        <v>12.49283333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4183,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4322,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.13</v>
+        <v>12.35</v>
       </c>
       <c r="C109" t="n">
-        <v>12.13</v>
+        <v>12.35</v>
       </c>
       <c r="D109" t="n">
-        <v>12.13</v>
+        <v>12.35</v>
       </c>
       <c r="E109" t="n">
-        <v>12.13</v>
+        <v>12.35</v>
       </c>
       <c r="F109" t="n">
-        <v>5991.2263</v>
+        <v>14581.1123</v>
       </c>
       <c r="G109" t="n">
-        <v>12.4835</v>
+        <v>12.48750000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4218,8 +4346,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4241,10 +4375,10 @@
         <v>12.13</v>
       </c>
       <c r="F110" t="n">
-        <v>12415.2193</v>
+        <v>5991.2263</v>
       </c>
       <c r="G110" t="n">
-        <v>12.47583333333334</v>
+        <v>12.4835</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4253,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +4404,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.41</v>
+        <v>12.13</v>
       </c>
       <c r="C111" t="n">
-        <v>12.41</v>
+        <v>12.13</v>
       </c>
       <c r="D111" t="n">
-        <v>12.41</v>
+        <v>12.13</v>
       </c>
       <c r="E111" t="n">
-        <v>12.41</v>
+        <v>12.13</v>
       </c>
       <c r="F111" t="n">
-        <v>55</v>
+        <v>12415.2193</v>
       </c>
       <c r="G111" t="n">
-        <v>12.47566666666667</v>
+        <v>12.47583333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4288,8 +4428,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4299,22 +4445,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.3</v>
+        <v>12.41</v>
       </c>
       <c r="C112" t="n">
-        <v>12.3</v>
+        <v>12.41</v>
       </c>
       <c r="D112" t="n">
         <v>12.41</v>
       </c>
       <c r="E112" t="n">
-        <v>12.3</v>
+        <v>12.41</v>
       </c>
       <c r="F112" t="n">
-        <v>173543.4475</v>
+        <v>55</v>
       </c>
       <c r="G112" t="n">
-        <v>12.47033333333334</v>
+        <v>12.47566666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,19 +4486,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.41</v>
+        <v>12.3</v>
       </c>
       <c r="C113" t="n">
-        <v>12.41</v>
+        <v>12.3</v>
       </c>
       <c r="D113" t="n">
         <v>12.41</v>
       </c>
       <c r="E113" t="n">
-        <v>12.41</v>
+        <v>12.3</v>
       </c>
       <c r="F113" t="n">
-        <v>53</v>
+        <v>173543.4475</v>
       </c>
       <c r="G113" t="n">
         <v>12.47033333333334</v>
@@ -4358,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4369,22 +4527,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.26</v>
+        <v>12.41</v>
       </c>
       <c r="C114" t="n">
-        <v>12.26</v>
+        <v>12.41</v>
       </c>
       <c r="D114" t="n">
-        <v>12.26</v>
+        <v>12.41</v>
       </c>
       <c r="E114" t="n">
-        <v>12.26</v>
+        <v>12.41</v>
       </c>
       <c r="F114" t="n">
-        <v>1228.9677</v>
+        <v>53</v>
       </c>
       <c r="G114" t="n">
-        <v>12.4665</v>
+        <v>12.47033333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4416,10 +4580,10 @@
         <v>12.26</v>
       </c>
       <c r="F115" t="n">
-        <v>1481.3556</v>
+        <v>1228.9677</v>
       </c>
       <c r="G115" t="n">
-        <v>12.4625</v>
+        <v>12.4665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4442,19 +4612,19 @@
         <v>12.26</v>
       </c>
       <c r="C116" t="n">
-        <v>12.4</v>
+        <v>12.26</v>
       </c>
       <c r="D116" t="n">
-        <v>12.4</v>
+        <v>12.26</v>
       </c>
       <c r="E116" t="n">
-        <v>12.15</v>
+        <v>12.26</v>
       </c>
       <c r="F116" t="n">
-        <v>2616.8071</v>
+        <v>1481.3556</v>
       </c>
       <c r="G116" t="n">
-        <v>12.4575</v>
+        <v>12.4625</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4474,22 +4650,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E117" t="n">
         <v>12.15</v>
       </c>
-      <c r="C117" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.03</v>
-      </c>
       <c r="F117" t="n">
-        <v>81378.1661</v>
+        <v>2616.8071</v>
       </c>
       <c r="G117" t="n">
-        <v>12.44166666666667</v>
+        <v>12.4575</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,8 +4674,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4509,22 +4691,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="C118" t="n">
         <v>12.03</v>
       </c>
       <c r="D118" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="E118" t="n">
         <v>12.03</v>
       </c>
       <c r="F118" t="n">
-        <v>13057.9861</v>
+        <v>81378.1661</v>
       </c>
       <c r="G118" t="n">
-        <v>12.423</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,8 +4715,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4544,22 +4732,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="C119" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="D119" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="E119" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="F119" t="n">
-        <v>108112.2012</v>
+        <v>13057.9861</v>
       </c>
       <c r="G119" t="n">
-        <v>12.403</v>
+        <v>12.423</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4579,22 +4773,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C120" t="n">
-        <v>11.93</v>
+        <v>12.02</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E120" t="n">
-        <v>11.93</v>
+        <v>12.02</v>
       </c>
       <c r="F120" t="n">
-        <v>69290.8806</v>
+        <v>108112.2012</v>
       </c>
       <c r="G120" t="n">
-        <v>12.38383333333333</v>
+        <v>12.403</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4814,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="D121" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="F121" t="n">
-        <v>3222</v>
+        <v>69290.8806</v>
       </c>
       <c r="G121" t="n">
-        <v>12.37383333333333</v>
+        <v>12.38383333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +4855,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="C122" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="D122" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="E122" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="F122" t="n">
-        <v>3159.392</v>
+        <v>3222</v>
       </c>
       <c r="G122" t="n">
-        <v>12.359</v>
+        <v>12.37383333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,8 +4879,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +4896,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="D123" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="F123" t="n">
-        <v>43.718</v>
+        <v>3159.392</v>
       </c>
       <c r="G123" t="n">
-        <v>12.34733333333333</v>
+        <v>12.359</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4719,22 +4937,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="C124" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="D124" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="E124" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>43.718</v>
       </c>
       <c r="G124" t="n">
-        <v>12.34066666666667</v>
+        <v>12.34733333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4754,22 +4978,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.97</v>
+        <v>12.16</v>
       </c>
       <c r="C125" t="n">
-        <v>11.95</v>
+        <v>12.16</v>
       </c>
       <c r="D125" t="n">
-        <v>11.97</v>
+        <v>12.16</v>
       </c>
       <c r="E125" t="n">
-        <v>11.95</v>
+        <v>12.16</v>
       </c>
       <c r="F125" t="n">
-        <v>172639.6185</v>
+        <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>12.32233333333334</v>
+        <v>12.34066666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4778,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4789,22 +5019,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.16</v>
+        <v>11.97</v>
       </c>
       <c r="C126" t="n">
-        <v>12.16</v>
+        <v>11.95</v>
       </c>
       <c r="D126" t="n">
-        <v>12.16</v>
+        <v>11.97</v>
       </c>
       <c r="E126" t="n">
-        <v>12.16</v>
+        <v>11.95</v>
       </c>
       <c r="F126" t="n">
-        <v>42</v>
+        <v>172639.6185</v>
       </c>
       <c r="G126" t="n">
-        <v>12.31333333333333</v>
+        <v>12.32233333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4813,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +5060,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.13</v>
+        <v>12.16</v>
       </c>
       <c r="C127" t="n">
-        <v>12.11</v>
+        <v>12.16</v>
       </c>
       <c r="D127" t="n">
-        <v>12.13</v>
+        <v>12.16</v>
       </c>
       <c r="E127" t="n">
-        <v>12.11</v>
+        <v>12.16</v>
       </c>
       <c r="F127" t="n">
-        <v>233.3331</v>
+        <v>42</v>
       </c>
       <c r="G127" t="n">
-        <v>12.3035</v>
+        <v>12.31333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4848,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4859,22 +5101,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.1</v>
+        <v>12.13</v>
       </c>
       <c r="C128" t="n">
-        <v>12.13</v>
+        <v>12.11</v>
       </c>
       <c r="D128" t="n">
         <v>12.13</v>
       </c>
       <c r="E128" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="F128" t="n">
-        <v>160.6059</v>
+        <v>233.3331</v>
       </c>
       <c r="G128" t="n">
-        <v>12.294</v>
+        <v>12.3035</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4883,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4894,7 +5142,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.13</v>
+        <v>12.1</v>
       </c>
       <c r="C129" t="n">
         <v>12.13</v>
@@ -4903,13 +5151,13 @@
         <v>12.13</v>
       </c>
       <c r="E129" t="n">
-        <v>12.13</v>
+        <v>12.1</v>
       </c>
       <c r="F129" t="n">
-        <v>77.7777</v>
+        <v>160.6059</v>
       </c>
       <c r="G129" t="n">
-        <v>12.2845</v>
+        <v>12.294</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4918,8 +5166,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4929,22 +5183,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="C130" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="D130" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="E130" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="F130" t="n">
-        <v>19845.4248</v>
+        <v>77.7777</v>
       </c>
       <c r="G130" t="n">
-        <v>12.27483333333333</v>
+        <v>12.2845</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4953,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +5224,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.01</v>
+        <v>12.12</v>
       </c>
       <c r="C131" t="n">
         <v>12.12</v>
@@ -4973,13 +5233,13 @@
         <v>12.12</v>
       </c>
       <c r="E131" t="n">
-        <v>11.91</v>
+        <v>12.12</v>
       </c>
       <c r="F131" t="n">
-        <v>78368.5913</v>
+        <v>19845.4248</v>
       </c>
       <c r="G131" t="n">
-        <v>12.26516666666666</v>
+        <v>12.27483333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4988,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4999,22 +5265,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C132" t="n">
         <v>12.12</v>
-      </c>
-      <c r="C132" t="n">
-        <v>11.92</v>
       </c>
       <c r="D132" t="n">
         <v>12.12</v>
       </c>
       <c r="E132" t="n">
-        <v>11.92</v>
+        <v>11.91</v>
       </c>
       <c r="F132" t="n">
-        <v>142442.1357</v>
+        <v>78368.5913</v>
       </c>
       <c r="G132" t="n">
-        <v>12.24916666666666</v>
+        <v>12.26516666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5023,8 +5289,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5034,22 +5306,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="C133" t="n">
-        <v>12.14</v>
+        <v>11.92</v>
       </c>
       <c r="D133" t="n">
-        <v>12.14</v>
+        <v>12.12</v>
       </c>
       <c r="E133" t="n">
-        <v>12.13</v>
+        <v>11.92</v>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>142442.1357</v>
       </c>
       <c r="G133" t="n">
-        <v>12.23816666666666</v>
+        <v>12.24916666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5058,8 +5330,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5069,7 +5347,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.14</v>
+        <v>12.13</v>
       </c>
       <c r="C134" t="n">
         <v>12.14</v>
@@ -5078,13 +5356,13 @@
         <v>12.14</v>
       </c>
       <c r="E134" t="n">
-        <v>12.14</v>
+        <v>12.13</v>
       </c>
       <c r="F134" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G134" t="n">
-        <v>12.22716666666667</v>
+        <v>12.23816666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5093,8 +5371,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5104,22 +5388,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="C135" t="n">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="D135" t="n">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="E135" t="n">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="F135" t="n">
-        <v>18738.2036</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>12.21266666666667</v>
+        <v>12.22716666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5128,8 +5412,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5139,22 +5429,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="C136" t="n">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="D136" t="n">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="E136" t="n">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="F136" t="n">
-        <v>45</v>
+        <v>18738.2036</v>
       </c>
       <c r="G136" t="n">
-        <v>12.20333333333333</v>
+        <v>12.21266666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5163,8 +5453,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5174,22 +5470,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="C137" t="n">
-        <v>11.91</v>
+        <v>12.14</v>
       </c>
       <c r="D137" t="n">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="E137" t="n">
-        <v>11.91</v>
+        <v>12.14</v>
       </c>
       <c r="F137" t="n">
-        <v>8850.5587</v>
+        <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>12.19333333333333</v>
+        <v>12.20333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5198,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5209,22 +5511,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.91</v>
+        <v>11.93</v>
       </c>
       <c r="C138" t="n">
         <v>11.91</v>
       </c>
       <c r="D138" t="n">
-        <v>11.91</v>
+        <v>11.93</v>
       </c>
       <c r="E138" t="n">
         <v>11.91</v>
       </c>
       <c r="F138" t="n">
-        <v>63642.5726</v>
+        <v>8850.5587</v>
       </c>
       <c r="G138" t="n">
-        <v>12.18366666666666</v>
+        <v>12.19333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5233,8 +5535,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5244,22 +5552,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.93</v>
+        <v>11.91</v>
       </c>
       <c r="C139" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="D139" t="n">
-        <v>11.93</v>
+        <v>11.91</v>
       </c>
       <c r="E139" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="F139" t="n">
-        <v>2188.7653</v>
+        <v>63642.5726</v>
       </c>
       <c r="G139" t="n">
-        <v>12.17383333333333</v>
+        <v>12.18366666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5268,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5279,22 +5593,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.88</v>
+        <v>11.93</v>
       </c>
       <c r="C140" t="n">
-        <v>11.86</v>
+        <v>11.9</v>
       </c>
       <c r="D140" t="n">
-        <v>11.88</v>
+        <v>11.93</v>
       </c>
       <c r="E140" t="n">
-        <v>11.86</v>
+        <v>11.9</v>
       </c>
       <c r="F140" t="n">
-        <v>82428.6557</v>
+        <v>2188.7653</v>
       </c>
       <c r="G140" t="n">
-        <v>12.16333333333333</v>
+        <v>12.17383333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5303,8 +5617,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5314,22 +5634,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="C141" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D141" t="n">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F141" t="n">
-        <v>1257.5109</v>
+        <v>82428.6557</v>
       </c>
       <c r="G141" t="n">
-        <v>12.16133333333333</v>
+        <v>12.16333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5338,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5352,19 +5678,19 @@
         <v>12</v>
       </c>
       <c r="C142" t="n">
-        <v>11.87</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
         <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>11.87</v>
+        <v>12</v>
       </c>
       <c r="F142" t="n">
-        <v>5042.6897</v>
+        <v>1257.5109</v>
       </c>
       <c r="G142" t="n">
-        <v>12.1565</v>
+        <v>12.16133333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5373,8 +5699,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5384,22 +5716,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>12.06</v>
+        <v>11.87</v>
       </c>
       <c r="D143" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="E143" t="n">
-        <v>12.06</v>
+        <v>11.87</v>
       </c>
       <c r="F143" t="n">
-        <v>43</v>
+        <v>5042.6897</v>
       </c>
       <c r="G143" t="n">
-        <v>12.155</v>
+        <v>12.1565</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5408,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5419,22 +5757,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="C144" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="D144" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="E144" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="F144" t="n">
-        <v>44.4444</v>
+        <v>43</v>
       </c>
       <c r="G144" t="n">
-        <v>12.15283333333333</v>
+        <v>12.155</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5443,8 +5781,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5454,22 +5798,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="C145" t="n">
-        <v>11.86</v>
+        <v>12.01</v>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="E145" t="n">
-        <v>11.86</v>
+        <v>12.01</v>
       </c>
       <c r="F145" t="n">
-        <v>24041.3133</v>
+        <v>44.4444</v>
       </c>
       <c r="G145" t="n">
-        <v>12.14833333333333</v>
+        <v>12.15283333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5478,8 +5822,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5489,22 +5839,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
         <v>11.86</v>
       </c>
       <c r="D146" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="E146" t="n">
         <v>11.86</v>
       </c>
       <c r="F146" t="n">
-        <v>24147.7257</v>
+        <v>24041.3133</v>
       </c>
       <c r="G146" t="n">
-        <v>12.14433333333333</v>
+        <v>12.14833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5513,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5524,22 +5880,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.88</v>
+        <v>11.86</v>
       </c>
       <c r="C147" t="n">
-        <v>11.89</v>
+        <v>11.86</v>
       </c>
       <c r="D147" t="n">
-        <v>11.89</v>
+        <v>11.86</v>
       </c>
       <c r="E147" t="n">
-        <v>11.88</v>
+        <v>11.86</v>
       </c>
       <c r="F147" t="n">
-        <v>9931.6315</v>
+        <v>24147.7257</v>
       </c>
       <c r="G147" t="n">
-        <v>12.142</v>
+        <v>12.14433333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5548,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5562,19 +5924,19 @@
         <v>11.88</v>
       </c>
       <c r="C148" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E148" t="n">
         <v>11.88</v>
       </c>
-      <c r="D148" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E148" t="n">
-        <v>11.87</v>
-      </c>
       <c r="F148" t="n">
-        <v>32588.8888</v>
+        <v>9931.6315</v>
       </c>
       <c r="G148" t="n">
-        <v>12.1395</v>
+        <v>12.142</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5583,8 +5945,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5594,22 +5962,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.89</v>
+        <v>11.88</v>
       </c>
       <c r="C149" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="D149" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="E149" t="n">
-        <v>11.89</v>
+        <v>11.87</v>
       </c>
       <c r="F149" t="n">
-        <v>307.3332</v>
+        <v>32588.8888</v>
       </c>
       <c r="G149" t="n">
-        <v>12.137</v>
+        <v>12.1395</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5618,8 +5986,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5629,22 +6003,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C150" t="n">
         <v>11.95</v>
       </c>
-      <c r="C150" t="n">
-        <v>12.01</v>
-      </c>
       <c r="D150" t="n">
-        <v>12.01</v>
+        <v>11.95</v>
       </c>
       <c r="E150" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="F150" t="n">
-        <v>16840.9043</v>
+        <v>307.3332</v>
       </c>
       <c r="G150" t="n">
-        <v>12.13683333333333</v>
+        <v>12.137</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5653,8 +6027,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5667,19 +6047,19 @@
         <v>11.95</v>
       </c>
       <c r="C151" t="n">
-        <v>11.84</v>
+        <v>12.01</v>
       </c>
       <c r="D151" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E151" t="n">
         <v>11.95</v>
       </c>
-      <c r="E151" t="n">
-        <v>11.84</v>
-      </c>
       <c r="F151" t="n">
-        <v>206884.2121</v>
+        <v>16840.9043</v>
       </c>
       <c r="G151" t="n">
-        <v>12.13616666666666</v>
+        <v>12.13683333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5688,8 +6068,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5699,22 +6085,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C152" t="n">
         <v>11.84</v>
       </c>
-      <c r="C152" t="n">
-        <v>11.78</v>
-      </c>
       <c r="D152" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E152" t="n">
         <v>11.84</v>
       </c>
-      <c r="E152" t="n">
-        <v>11.78</v>
-      </c>
       <c r="F152" t="n">
-        <v>109662.5145</v>
+        <v>206884.2121</v>
       </c>
       <c r="G152" t="n">
-        <v>12.134</v>
+        <v>12.13616666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5723,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5734,22 +6126,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C153" t="n">
         <v>11.78</v>
       </c>
-      <c r="C153" t="n">
-        <v>11.91</v>
-      </c>
       <c r="D153" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="E153" t="n">
         <v>11.78</v>
       </c>
       <c r="F153" t="n">
-        <v>41557.9817</v>
+        <v>109662.5145</v>
       </c>
       <c r="G153" t="n">
-        <v>12.13083333333333</v>
+        <v>12.134</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5758,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5769,22 +6167,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.9</v>
+        <v>11.78</v>
       </c>
       <c r="C154" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="D154" t="n">
-        <v>11.9</v>
+        <v>11.95</v>
       </c>
       <c r="E154" t="n">
-        <v>11.9</v>
+        <v>11.78</v>
       </c>
       <c r="F154" t="n">
-        <v>1270</v>
+        <v>41557.9817</v>
       </c>
       <c r="G154" t="n">
-        <v>12.1275</v>
+        <v>12.13083333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5793,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5804,33 +6208,80 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12.1275</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>11.91</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C156" t="n">
         <v>11.92</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D156" t="n">
         <v>11.92</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E156" t="n">
         <v>11.91</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F156" t="n">
         <v>45</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G156" t="n">
         <v>12.1225</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1662.6645</v>
       </c>
       <c r="G2" t="n">
+        <v>11.94133333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.75266666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>44997.1376</v>
       </c>
       <c r="G3" t="n">
+        <v>11.90933333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.75266666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>60701.455</v>
       </c>
       <c r="G4" t="n">
+        <v>11.88733333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.74983333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.73</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>64661.157</v>
       </c>
       <c r="G5" t="n">
+        <v>11.86533333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.75216666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.73</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>477516.1594</v>
       </c>
       <c r="G6" t="n">
+        <v>11.86533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.75983333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.73</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,25 @@
         <v>81619.66280000001</v>
       </c>
       <c r="G7" t="n">
+        <v>11.86533333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.7675</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +709,25 @@
         <v>25261.3891</v>
       </c>
       <c r="G8" t="n">
+        <v>11.86933333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.77666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +751,25 @@
         <v>10000</v>
       </c>
       <c r="G9" t="n">
+        <v>11.874</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.78533333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +793,25 @@
         <v>76654.6771</v>
       </c>
       <c r="G10" t="n">
+        <v>11.89066666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.793</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +835,25 @@
         <v>42</v>
       </c>
       <c r="G11" t="n">
+        <v>11.91133333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.8015</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +877,25 @@
         <v>188843.0313</v>
       </c>
       <c r="G12" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.811</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +919,25 @@
         <v>243804.5656</v>
       </c>
       <c r="G13" t="n">
+        <v>11.95666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.82066666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +961,25 @@
         <v>47.4081</v>
       </c>
       <c r="G14" t="n">
+        <v>11.97466666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.83166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1003,25 @@
         <v>36201.9314</v>
       </c>
       <c r="G15" t="n">
+        <v>11.99333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.84266666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1045,25 @@
         <v>50000</v>
       </c>
       <c r="G16" t="n">
+        <v>12.00866666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.8485</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1087,25 @@
         <v>3077.206</v>
       </c>
       <c r="G17" t="n">
+        <v>12.024</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.85733333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1129,25 @@
         <v>4145.8852</v>
       </c>
       <c r="G18" t="n">
+        <v>12.044</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.86383333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1171,25 @@
         <v>1590.2043</v>
       </c>
       <c r="G19" t="n">
+        <v>12.052</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.8695</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1213,25 @@
         <v>10000</v>
       </c>
       <c r="G20" t="n">
+        <v>12.058</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.87266666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1255,27 @@
         <v>27403.2412</v>
       </c>
       <c r="G21" t="n">
+        <v>12.03933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.87516666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.82</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1299,27 @@
         <v>10980.7308</v>
       </c>
       <c r="G22" t="n">
+        <v>12.02066666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.87783333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.78</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1343,27 @@
         <v>133369.0904</v>
       </c>
       <c r="G23" t="n">
+        <v>11.99666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.88016666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11.78</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1387,27 @@
         <v>12364.8482</v>
       </c>
       <c r="G24" t="n">
+        <v>11.97733333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.88116666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11.76</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1431,27 @@
         <v>10819.2421</v>
       </c>
       <c r="G25" t="n">
+        <v>11.95866666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.88216666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.78</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1475,27 @@
         <v>16228.8633</v>
       </c>
       <c r="G26" t="n">
+        <v>11.93666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.88533333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.78</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1519,27 @@
         <v>14876.4579</v>
       </c>
       <c r="G27" t="n">
+        <v>11.914</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.88666666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.78</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1563,27 @@
         <v>121463.5406</v>
       </c>
       <c r="G28" t="n">
+        <v>11.89066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.88733333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1607,25 @@
         <v>429244.656</v>
       </c>
       <c r="G29" t="n">
+        <v>11.85933333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.88883333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1649,25 @@
         <v>62075.714</v>
       </c>
       <c r="G30" t="n">
+        <v>11.828</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.89049999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1691,25 @@
         <v>22457.5645</v>
       </c>
       <c r="G31" t="n">
+        <v>11.806</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.88949999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1733,25 @@
         <v>12649.4919</v>
       </c>
       <c r="G32" t="n">
+        <v>11.79866666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.89433333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1775,25 @@
         <v>376.9705</v>
       </c>
       <c r="G33" t="n">
+        <v>11.77933333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.89433333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1817,25 @@
         <v>42</v>
       </c>
       <c r="G34" t="n">
+        <v>11.78333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.89716666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1859,25 @@
         <v>1214.4907</v>
       </c>
       <c r="G35" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.89849999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1901,25 @@
         <v>11972.55734919286</v>
       </c>
       <c r="G36" t="n">
+        <v>11.77933333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.89983333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1943,25 @@
         <v>41033.6646</v>
       </c>
       <c r="G37" t="n">
+        <v>11.772</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.89949999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,22 +1985,25 @@
         <v>43</v>
       </c>
       <c r="G38" t="n">
+        <v>11.77266666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.90083333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1747,24 +2027,25 @@
         <v>442485.709463926</v>
       </c>
       <c r="G39" t="n">
+        <v>11.79533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.90799999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,24 +2069,25 @@
         <v>254620.912</v>
       </c>
       <c r="G40" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.91666666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2111,25 @@
         <v>402571.4204</v>
       </c>
       <c r="G41" t="n">
+        <v>11.84733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.92366666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2153,25 @@
         <v>178273.6406868812</v>
       </c>
       <c r="G42" t="n">
+        <v>11.87533333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.93133333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2195,25 @@
         <v>124887.8887</v>
       </c>
       <c r="G43" t="n">
+        <v>11.90666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.93966666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2237,25 @@
         <v>952645.5450131188</v>
       </c>
       <c r="G44" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.94549999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2279,25 @@
         <v>305872.5509</v>
       </c>
       <c r="G45" t="n">
+        <v>12.03066666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.95449999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2321,25 @@
         <v>982794.9059840125</v>
       </c>
       <c r="G46" t="n">
+        <v>12.10333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.96416666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2363,25 @@
         <v>62656.88280070422</v>
       </c>
       <c r="G47" t="n">
+        <v>12.15866666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.98066666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2405,25 @@
         <v>18879.5169</v>
       </c>
       <c r="G48" t="n">
+        <v>12.216</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.98716666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2447,25 @@
         <v>64885.6952</v>
       </c>
       <c r="G49" t="n">
+        <v>12.26666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.99733333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2489,25 @@
         <v>157329.2626</v>
       </c>
       <c r="G50" t="n">
+        <v>12.30666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.00249999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2531,25 @@
         <v>322505.9553</v>
       </c>
       <c r="G51" t="n">
+        <v>12.36133333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.01133333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2573,25 @@
         <v>324610.4448</v>
       </c>
       <c r="G52" t="n">
+        <v>12.41133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.01733333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2615,25 @@
         <v>4400</v>
       </c>
       <c r="G53" t="n">
+        <v>12.468</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.02666666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2657,25 @@
         <v>395361.9014</v>
       </c>
       <c r="G54" t="n">
+        <v>12.48733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.03349999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2699,25 @@
         <v>73925.894</v>
       </c>
       <c r="G55" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.04483333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2741,25 @@
         <v>40</v>
       </c>
       <c r="G56" t="n">
+        <v>12.53066666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.05649999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2783,25 @@
         <v>239136.0099</v>
       </c>
       <c r="G57" t="n">
+        <v>12.56266666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.07299999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2825,25 @@
         <v>247917.5562</v>
       </c>
       <c r="G58" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.09099999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2867,25 @@
         <v>228116.3585</v>
       </c>
       <c r="G59" t="n">
+        <v>12.65333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.11183333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2909,25 @@
         <v>1394857.2097</v>
       </c>
       <c r="G60" t="n">
+        <v>12.684</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.13399999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,20 +2951,25 @@
         <v>227021.8965</v>
       </c>
       <c r="G61" t="n">
+        <v>12.70333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.15533333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2564,18 +2991,21 @@
         <v>181034.0182</v>
       </c>
       <c r="G62" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.17033333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3029,21 @@
         <v>105864.0392</v>
       </c>
       <c r="G63" t="n">
+        <v>12.71666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.189</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3067,21 @@
         <v>209997.3861</v>
       </c>
       <c r="G64" t="n">
+        <v>12.72533333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.20683333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3105,21 @@
         <v>115712.7233</v>
       </c>
       <c r="G65" t="n">
+        <v>12.738</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.22066666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3143,21 @@
         <v>142608.2106</v>
       </c>
       <c r="G66" t="n">
+        <v>12.76866666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.23716666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3181,21 @@
         <v>218119.6066</v>
       </c>
       <c r="G67" t="n">
+        <v>12.78733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.24783333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3219,21 @@
         <v>18018.3603</v>
       </c>
       <c r="G68" t="n">
+        <v>12.79266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.2575</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3257,21 @@
         <v>47060.9444</v>
       </c>
       <c r="G69" t="n">
+        <v>12.812</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.268</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3295,21 @@
         <v>150744.8104</v>
       </c>
       <c r="G70" t="n">
+        <v>12.826</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.27866666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3333,21 @@
         <v>196324.5417</v>
       </c>
       <c r="G71" t="n">
+        <v>12.83933333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.2885</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3371,21 @@
         <v>74569.47259999999</v>
       </c>
       <c r="G72" t="n">
+        <v>12.83933333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.29783333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3409,21 @@
         <v>70144.22659999999</v>
       </c>
       <c r="G73" t="n">
+        <v>12.83266666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.31</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3447,21 @@
         <v>69785.0003</v>
       </c>
       <c r="G74" t="n">
+        <v>12.80933333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.3205</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3485,21 @@
         <v>3125.1875</v>
       </c>
       <c r="G75" t="n">
+        <v>12.78133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.331</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3523,21 @@
         <v>60202.0425</v>
       </c>
       <c r="G76" t="n">
+        <v>12.76266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.34383333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3561,21 @@
         <v>20240.8611</v>
       </c>
       <c r="G77" t="n">
+        <v>12.76266666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.355</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3599,21 @@
         <v>426011.1715</v>
       </c>
       <c r="G78" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.363</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3637,21 @@
         <v>358040.7656</v>
       </c>
       <c r="G79" t="n">
+        <v>12.71933333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.37366666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3675,21 @@
         <v>25166.929</v>
       </c>
       <c r="G80" t="n">
+        <v>12.71466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.38483333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3713,21 @@
         <v>7300</v>
       </c>
       <c r="G81" t="n">
+        <v>12.67733333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.39666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3751,21 @@
         <v>8110.8774</v>
       </c>
       <c r="G82" t="n">
+        <v>12.63866666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.40233333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3789,21 @@
         <v>72424.0866</v>
       </c>
       <c r="G83" t="n">
+        <v>12.60266666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.409</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3827,21 @@
         <v>80207.376</v>
       </c>
       <c r="G84" t="n">
+        <v>12.566</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.41516666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3865,21 @@
         <v>51199.7726</v>
       </c>
       <c r="G85" t="n">
+        <v>12.52866666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.42116666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3903,21 @@
         <v>92672.6243</v>
       </c>
       <c r="G86" t="n">
+        <v>12.49066666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.427</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3941,21 @@
         <v>7807.6335</v>
       </c>
       <c r="G87" t="n">
+        <v>12.45066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.432</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3979,21 @@
         <v>301554.1764</v>
       </c>
       <c r="G88" t="n">
+        <v>12.394</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.43583333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,22 +4017,21 @@
         <v>26102.652</v>
       </c>
       <c r="G89" t="n">
+        <v>12.34266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.44133333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K89" t="n">
-        <v>12.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,26 +4055,21 @@
         <v>4993.3884</v>
       </c>
       <c r="G90" t="n">
+        <v>12.296</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.448</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K90" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3591,26 +4093,21 @@
         <v>2379.5362</v>
       </c>
       <c r="G91" t="n">
+        <v>12.244</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.45333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,26 +4131,21 @@
         <v>68522.1663</v>
       </c>
       <c r="G92" t="n">
+        <v>12.18933333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.45266666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="K92" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,26 +4169,21 @@
         <v>53622.7926</v>
       </c>
       <c r="G93" t="n">
+        <v>12.14933333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.4555</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K93" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,26 +4207,21 @@
         <v>173156.3043</v>
       </c>
       <c r="G94" t="n">
+        <v>12.12333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.45866666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,24 +4245,21 @@
         <v>1506.0027</v>
       </c>
       <c r="G95" t="n">
+        <v>12.09733333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.46416666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,24 +4283,21 @@
         <v>3614.4878</v>
       </c>
       <c r="G96" t="n">
+        <v>12.07933333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.47166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,24 +4321,21 @@
         <v>1111</v>
       </c>
       <c r="G97" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.48083333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,24 +4359,21 @@
         <v>16888.2181</v>
       </c>
       <c r="G98" t="n">
+        <v>12.09266666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.489</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3927,24 +4397,21 @@
         <v>100033.5613</v>
       </c>
       <c r="G99" t="n">
+        <v>12.09866666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.491</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,24 +4435,21 @@
         <v>70783.98299999999</v>
       </c>
       <c r="G100" t="n">
+        <v>12.10533333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.49250000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,24 +4473,21 @@
         <v>7695.7111</v>
       </c>
       <c r="G101" t="n">
+        <v>12.11533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.494</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,24 +4511,21 @@
         <v>18969.1455</v>
       </c>
       <c r="G102" t="n">
+        <v>12.152</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.50116666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,24 +4549,21 @@
         <v>28755.7259</v>
       </c>
       <c r="G103" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.5075</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,24 +4587,21 @@
         <v>1828.6161</v>
       </c>
       <c r="G104" t="n">
+        <v>12.21533333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.50516666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,24 +4625,21 @@
         <v>10209.5285</v>
       </c>
       <c r="G105" t="n">
+        <v>12.24933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.50266666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,24 +4663,21 @@
         <v>81</v>
       </c>
       <c r="G106" t="n">
+        <v>12.27266666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.49566666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,24 +4701,21 @@
         <v>43</v>
       </c>
       <c r="G107" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.493</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,24 +4739,21 @@
         <v>24058.3259</v>
       </c>
       <c r="G108" t="n">
+        <v>12.36533333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.49283333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,24 +4777,21 @@
         <v>14581.1123</v>
       </c>
       <c r="G109" t="n">
+        <v>12.382</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.48750000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,24 +4815,21 @@
         <v>5991.2263</v>
       </c>
       <c r="G110" t="n">
+        <v>12.384</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.4835</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,24 +4853,21 @@
         <v>12415.2193</v>
       </c>
       <c r="G111" t="n">
+        <v>12.378</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.47583333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,24 +4891,21 @@
         <v>55</v>
       </c>
       <c r="G112" t="n">
+        <v>12.39066666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.47566666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4501,24 +4929,21 @@
         <v>173543.4475</v>
       </c>
       <c r="G113" t="n">
+        <v>12.39333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.47033333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,24 +4967,21 @@
         <v>53</v>
       </c>
       <c r="G114" t="n">
+        <v>12.40466666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.47033333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,24 +5005,21 @@
         <v>1228.9677</v>
       </c>
       <c r="G115" t="n">
+        <v>12.406</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.4665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,24 +5043,21 @@
         <v>1481.3556</v>
       </c>
       <c r="G116" t="n">
+        <v>12.40466666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.4625</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,24 +5081,21 @@
         <v>2616.8071</v>
       </c>
       <c r="G117" t="n">
+        <v>12.388</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.4575</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,24 +5119,21 @@
         <v>81378.1661</v>
       </c>
       <c r="G118" t="n">
+        <v>12.34666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.44166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,24 +5157,21 @@
         <v>13057.9861</v>
       </c>
       <c r="G119" t="n">
+        <v>12.32466666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.423</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,24 +5195,21 @@
         <v>108112.2012</v>
       </c>
       <c r="G120" t="n">
+        <v>12.28533333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.403</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4829,24 +5233,21 @@
         <v>69290.8806</v>
       </c>
       <c r="G121" t="n">
+        <v>12.256</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.38383333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,24 +5271,21 @@
         <v>3222</v>
       </c>
       <c r="G122" t="n">
+        <v>12.22333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.37383333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,24 +5309,21 @@
         <v>3159.392</v>
       </c>
       <c r="G123" t="n">
+        <v>12.18133333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.359</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,24 +5347,21 @@
         <v>43.718</v>
       </c>
       <c r="G124" t="n">
+        <v>12.16466666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.34733333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4993,24 +5385,21 @@
         <v>200</v>
       </c>
       <c r="G125" t="n">
+        <v>12.16666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.34066666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,24 +5423,21 @@
         <v>172639.6185</v>
       </c>
       <c r="G126" t="n">
+        <v>12.15466666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.32233333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5075,24 +5461,21 @@
         <v>42</v>
       </c>
       <c r="G127" t="n">
+        <v>12.138</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.31333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,24 +5499,21 @@
         <v>233.3331</v>
       </c>
       <c r="G128" t="n">
+        <v>12.12533333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.3035</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,24 +5537,21 @@
         <v>160.6059</v>
       </c>
       <c r="G129" t="n">
+        <v>12.10666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.294</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,24 +5575,21 @@
         <v>77.7777</v>
       </c>
       <c r="G130" t="n">
+        <v>12.098</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.2845</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,24 +5613,21 @@
         <v>19845.4248</v>
       </c>
       <c r="G131" t="n">
+        <v>12.08866666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.27483333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,24 +5651,21 @@
         <v>78368.5913</v>
       </c>
       <c r="G132" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="H132" t="n">
         <v>12.26516666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,24 +5689,21 @@
         <v>142442.1357</v>
       </c>
       <c r="G133" t="n">
+        <v>12.06266666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>12.24916666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,24 +5727,21 @@
         <v>80</v>
       </c>
       <c r="G134" t="n">
+        <v>12.06999999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>12.23816666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,24 +5765,21 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
+        <v>12.078</v>
+      </c>
+      <c r="H135" t="n">
         <v>12.22716666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,24 +5803,21 @@
         <v>18738.2036</v>
       </c>
       <c r="G136" t="n">
+        <v>12.078</v>
+      </c>
+      <c r="H136" t="n">
         <v>12.21266666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,24 +5841,21 @@
         <v>45</v>
       </c>
       <c r="G137" t="n">
+        <v>12.08066666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>12.20333333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,24 +5879,21 @@
         <v>8850.5587</v>
       </c>
       <c r="G138" t="n">
+        <v>12.07733333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>12.19333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5567,24 +5917,21 @@
         <v>63642.5726</v>
       </c>
       <c r="G139" t="n">
+        <v>12.06466666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>12.18366666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,24 +5955,21 @@
         <v>2188.7653</v>
       </c>
       <c r="G140" t="n">
+        <v>12.04733333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>12.17383333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,24 +5993,21 @@
         <v>82428.6557</v>
       </c>
       <c r="G141" t="n">
+        <v>12.04133333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>12.16333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,24 +6031,21 @@
         <v>1257.5109</v>
       </c>
       <c r="G142" t="n">
+        <v>12.03066666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>12.16133333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5731,24 +6069,21 @@
         <v>5042.6897</v>
       </c>
       <c r="G143" t="n">
+        <v>12.01466666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>12.1565</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,24 +6107,21 @@
         <v>43</v>
       </c>
       <c r="G144" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="H144" t="n">
         <v>12.155</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,24 +6145,21 @@
         <v>44.4444</v>
       </c>
       <c r="G145" t="n">
+        <v>12.002</v>
+      </c>
+      <c r="H145" t="n">
         <v>12.15283333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,24 +6183,21 @@
         <v>24041.3133</v>
       </c>
       <c r="G146" t="n">
+        <v>11.98466666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>12.14833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5895,24 +6221,21 @@
         <v>24147.7257</v>
       </c>
       <c r="G147" t="n">
+        <v>11.96733333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>12.14433333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,24 +6259,21 @@
         <v>9931.6315</v>
       </c>
       <c r="G148" t="n">
+        <v>11.96533333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>12.142</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,24 +6297,21 @@
         <v>32588.8888</v>
       </c>
       <c r="G149" t="n">
+        <v>11.948</v>
+      </c>
+      <c r="H149" t="n">
         <v>12.1395</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6018,24 +6335,21 @@
         <v>307.3332</v>
       </c>
       <c r="G150" t="n">
+        <v>11.93533333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>12.137</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6059,24 +6373,21 @@
         <v>16840.9043</v>
       </c>
       <c r="G151" t="n">
+        <v>11.94066666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>12.13683333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,24 +6411,21 @@
         <v>206884.2121</v>
       </c>
       <c r="G152" t="n">
+        <v>11.92066666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>12.13616666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6141,24 +6449,21 @@
         <v>109662.5145</v>
       </c>
       <c r="G153" t="n">
+        <v>11.912</v>
+      </c>
+      <c r="H153" t="n">
         <v>12.134</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6182,24 +6487,21 @@
         <v>41557.9817</v>
       </c>
       <c r="G154" t="n">
+        <v>11.912</v>
+      </c>
+      <c r="H154" t="n">
         <v>12.13083333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,24 +6525,21 @@
         <v>1270</v>
       </c>
       <c r="G155" t="n">
+        <v>11.912</v>
+      </c>
+      <c r="H155" t="n">
         <v>12.1275</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,24 +6563,401 @@
         <v>45</v>
       </c>
       <c r="G156" t="n">
+        <v>11.916</v>
+      </c>
+      <c r="H156" t="n">
         <v>12.1225</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8721.3189</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.91133333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>12.11766666666666</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8896.707899999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>11.916</v>
+      </c>
+      <c r="H158" t="n">
+        <v>12.11233333333333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F159" t="n">
+        <v>166894.2681</v>
+      </c>
+      <c r="G159" t="n">
+        <v>11.896</v>
+      </c>
+      <c r="H159" t="n">
+        <v>12.10433333333333</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F160" t="n">
+        <v>43</v>
+      </c>
+      <c r="G160" t="n">
+        <v>11.88933333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>12.09883333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F161" t="n">
+        <v>20195.5112</v>
+      </c>
+      <c r="G161" t="n">
+        <v>11.89266666666666</v>
+      </c>
+      <c r="H161" t="n">
+        <v>12.09266666666666</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>77884.7458</v>
+      </c>
+      <c r="G162" t="n">
+        <v>11.89533333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>12.08016666666666</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2593.2361</v>
+      </c>
+      <c r="G163" t="n">
+        <v>11.896</v>
+      </c>
+      <c r="H163" t="n">
+        <v>12.06766666666666</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>53703.6597</v>
+      </c>
+      <c r="G164" t="n">
+        <v>11.89733333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>12.05999999999999</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F165" t="n">
+        <v>45</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11.89533333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>12.04849999999999</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F166" t="n">
+        <v>93028.2184</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11.89133333333333</v>
+      </c>
+      <c r="H166" t="n">
+        <v>12.04149999999999</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.74</v>
+        <v>12.17</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74</v>
+        <v>12.17</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74</v>
+        <v>12.17</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74</v>
+        <v>12.17</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>36201.9314</v>
       </c>
       <c r="G2" t="n">
-        <v>-3571407.179</v>
+        <v>-3291416.419900001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.74</v>
+        <v>12.03</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74</v>
+        <v>12.03</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74</v>
+        <v>12.03</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74</v>
+        <v>12.03</v>
       </c>
       <c r="F3" t="n">
-        <v>10736.1069</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="n">
-        <v>-3571407.179</v>
+        <v>-3341416.419900001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,273 +503,329 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="C4" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="D4" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="E4" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="F4" t="n">
-        <v>172523.3424</v>
+        <v>3077.206</v>
       </c>
       <c r="G4" t="n">
-        <v>-3743930.5214</v>
+        <v>-3341416.419900001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.03</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="C5" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="D5" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="E5" t="n">
-        <v>11.69</v>
+        <v>12.03</v>
       </c>
       <c r="F5" t="n">
-        <v>9159.166800000001</v>
+        <v>4145.8852</v>
       </c>
       <c r="G5" t="n">
-        <v>-3743930.5214</v>
+        <v>-3341416.419900001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.69</v>
+        <v>11.85</v>
       </c>
       <c r="C6" t="n">
-        <v>11.69</v>
+        <v>11.85</v>
       </c>
       <c r="D6" t="n">
-        <v>11.69</v>
+        <v>11.85</v>
       </c>
       <c r="E6" t="n">
-        <v>11.69</v>
+        <v>11.85</v>
       </c>
       <c r="F6" t="n">
-        <v>6806.4921</v>
+        <v>1590.2043</v>
       </c>
       <c r="G6" t="n">
-        <v>-3743930.5214</v>
+        <v>-3343006.6242</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.69</v>
+        <v>11.82</v>
       </c>
       <c r="C7" t="n">
-        <v>11.69</v>
+        <v>11.82</v>
       </c>
       <c r="D7" t="n">
-        <v>11.69</v>
+        <v>11.82</v>
       </c>
       <c r="E7" t="n">
-        <v>11.69</v>
+        <v>11.82</v>
       </c>
       <c r="F7" t="n">
-        <v>41596.504</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
-        <v>-3743930.5214</v>
+        <v>-3353006.6242</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.85</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
       <c r="C8" t="n">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
       <c r="D8" t="n">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
       <c r="E8" t="n">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
       <c r="F8" t="n">
-        <v>15671.2461</v>
+        <v>27403.2412</v>
       </c>
       <c r="G8" t="n">
-        <v>-3743930.5214</v>
+        <v>-3380409.8654</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.64</v>
+        <v>11.78</v>
       </c>
       <c r="C9" t="n">
-        <v>11.63</v>
+        <v>11.78</v>
       </c>
       <c r="D9" t="n">
-        <v>11.64</v>
+        <v>11.78</v>
       </c>
       <c r="E9" t="n">
-        <v>11.63</v>
+        <v>11.78</v>
       </c>
       <c r="F9" t="n">
-        <v>41596.504</v>
+        <v>10980.7308</v>
       </c>
       <c r="G9" t="n">
-        <v>-3785527.025400001</v>
+        <v>-3380409.8654</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="C10" t="n">
-        <v>11.77</v>
+        <v>11.76</v>
       </c>
       <c r="D10" t="n">
         <v>11.77</v>
       </c>
       <c r="E10" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="F10" t="n">
-        <v>202693.2351</v>
+        <v>133369.0904</v>
       </c>
       <c r="G10" t="n">
-        <v>-3582833.7903</v>
+        <v>-3513778.955800001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="C11" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="D11" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="E11" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="F11" t="n">
-        <v>5260</v>
+        <v>12364.8482</v>
       </c>
       <c r="G11" t="n">
-        <v>-3588093.7903</v>
+        <v>-3501414.107600001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,68 +834,84 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="C12" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="D12" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="E12" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="F12" t="n">
-        <v>13683.8967</v>
+        <v>10819.2421</v>
       </c>
       <c r="G12" t="n">
-        <v>-3574409.893600001</v>
+        <v>-3501414.107600001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.79</v>
+        <v>11.78</v>
       </c>
       <c r="C13" t="n">
-        <v>12.15</v>
+        <v>11.78</v>
       </c>
       <c r="D13" t="n">
-        <v>12.15</v>
+        <v>11.78</v>
       </c>
       <c r="E13" t="n">
-        <v>11.79</v>
+        <v>11.78</v>
       </c>
       <c r="F13" t="n">
-        <v>22306.4183</v>
+        <v>16228.8633</v>
       </c>
       <c r="G13" t="n">
-        <v>-3552103.475300001</v>
+        <v>-3501414.107600001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,313 +920,392 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.15</v>
+        <v>11.8</v>
       </c>
       <c r="C14" t="n">
-        <v>12.22</v>
+        <v>11.8</v>
       </c>
       <c r="D14" t="n">
-        <v>12.22</v>
+        <v>11.8</v>
       </c>
       <c r="E14" t="n">
-        <v>12.15</v>
+        <v>11.8</v>
       </c>
       <c r="F14" t="n">
-        <v>21136.553</v>
+        <v>14876.4579</v>
       </c>
       <c r="G14" t="n">
-        <v>-3530966.922300001</v>
+        <v>-3486537.649700001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.21</v>
+        <v>11.82</v>
       </c>
       <c r="C15" t="n">
-        <v>12.21</v>
+        <v>11.8</v>
       </c>
       <c r="D15" t="n">
-        <v>12.21</v>
+        <v>11.82</v>
       </c>
       <c r="E15" t="n">
-        <v>12.21</v>
+        <v>11.8</v>
       </c>
       <c r="F15" t="n">
-        <v>4878.8356</v>
+        <v>121463.5406</v>
       </c>
       <c r="G15" t="n">
-        <v>-3535845.757900001</v>
+        <v>-3486537.649700001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.21</v>
+        <v>11.8</v>
       </c>
       <c r="C16" t="n">
-        <v>11.76</v>
+        <v>11.7</v>
       </c>
       <c r="D16" t="n">
-        <v>12.21</v>
+        <v>11.8</v>
       </c>
       <c r="E16" t="n">
-        <v>11.76</v>
+        <v>11.7</v>
       </c>
       <c r="F16" t="n">
-        <v>13280.8748</v>
+        <v>429244.656</v>
       </c>
       <c r="G16" t="n">
-        <v>-3549126.6327</v>
+        <v>-3915782.305700001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.21</v>
+        <v>11.71</v>
       </c>
       <c r="C17" t="n">
-        <v>12.21</v>
+        <v>11.7</v>
       </c>
       <c r="D17" t="n">
-        <v>12.21</v>
+        <v>11.71</v>
       </c>
       <c r="E17" t="n">
-        <v>12.21</v>
+        <v>11.7</v>
       </c>
       <c r="F17" t="n">
-        <v>486.5893</v>
+        <v>62075.714</v>
       </c>
       <c r="G17" t="n">
-        <v>-3548640.0434</v>
+        <v>-3915782.305700001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.05</v>
+        <v>11.7</v>
       </c>
       <c r="C18" t="n">
-        <v>12.06</v>
+        <v>11.7</v>
       </c>
       <c r="D18" t="n">
-        <v>12.06</v>
+        <v>11.7</v>
       </c>
       <c r="E18" t="n">
-        <v>12.05</v>
+        <v>11.7</v>
       </c>
       <c r="F18" t="n">
-        <v>132102.2312</v>
+        <v>22457.5645</v>
       </c>
       <c r="G18" t="n">
-        <v>-3680742.2746</v>
+        <v>-3915782.305700001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.08</v>
+        <v>11.66</v>
       </c>
       <c r="C19" t="n">
-        <v>12.06</v>
+        <v>11.92</v>
       </c>
       <c r="D19" t="n">
-        <v>12.08</v>
+        <v>11.92</v>
       </c>
       <c r="E19" t="n">
-        <v>12.06</v>
+        <v>11.65</v>
       </c>
       <c r="F19" t="n">
-        <v>294325.8936</v>
+        <v>12649.4919</v>
       </c>
       <c r="G19" t="n">
-        <v>-3680742.2746</v>
+        <v>-3903132.813800001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.06</v>
+        <v>11.74</v>
       </c>
       <c r="C20" t="n">
-        <v>12.06</v>
+        <v>11.74</v>
       </c>
       <c r="D20" t="n">
-        <v>12.06</v>
+        <v>11.74</v>
       </c>
       <c r="E20" t="n">
-        <v>12.06</v>
+        <v>11.74</v>
       </c>
       <c r="F20" t="n">
-        <v>4135.5721</v>
+        <v>376.9705</v>
       </c>
       <c r="G20" t="n">
-        <v>-3680742.2746</v>
+        <v>-3903509.784300001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.06</v>
+        <v>11.91</v>
       </c>
       <c r="C21" t="n">
-        <v>12.06</v>
+        <v>11.91</v>
       </c>
       <c r="D21" t="n">
-        <v>12.06</v>
+        <v>11.91</v>
       </c>
       <c r="E21" t="n">
-        <v>12.06</v>
+        <v>11.91</v>
       </c>
       <c r="F21" t="n">
-        <v>93652.0448</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>-3680742.2746</v>
+        <v>-3903467.784300001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.06</v>
+        <v>11.77</v>
       </c>
       <c r="C22" t="n">
-        <v>12.06</v>
+        <v>11.77</v>
       </c>
       <c r="D22" t="n">
-        <v>12.06</v>
+        <v>11.77</v>
       </c>
       <c r="E22" t="n">
-        <v>12.06</v>
+        <v>11.77</v>
       </c>
       <c r="F22" t="n">
-        <v>5687.0171</v>
+        <v>1214.4907</v>
       </c>
       <c r="G22" t="n">
-        <v>-3680742.2746</v>
+        <v>-3904682.275000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,313 +1314,392 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.02</v>
+        <v>11.77</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>11.77</v>
       </c>
       <c r="D23" t="n">
-        <v>12.02</v>
+        <v>11.77</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11.77</v>
       </c>
       <c r="F23" t="n">
-        <v>12161.9573</v>
+        <v>11972.55734919286</v>
       </c>
       <c r="G23" t="n">
-        <v>-3692904.2319</v>
+        <v>-3904682.275000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.92</v>
+        <v>11.68</v>
       </c>
       <c r="C24" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="D24" t="n">
-        <v>11.92</v>
+        <v>11.68</v>
       </c>
       <c r="E24" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="F24" t="n">
-        <v>180729.524</v>
+        <v>41033.6646</v>
       </c>
       <c r="G24" t="n">
-        <v>-3873633.7559</v>
+        <v>-3945715.939600001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.81</v>
+        <v>11.77</v>
       </c>
       <c r="C25" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="D25" t="n">
-        <v>11.81</v>
+        <v>11.77</v>
       </c>
       <c r="E25" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="F25" t="n">
-        <v>26117.9441</v>
+        <v>43</v>
       </c>
       <c r="G25" t="n">
-        <v>-3899751.7</v>
+        <v>-3945672.939600001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.71</v>
+        <v>11.77</v>
       </c>
       <c r="C26" t="n">
-        <v>11.71</v>
+        <v>12.12</v>
       </c>
       <c r="D26" t="n">
-        <v>11.71</v>
+        <v>12.12</v>
       </c>
       <c r="E26" t="n">
-        <v>11.71</v>
+        <v>11.77</v>
       </c>
       <c r="F26" t="n">
-        <v>5687.0171</v>
+        <v>442485.709463926</v>
       </c>
       <c r="G26" t="n">
-        <v>-3905438.7171</v>
+        <v>-3503187.230136075</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.9</v>
+        <v>12.11</v>
       </c>
       <c r="C27" t="n">
-        <v>11.9</v>
+        <v>12.15</v>
       </c>
       <c r="D27" t="n">
-        <v>11.9</v>
+        <v>12.15</v>
       </c>
       <c r="E27" t="n">
-        <v>11.9</v>
+        <v>12.11</v>
       </c>
       <c r="F27" t="n">
-        <v>130.0781</v>
+        <v>254620.912</v>
       </c>
       <c r="G27" t="n">
-        <v>-3905308.639</v>
+        <v>-3248566.318136075</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.9</v>
+        <v>12.13</v>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>12.19</v>
       </c>
       <c r="D28" t="n">
-        <v>11.9</v>
+        <v>12.22</v>
       </c>
       <c r="E28" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="F28" t="n">
-        <v>313.5581</v>
+        <v>402571.4204</v>
       </c>
       <c r="G28" t="n">
-        <v>-3905308.639</v>
+        <v>-2845994.897736074</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.89</v>
+        <v>12.03</v>
       </c>
       <c r="C29" t="n">
-        <v>11.89</v>
+        <v>12.22</v>
       </c>
       <c r="D29" t="n">
-        <v>11.89</v>
+        <v>12.23</v>
       </c>
       <c r="E29" t="n">
-        <v>11.89</v>
+        <v>12.03</v>
       </c>
       <c r="F29" t="n">
-        <v>183343.2667</v>
+        <v>178273.6406868812</v>
       </c>
       <c r="G29" t="n">
-        <v>-4088651.9057</v>
+        <v>-2667721.257049193</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.8</v>
+        <v>12.22</v>
       </c>
       <c r="C30" t="n">
-        <v>11.8</v>
+        <v>12.27</v>
       </c>
       <c r="D30" t="n">
-        <v>11.8</v>
+        <v>12.27</v>
       </c>
       <c r="E30" t="n">
-        <v>11.8</v>
+        <v>12.22</v>
       </c>
       <c r="F30" t="n">
-        <v>6627.253</v>
+        <v>124887.8887</v>
       </c>
       <c r="G30" t="n">
-        <v>-4095279.1587</v>
+        <v>-2542833.368349193</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.8</v>
+        <v>12.22</v>
       </c>
       <c r="C31" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D31" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E31" t="n">
-        <v>11.8</v>
+        <v>12.22</v>
       </c>
       <c r="F31" t="n">
-        <v>1662.6645</v>
+        <v>952645.5450131188</v>
       </c>
       <c r="G31" t="n">
-        <v>-4095279.1587</v>
+        <v>-1590187.823336074</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1708,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.77</v>
+        <v>12.52</v>
       </c>
       <c r="C32" t="n">
-        <v>11.73</v>
+        <v>12.76</v>
       </c>
       <c r="D32" t="n">
-        <v>11.77</v>
+        <v>12.76</v>
       </c>
       <c r="E32" t="n">
-        <v>11.73</v>
+        <v>12.51</v>
       </c>
       <c r="F32" t="n">
-        <v>44997.1376</v>
+        <v>305872.5509</v>
       </c>
       <c r="G32" t="n">
-        <v>-4140276.2963</v>
+        <v>-1284315.272436074</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1750,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.73</v>
+        <v>12.76</v>
       </c>
       <c r="C33" t="n">
-        <v>11.73</v>
+        <v>12.79</v>
       </c>
       <c r="D33" t="n">
-        <v>11.73</v>
+        <v>13.14</v>
       </c>
       <c r="E33" t="n">
-        <v>11.73</v>
+        <v>12.76</v>
       </c>
       <c r="F33" t="n">
-        <v>60701.455</v>
+        <v>982794.9059840125</v>
       </c>
       <c r="G33" t="n">
-        <v>-4140276.2963</v>
+        <v>-301520.3664520619</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1792,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.74</v>
+        <v>12.78</v>
       </c>
       <c r="C34" t="n">
-        <v>11.73</v>
+        <v>12.75</v>
       </c>
       <c r="D34" t="n">
-        <v>11.74</v>
+        <v>12.78</v>
       </c>
       <c r="E34" t="n">
-        <v>11.73</v>
+        <v>12.75</v>
       </c>
       <c r="F34" t="n">
-        <v>64661.157</v>
+        <v>62656.88280070422</v>
       </c>
       <c r="G34" t="n">
-        <v>-4140276.2963</v>
+        <v>-364177.2492527661</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,197 +1834,208 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.77</v>
+        <v>12.74</v>
       </c>
       <c r="C35" t="n">
-        <v>12.06</v>
+        <v>12.6</v>
       </c>
       <c r="D35" t="n">
-        <v>12.06</v>
+        <v>12.74</v>
       </c>
       <c r="E35" t="n">
-        <v>11.77</v>
+        <v>12.6</v>
       </c>
       <c r="F35" t="n">
-        <v>477516.1594</v>
+        <v>18879.5169</v>
       </c>
       <c r="G35" t="n">
-        <v>-3662760.1369</v>
+        <v>-383056.7661527661</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.73</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.06</v>
+        <v>12.69</v>
       </c>
       <c r="C36" t="n">
-        <v>12.06</v>
+        <v>12.67</v>
       </c>
       <c r="D36" t="n">
-        <v>12.06</v>
+        <v>12.69</v>
       </c>
       <c r="E36" t="n">
-        <v>12.06</v>
+        <v>12.41</v>
       </c>
       <c r="F36" t="n">
-        <v>81619.66280000001</v>
+        <v>64885.6952</v>
       </c>
       <c r="G36" t="n">
-        <v>-3662760.1369</v>
+        <v>-318171.0709527661</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>12.06</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>11.73</v>
+        <v>11.85</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.12</v>
+        <v>12.66</v>
       </c>
       <c r="C37" t="n">
-        <v>12.12</v>
+        <v>12.37</v>
       </c>
       <c r="D37" t="n">
-        <v>12.12</v>
+        <v>12.66</v>
       </c>
       <c r="E37" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="F37" t="n">
-        <v>25261.3891</v>
+        <v>157329.2626</v>
       </c>
       <c r="G37" t="n">
-        <v>-3637498.7478</v>
+        <v>-475500.3335527661</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.06</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>11.73</v>
+        <v>11.85</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.07</v>
+        <v>12.4</v>
       </c>
       <c r="C38" t="n">
-        <v>12.07</v>
+        <v>12.59</v>
       </c>
       <c r="D38" t="n">
-        <v>12.07</v>
+        <v>12.67</v>
       </c>
       <c r="E38" t="n">
-        <v>12.07</v>
+        <v>12.4</v>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>322505.9553</v>
       </c>
       <c r="G38" t="n">
-        <v>-3647498.7478</v>
+        <v>-152994.3782527662</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>12.12</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.07</v>
+        <v>12.66</v>
       </c>
       <c r="C39" t="n">
-        <v>12.06</v>
+        <v>12.42</v>
       </c>
       <c r="D39" t="n">
-        <v>12.07</v>
+        <v>12.67</v>
       </c>
       <c r="E39" t="n">
-        <v>12.06</v>
+        <v>12.42</v>
       </c>
       <c r="F39" t="n">
-        <v>76654.6771</v>
+        <v>324610.4448</v>
       </c>
       <c r="G39" t="n">
-        <v>-3724153.4249</v>
+        <v>-477604.8230527662</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1777,38 +2045,39 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.11</v>
+        <v>12.6</v>
       </c>
       <c r="C40" t="n">
-        <v>12.11</v>
+        <v>12.62</v>
       </c>
       <c r="D40" t="n">
-        <v>12.11</v>
+        <v>12.66</v>
       </c>
       <c r="E40" t="n">
-        <v>12.11</v>
+        <v>12.6</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>4400</v>
       </c>
       <c r="G40" t="n">
-        <v>-3724111.4249</v>
+        <v>-473204.8230527662</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1818,7 +2087,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1828,40 +2097,39 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.1</v>
+        <v>12.61</v>
       </c>
       <c r="C41" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E41" t="n">
         <v>12.14</v>
       </c>
-      <c r="D41" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.1</v>
-      </c>
       <c r="F41" t="n">
-        <v>188843.0313</v>
+        <v>395361.9014</v>
       </c>
       <c r="G41" t="n">
-        <v>-3535268.393600001</v>
+        <v>-868566.7244527661</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1871,28 +2139,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.14</v>
+        <v>12.49</v>
       </c>
       <c r="C42" t="n">
-        <v>12.15</v>
+        <v>12.49</v>
       </c>
       <c r="D42" t="n">
-        <v>12.15</v>
+        <v>12.49</v>
       </c>
       <c r="E42" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="F42" t="n">
-        <v>243804.5656</v>
+        <v>73925.894</v>
       </c>
       <c r="G42" t="n">
-        <v>-3291463.828000001</v>
+        <v>-794640.8304527662</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,7 +2171,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1912,28 +2181,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.17</v>
+        <v>12.5</v>
       </c>
       <c r="C43" t="n">
-        <v>12.17</v>
+        <v>12.5</v>
       </c>
       <c r="D43" t="n">
-        <v>12.17</v>
+        <v>12.5</v>
       </c>
       <c r="E43" t="n">
-        <v>12.17</v>
+        <v>12.5</v>
       </c>
       <c r="F43" t="n">
-        <v>47.4081</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
-        <v>-3291416.419900001</v>
+        <v>-794600.8304527662</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1943,7 +2213,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -1953,28 +2223,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.17</v>
+        <v>12.5</v>
       </c>
       <c r="C44" t="n">
-        <v>12.17</v>
+        <v>12.7</v>
       </c>
       <c r="D44" t="n">
-        <v>12.17</v>
+        <v>12.92</v>
       </c>
       <c r="E44" t="n">
-        <v>12.17</v>
+        <v>12.5</v>
       </c>
       <c r="F44" t="n">
-        <v>36201.9314</v>
+        <v>239136.0099</v>
       </c>
       <c r="G44" t="n">
-        <v>-3291416.419900001</v>
+        <v>-555464.8205527661</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1984,7 +2255,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -1994,28 +2265,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.03</v>
+        <v>12.7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.03</v>
+        <v>12.98</v>
       </c>
       <c r="D45" t="n">
-        <v>12.03</v>
+        <v>12.98</v>
       </c>
       <c r="E45" t="n">
-        <v>12.03</v>
+        <v>12.7</v>
       </c>
       <c r="F45" t="n">
-        <v>50000</v>
+        <v>247917.5562</v>
       </c>
       <c r="G45" t="n">
-        <v>-3341416.419900001</v>
+        <v>-307547.2643527661</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2025,7 +2297,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2035,28 +2307,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.03</v>
+        <v>13.04</v>
       </c>
       <c r="C46" t="n">
-        <v>12.03</v>
+        <v>13.15</v>
       </c>
       <c r="D46" t="n">
-        <v>12.03</v>
+        <v>13.16</v>
       </c>
       <c r="E46" t="n">
-        <v>12.03</v>
+        <v>13.04</v>
       </c>
       <c r="F46" t="n">
-        <v>3077.206</v>
+        <v>228116.3585</v>
       </c>
       <c r="G46" t="n">
-        <v>-3341416.419900001</v>
+        <v>-79430.9058527661</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2066,7 +2339,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2076,28 +2349,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.03</v>
+        <v>13.17</v>
       </c>
       <c r="C47" t="n">
-        <v>12.03</v>
+        <v>13.22</v>
       </c>
       <c r="D47" t="n">
-        <v>12.03</v>
+        <v>13.31</v>
       </c>
       <c r="E47" t="n">
-        <v>12.03</v>
+        <v>13.15</v>
       </c>
       <c r="F47" t="n">
-        <v>4145.8852</v>
+        <v>1394857.2097</v>
       </c>
       <c r="G47" t="n">
-        <v>-3341416.419900001</v>
+        <v>1315426.303847234</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2107,7 +2381,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2117,28 +2391,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.85</v>
+        <v>13.21</v>
       </c>
       <c r="C48" t="n">
-        <v>11.85</v>
+        <v>13.08</v>
       </c>
       <c r="D48" t="n">
-        <v>11.85</v>
+        <v>13.22</v>
       </c>
       <c r="E48" t="n">
-        <v>11.85</v>
+        <v>13.08</v>
       </c>
       <c r="F48" t="n">
-        <v>1590.2043</v>
+        <v>227021.8965</v>
       </c>
       <c r="G48" t="n">
-        <v>-3343006.6242</v>
+        <v>1088404.407347234</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,7 +2423,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2158,46 +2433,50 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.82</v>
+        <v>13.2</v>
       </c>
       <c r="C49" t="n">
-        <v>11.82</v>
+        <v>12.7</v>
       </c>
       <c r="D49" t="n">
-        <v>11.82</v>
+        <v>13.2</v>
       </c>
       <c r="E49" t="n">
-        <v>11.82</v>
+        <v>12.7</v>
       </c>
       <c r="F49" t="n">
-        <v>10000</v>
+        <v>181034.0182</v>
       </c>
       <c r="G49" t="n">
-        <v>-3353006.6242</v>
+        <v>907370.3891472339</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>1.066729957805907</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.033106960950764</v>
       </c>
     </row>
     <row r="50">
@@ -2205,22 +2484,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.78</v>
+        <v>13.09</v>
       </c>
       <c r="C50" t="n">
-        <v>11.78</v>
+        <v>12.85</v>
       </c>
       <c r="D50" t="n">
-        <v>11.78</v>
+        <v>13.09</v>
       </c>
       <c r="E50" t="n">
-        <v>11.78</v>
+        <v>12.57</v>
       </c>
       <c r="F50" t="n">
-        <v>27403.2412</v>
+        <v>105864.0392</v>
       </c>
       <c r="G50" t="n">
-        <v>-3380409.8654</v>
+        <v>1013234.428347234</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2229,39 +2508,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.78</v>
+        <v>12.69</v>
       </c>
       <c r="C51" t="n">
-        <v>11.78</v>
+        <v>12.8</v>
       </c>
       <c r="D51" t="n">
-        <v>11.78</v>
+        <v>13.18</v>
       </c>
       <c r="E51" t="n">
-        <v>11.78</v>
+        <v>12.69</v>
       </c>
       <c r="F51" t="n">
-        <v>10980.7308</v>
+        <v>209997.3861</v>
       </c>
       <c r="G51" t="n">
-        <v>-3380409.8654</v>
+        <v>803237.0422472339</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2270,39 +2544,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.77</v>
+        <v>12.8</v>
       </c>
       <c r="C52" t="n">
-        <v>11.76</v>
+        <v>12.56</v>
       </c>
       <c r="D52" t="n">
-        <v>11.77</v>
+        <v>12.8</v>
       </c>
       <c r="E52" t="n">
-        <v>11.76</v>
+        <v>12.56</v>
       </c>
       <c r="F52" t="n">
-        <v>133369.0904</v>
+        <v>115712.7233</v>
       </c>
       <c r="G52" t="n">
-        <v>-3513778.955800001</v>
+        <v>687524.318947234</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2311,39 +2580,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.78</v>
+        <v>12.56</v>
       </c>
       <c r="C53" t="n">
-        <v>11.78</v>
+        <v>13.05</v>
       </c>
       <c r="D53" t="n">
-        <v>11.78</v>
+        <v>13.08</v>
       </c>
       <c r="E53" t="n">
-        <v>11.78</v>
+        <v>12.56</v>
       </c>
       <c r="F53" t="n">
-        <v>12364.8482</v>
+        <v>142608.2106</v>
       </c>
       <c r="G53" t="n">
-        <v>-3501414.107600001</v>
+        <v>830132.5295472339</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2352,719 +2616,610 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.78</v>
+        <v>12.72</v>
       </c>
       <c r="C54" t="n">
-        <v>11.78</v>
+        <v>12.7</v>
       </c>
       <c r="D54" t="n">
-        <v>11.78</v>
+        <v>12.72</v>
       </c>
       <c r="E54" t="n">
-        <v>11.78</v>
+        <v>12.7</v>
       </c>
       <c r="F54" t="n">
-        <v>10819.2421</v>
+        <v>218119.6066</v>
       </c>
       <c r="G54" t="n">
-        <v>-3501414.107600001</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K54" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.78</v>
+        <v>12.7</v>
       </c>
       <c r="C55" t="n">
-        <v>11.78</v>
+        <v>12.7</v>
       </c>
       <c r="D55" t="n">
-        <v>11.78</v>
+        <v>12.7</v>
       </c>
       <c r="E55" t="n">
-        <v>11.78</v>
+        <v>12.7</v>
       </c>
       <c r="F55" t="n">
-        <v>16228.8633</v>
+        <v>18018.3603</v>
       </c>
       <c r="G55" t="n">
-        <v>-3501414.107600001</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K55" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="C56" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="D56" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="E56" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="F56" t="n">
-        <v>14876.4579</v>
+        <v>47060.9444</v>
       </c>
       <c r="G56" t="n">
-        <v>-3486537.649700001</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K56" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.82</v>
+        <v>12.7</v>
       </c>
       <c r="C57" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="D57" t="n">
-        <v>11.82</v>
+        <v>12.7</v>
       </c>
       <c r="E57" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="F57" t="n">
-        <v>121463.5406</v>
+        <v>150744.8104</v>
       </c>
       <c r="G57" t="n">
-        <v>-3486537.649700001</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K57" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="C58" t="n">
-        <v>11.7</v>
+        <v>12.7</v>
       </c>
       <c r="D58" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="E58" t="n">
-        <v>11.7</v>
+        <v>12.7</v>
       </c>
       <c r="F58" t="n">
-        <v>429244.656</v>
+        <v>196324.5417</v>
       </c>
       <c r="G58" t="n">
-        <v>-3915782.305700001</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.71</v>
+        <v>12.7</v>
       </c>
       <c r="C59" t="n">
-        <v>11.7</v>
+        <v>12.7</v>
       </c>
       <c r="D59" t="n">
-        <v>11.71</v>
+        <v>12.7</v>
       </c>
       <c r="E59" t="n">
-        <v>11.7</v>
+        <v>12.58</v>
       </c>
       <c r="F59" t="n">
-        <v>62075.714</v>
+        <v>74569.47259999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-3915782.305700001</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.7</v>
+        <v>12.87</v>
       </c>
       <c r="C60" t="n">
-        <v>11.7</v>
+        <v>12.88</v>
       </c>
       <c r="D60" t="n">
-        <v>11.7</v>
+        <v>12.93</v>
       </c>
       <c r="E60" t="n">
-        <v>11.7</v>
+        <v>12.58</v>
       </c>
       <c r="F60" t="n">
-        <v>22457.5645</v>
+        <v>70144.22659999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-3915782.305700001</v>
+        <v>682157.1495472339</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.66</v>
+        <v>12.87</v>
       </c>
       <c r="C61" t="n">
-        <v>11.92</v>
+        <v>12.8</v>
       </c>
       <c r="D61" t="n">
-        <v>11.92</v>
+        <v>12.87</v>
       </c>
       <c r="E61" t="n">
-        <v>11.65</v>
+        <v>12.71</v>
       </c>
       <c r="F61" t="n">
-        <v>12649.4919</v>
+        <v>69785.0003</v>
       </c>
       <c r="G61" t="n">
-        <v>-3903132.813800001</v>
+        <v>612372.149247234</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.74</v>
+        <v>12.79</v>
       </c>
       <c r="C62" t="n">
-        <v>11.74</v>
+        <v>12.8</v>
       </c>
       <c r="D62" t="n">
-        <v>11.74</v>
+        <v>12.8</v>
       </c>
       <c r="E62" t="n">
-        <v>11.74</v>
+        <v>12.79</v>
       </c>
       <c r="F62" t="n">
-        <v>376.9705</v>
+        <v>3125.1875</v>
       </c>
       <c r="G62" t="n">
-        <v>-3903509.784300001</v>
+        <v>612372.149247234</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.91</v>
+        <v>12.8</v>
       </c>
       <c r="C63" t="n">
-        <v>11.91</v>
+        <v>12.8</v>
       </c>
       <c r="D63" t="n">
-        <v>11.91</v>
+        <v>12.8</v>
       </c>
       <c r="E63" t="n">
-        <v>11.91</v>
+        <v>12.8</v>
       </c>
       <c r="F63" t="n">
-        <v>42</v>
+        <v>60202.0425</v>
       </c>
       <c r="G63" t="n">
-        <v>-3903467.784300001</v>
+        <v>612372.149247234</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K63" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.77</v>
+        <v>12.7</v>
       </c>
       <c r="C64" t="n">
-        <v>11.77</v>
+        <v>12.7</v>
       </c>
       <c r="D64" t="n">
-        <v>11.77</v>
+        <v>12.7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.77</v>
+        <v>12.7</v>
       </c>
       <c r="F64" t="n">
-        <v>1214.4907</v>
+        <v>20240.8611</v>
       </c>
       <c r="G64" t="n">
-        <v>-3904682.275000001</v>
+        <v>592131.288147234</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.77</v>
+        <v>12.65</v>
       </c>
       <c r="C65" t="n">
-        <v>11.77</v>
+        <v>12.51</v>
       </c>
       <c r="D65" t="n">
-        <v>11.77</v>
+        <v>12.65</v>
       </c>
       <c r="E65" t="n">
-        <v>11.77</v>
+        <v>12.51</v>
       </c>
       <c r="F65" t="n">
-        <v>11972.55734919286</v>
+        <v>426011.1715</v>
       </c>
       <c r="G65" t="n">
-        <v>-3904682.275000001</v>
+        <v>166120.116647234</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K65" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.68</v>
+        <v>12.5</v>
       </c>
       <c r="C66" t="n">
-        <v>11.67</v>
+        <v>12.49</v>
       </c>
       <c r="D66" t="n">
-        <v>11.68</v>
+        <v>12.5</v>
       </c>
       <c r="E66" t="n">
-        <v>11.67</v>
+        <v>12.49</v>
       </c>
       <c r="F66" t="n">
-        <v>41033.6646</v>
+        <v>358040.7656</v>
       </c>
       <c r="G66" t="n">
-        <v>-3945715.939600001</v>
+        <v>-191920.648952766</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K66" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.77</v>
+        <v>12.49</v>
       </c>
       <c r="C67" t="n">
-        <v>11.77</v>
+        <v>12.49</v>
       </c>
       <c r="D67" t="n">
-        <v>11.77</v>
+        <v>12.49</v>
       </c>
       <c r="E67" t="n">
-        <v>11.77</v>
+        <v>12.49</v>
       </c>
       <c r="F67" t="n">
-        <v>43</v>
+        <v>25166.929</v>
       </c>
       <c r="G67" t="n">
-        <v>-3945672.939600001</v>
+        <v>-191920.648952766</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K67" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.77</v>
+        <v>12.49</v>
       </c>
       <c r="C68" t="n">
-        <v>12.12</v>
+        <v>12.49</v>
       </c>
       <c r="D68" t="n">
-        <v>12.12</v>
+        <v>12.49</v>
       </c>
       <c r="E68" t="n">
-        <v>11.77</v>
+        <v>12.49</v>
       </c>
       <c r="F68" t="n">
-        <v>442485.709463926</v>
+        <v>7300</v>
       </c>
       <c r="G68" t="n">
-        <v>-3503187.230136075</v>
+        <v>-191920.648952766</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K68" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.11</v>
+        <v>12.31</v>
       </c>
       <c r="C69" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="D69" t="n">
-        <v>12.15</v>
+        <v>12.31</v>
       </c>
       <c r="E69" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="F69" t="n">
-        <v>254620.912</v>
+        <v>8110.8774</v>
       </c>
       <c r="G69" t="n">
-        <v>-3248566.318136075</v>
+        <v>-200031.526352766</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.13</v>
+        <v>12.34</v>
       </c>
       <c r="C70" t="n">
-        <v>12.19</v>
+        <v>12.16</v>
       </c>
       <c r="D70" t="n">
-        <v>12.22</v>
+        <v>12.35</v>
       </c>
       <c r="E70" t="n">
-        <v>12.03</v>
+        <v>12.16</v>
       </c>
       <c r="F70" t="n">
-        <v>402571.4204</v>
+        <v>72424.0866</v>
       </c>
       <c r="G70" t="n">
-        <v>-2845994.897736074</v>
+        <v>-127607.439752766</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3073,39 +3228,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.03</v>
+        <v>12.18</v>
       </c>
       <c r="C71" t="n">
-        <v>12.22</v>
+        <v>12.15</v>
       </c>
       <c r="D71" t="n">
-        <v>12.23</v>
+        <v>12.18</v>
       </c>
       <c r="E71" t="n">
-        <v>12.03</v>
+        <v>12.15</v>
       </c>
       <c r="F71" t="n">
-        <v>178273.6406868812</v>
+        <v>80207.376</v>
       </c>
       <c r="G71" t="n">
-        <v>-2667721.257049193</v>
+        <v>-207814.815752766</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3114,39 +3264,34 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.22</v>
+        <v>12.14</v>
       </c>
       <c r="C72" t="n">
-        <v>12.27</v>
+        <v>12.14</v>
       </c>
       <c r="D72" t="n">
-        <v>12.27</v>
+        <v>12.14</v>
       </c>
       <c r="E72" t="n">
-        <v>12.22</v>
+        <v>12.14</v>
       </c>
       <c r="F72" t="n">
-        <v>124887.8887</v>
+        <v>51199.7726</v>
       </c>
       <c r="G72" t="n">
-        <v>-2542833.368349193</v>
+        <v>-259014.588352766</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3155,17 +3300,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3175,60 +3315,55 @@
         <v>12.22</v>
       </c>
       <c r="C73" t="n">
-        <v>12.5</v>
+        <v>12.13</v>
       </c>
       <c r="D73" t="n">
-        <v>12.5</v>
+        <v>12.22</v>
       </c>
       <c r="E73" t="n">
-        <v>12.22</v>
+        <v>12.13</v>
       </c>
       <c r="F73" t="n">
-        <v>952645.5450131188</v>
+        <v>92672.6243</v>
       </c>
       <c r="G73" t="n">
-        <v>-1590187.823336074</v>
+        <v>-351687.212652766</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.52</v>
+        <v>12.12</v>
       </c>
       <c r="C74" t="n">
-        <v>12.76</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>12.76</v>
+        <v>12.12</v>
       </c>
       <c r="E74" t="n">
-        <v>12.51</v>
+        <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>305872.5509</v>
+        <v>7807.6335</v>
       </c>
       <c r="G74" t="n">
-        <v>-1284315.272436074</v>
+        <v>-359494.846152766</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3237,39 +3372,34 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.76</v>
+        <v>12.09</v>
       </c>
       <c r="C75" t="n">
-        <v>12.79</v>
+        <v>12.03</v>
       </c>
       <c r="D75" t="n">
-        <v>13.14</v>
+        <v>12.09</v>
       </c>
       <c r="E75" t="n">
-        <v>12.76</v>
+        <v>12.03</v>
       </c>
       <c r="F75" t="n">
-        <v>982794.9059840125</v>
+        <v>301554.1764</v>
       </c>
       <c r="G75" t="n">
-        <v>-301520.3664520619</v>
+        <v>-661049.0225527659</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3278,39 +3408,34 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.78</v>
+        <v>12.03</v>
       </c>
       <c r="C76" t="n">
-        <v>12.75</v>
+        <v>12.03</v>
       </c>
       <c r="D76" t="n">
-        <v>12.78</v>
+        <v>12.03</v>
       </c>
       <c r="E76" t="n">
-        <v>12.75</v>
+        <v>12.03</v>
       </c>
       <c r="F76" t="n">
-        <v>62656.88280070422</v>
+        <v>26102.652</v>
       </c>
       <c r="G76" t="n">
-        <v>-364177.2492527661</v>
+        <v>-661049.0225527659</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3319,39 +3444,34 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.74</v>
+        <v>12.11</v>
       </c>
       <c r="C77" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="D77" t="n">
-        <v>12.74</v>
+        <v>12.11</v>
       </c>
       <c r="E77" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F77" t="n">
-        <v>18879.5169</v>
+        <v>4993.3884</v>
       </c>
       <c r="G77" t="n">
-        <v>-383056.7661527661</v>
+        <v>-656055.6341527659</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3360,39 +3480,34 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.69</v>
+        <v>12.03</v>
       </c>
       <c r="C78" t="n">
-        <v>12.67</v>
+        <v>12.02</v>
       </c>
       <c r="D78" t="n">
-        <v>12.69</v>
+        <v>12.03</v>
       </c>
       <c r="E78" t="n">
-        <v>12.41</v>
+        <v>12.02</v>
       </c>
       <c r="F78" t="n">
-        <v>64885.6952</v>
+        <v>2379.5362</v>
       </c>
       <c r="G78" t="n">
-        <v>-318171.0709527661</v>
+        <v>-658435.1703527658</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3401,39 +3516,34 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.66</v>
+        <v>12.02</v>
       </c>
       <c r="C79" t="n">
-        <v>12.37</v>
+        <v>11.88</v>
       </c>
       <c r="D79" t="n">
-        <v>12.66</v>
+        <v>12.02</v>
       </c>
       <c r="E79" t="n">
-        <v>12.09</v>
+        <v>11.88</v>
       </c>
       <c r="F79" t="n">
-        <v>157329.2626</v>
+        <v>68522.1663</v>
       </c>
       <c r="G79" t="n">
-        <v>-475500.3335527661</v>
+        <v>-726957.3366527659</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3442,39 +3552,34 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C80" t="n">
-        <v>12.59</v>
+        <v>11.91</v>
       </c>
       <c r="D80" t="n">
-        <v>12.67</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
-        <v>12.4</v>
+        <v>11.88</v>
       </c>
       <c r="F80" t="n">
-        <v>322505.9553</v>
+        <v>53622.7926</v>
       </c>
       <c r="G80" t="n">
-        <v>-152994.3782527662</v>
+        <v>-673334.5440527658</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3483,39 +3588,34 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.66</v>
+        <v>12.1</v>
       </c>
       <c r="C81" t="n">
-        <v>12.42</v>
+        <v>12.1</v>
       </c>
       <c r="D81" t="n">
-        <v>12.67</v>
+        <v>12.1</v>
       </c>
       <c r="E81" t="n">
-        <v>12.42</v>
+        <v>12.1</v>
       </c>
       <c r="F81" t="n">
-        <v>324610.4448</v>
+        <v>173156.3043</v>
       </c>
       <c r="G81" t="n">
-        <v>-477604.8230527662</v>
+        <v>-500178.2397527659</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3524,39 +3624,34 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="C82" t="n">
-        <v>12.62</v>
+        <v>12.1</v>
       </c>
       <c r="D82" t="n">
-        <v>12.66</v>
+        <v>12.1</v>
       </c>
       <c r="E82" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F82" t="n">
-        <v>4400</v>
+        <v>1506.0027</v>
       </c>
       <c r="G82" t="n">
-        <v>-473204.8230527662</v>
+        <v>-500178.2397527659</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3565,39 +3660,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.61</v>
+        <v>12.22</v>
       </c>
       <c r="C83" t="n">
-        <v>12.41</v>
+        <v>12.22</v>
       </c>
       <c r="D83" t="n">
-        <v>12.61</v>
+        <v>12.22</v>
       </c>
       <c r="E83" t="n">
-        <v>12.14</v>
+        <v>12.22</v>
       </c>
       <c r="F83" t="n">
-        <v>395361.9014</v>
+        <v>3614.4878</v>
       </c>
       <c r="G83" t="n">
-        <v>-868566.7244527661</v>
+        <v>-496563.7519527659</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3606,39 +3696,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.49</v>
+        <v>12.22</v>
       </c>
       <c r="C84" t="n">
-        <v>12.49</v>
+        <v>12.22</v>
       </c>
       <c r="D84" t="n">
-        <v>12.49</v>
+        <v>12.22</v>
       </c>
       <c r="E84" t="n">
-        <v>12.2</v>
+        <v>12.22</v>
       </c>
       <c r="F84" t="n">
-        <v>73925.894</v>
+        <v>1111</v>
       </c>
       <c r="G84" t="n">
-        <v>-794640.8304527662</v>
+        <v>-496563.7519527659</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3647,39 +3732,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.5</v>
+        <v>11.99</v>
       </c>
       <c r="C85" t="n">
-        <v>12.5</v>
+        <v>12.26</v>
       </c>
       <c r="D85" t="n">
-        <v>12.5</v>
+        <v>12.26</v>
       </c>
       <c r="E85" t="n">
-        <v>12.5</v>
+        <v>11.98</v>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>16888.2181</v>
       </c>
       <c r="G85" t="n">
-        <v>-794600.8304527662</v>
+        <v>-479675.5338527659</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3688,39 +3768,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.5</v>
+        <v>12.22</v>
       </c>
       <c r="C86" t="n">
-        <v>12.7</v>
+        <v>12.24</v>
       </c>
       <c r="D86" t="n">
-        <v>12.92</v>
+        <v>12.24</v>
       </c>
       <c r="E86" t="n">
-        <v>12.5</v>
+        <v>12.21</v>
       </c>
       <c r="F86" t="n">
-        <v>239136.0099</v>
+        <v>100033.5613</v>
       </c>
       <c r="G86" t="n">
-        <v>-555464.8205527661</v>
+        <v>-579709.0951527659</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3729,39 +3804,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.7</v>
+        <v>12.24</v>
       </c>
       <c r="C87" t="n">
-        <v>12.98</v>
+        <v>12.24</v>
       </c>
       <c r="D87" t="n">
-        <v>12.98</v>
+        <v>12.24</v>
       </c>
       <c r="E87" t="n">
-        <v>12.7</v>
+        <v>12.24</v>
       </c>
       <c r="F87" t="n">
-        <v>247917.5562</v>
+        <v>70783.98299999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-307547.2643527661</v>
+        <v>-579709.0951527659</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3770,39 +3840,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.04</v>
+        <v>12.26</v>
       </c>
       <c r="C88" t="n">
-        <v>13.15</v>
+        <v>12.28</v>
       </c>
       <c r="D88" t="n">
-        <v>13.16</v>
+        <v>12.28</v>
       </c>
       <c r="E88" t="n">
-        <v>13.04</v>
+        <v>12.26</v>
       </c>
       <c r="F88" t="n">
-        <v>228116.3585</v>
+        <v>7695.7111</v>
       </c>
       <c r="G88" t="n">
-        <v>-79430.9058527661</v>
+        <v>-572013.3840527659</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3811,39 +3876,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.17</v>
+        <v>12.28</v>
       </c>
       <c r="C89" t="n">
-        <v>13.22</v>
+        <v>12.65</v>
       </c>
       <c r="D89" t="n">
-        <v>13.31</v>
+        <v>12.65</v>
       </c>
       <c r="E89" t="n">
-        <v>13.15</v>
+        <v>12.28</v>
       </c>
       <c r="F89" t="n">
-        <v>1394857.2097</v>
+        <v>18969.1455</v>
       </c>
       <c r="G89" t="n">
-        <v>1315426.303847234</v>
+        <v>-553044.2385527659</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3852,80 +3912,70 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.21</v>
+        <v>12.65</v>
       </c>
       <c r="C90" t="n">
-        <v>13.08</v>
+        <v>12.65</v>
       </c>
       <c r="D90" t="n">
-        <v>13.22</v>
+        <v>12.65</v>
       </c>
       <c r="E90" t="n">
-        <v>13.08</v>
+        <v>12.65</v>
       </c>
       <c r="F90" t="n">
-        <v>227021.8965</v>
+        <v>28755.7259</v>
       </c>
       <c r="G90" t="n">
-        <v>1088404.407347234</v>
+        <v>-553044.2385527659</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>1.074207920792079</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.2</v>
+        <v>12.36</v>
       </c>
       <c r="C91" t="n">
-        <v>12.7</v>
+        <v>12.36</v>
       </c>
       <c r="D91" t="n">
-        <v>13.2</v>
+        <v>12.36</v>
       </c>
       <c r="E91" t="n">
-        <v>12.7</v>
+        <v>12.36</v>
       </c>
       <c r="F91" t="n">
-        <v>181034.0182</v>
+        <v>1828.6161</v>
       </c>
       <c r="G91" t="n">
-        <v>907370.3891472339</v>
+        <v>-554872.8546527659</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3939,28 +3989,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.09</v>
+        <v>12.36</v>
       </c>
       <c r="C92" t="n">
-        <v>12.85</v>
+        <v>12.61</v>
       </c>
       <c r="D92" t="n">
-        <v>13.09</v>
+        <v>12.61</v>
       </c>
       <c r="E92" t="n">
-        <v>12.57</v>
+        <v>12.36</v>
       </c>
       <c r="F92" t="n">
-        <v>105864.0392</v>
+        <v>10209.5285</v>
       </c>
       <c r="G92" t="n">
-        <v>1013234.428347234</v>
+        <v>-544663.3261527659</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3974,34 +4025,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.69</v>
+        <v>12.59</v>
       </c>
       <c r="C93" t="n">
-        <v>12.8</v>
+        <v>12.37</v>
       </c>
       <c r="D93" t="n">
-        <v>13.18</v>
+        <v>12.59</v>
       </c>
       <c r="E93" t="n">
-        <v>12.69</v>
+        <v>12.37</v>
       </c>
       <c r="F93" t="n">
-        <v>209997.3861</v>
+        <v>81</v>
       </c>
       <c r="G93" t="n">
-        <v>803237.0422472339</v>
+        <v>-544744.3261527659</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4009,34 +4061,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.8</v>
+        <v>12.37</v>
       </c>
       <c r="C94" t="n">
-        <v>12.56</v>
+        <v>12.59</v>
       </c>
       <c r="D94" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="E94" t="n">
-        <v>12.56</v>
+        <v>12.37</v>
       </c>
       <c r="F94" t="n">
-        <v>115712.7233</v>
+        <v>43</v>
       </c>
       <c r="G94" t="n">
-        <v>687524.318947234</v>
+        <v>-544701.3261527659</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4044,34 +4097,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="C95" t="n">
-        <v>13.05</v>
+        <v>12.59</v>
       </c>
       <c r="D95" t="n">
-        <v>13.08</v>
+        <v>12.59</v>
       </c>
       <c r="E95" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="F95" t="n">
-        <v>142608.2106</v>
+        <v>24058.3259</v>
       </c>
       <c r="G95" t="n">
-        <v>830132.5295472339</v>
+        <v>-544701.3261527659</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4079,28 +4133,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.72</v>
+        <v>12.35</v>
       </c>
       <c r="C96" t="n">
-        <v>12.7</v>
+        <v>12.35</v>
       </c>
       <c r="D96" t="n">
-        <v>12.72</v>
+        <v>12.35</v>
       </c>
       <c r="E96" t="n">
-        <v>12.7</v>
+        <v>12.35</v>
       </c>
       <c r="F96" t="n">
-        <v>218119.6066</v>
+        <v>14581.1123</v>
       </c>
       <c r="G96" t="n">
-        <v>612012.922947234</v>
+        <v>-559282.4384527659</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4114,34 +4169,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="C97" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="D97" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="E97" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="F97" t="n">
-        <v>18018.3603</v>
+        <v>5991.2263</v>
       </c>
       <c r="G97" t="n">
-        <v>612012.922947234</v>
+        <v>-565273.6647527659</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4149,28 +4205,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="C98" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="D98" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="E98" t="n">
-        <v>12.7</v>
+        <v>12.13</v>
       </c>
       <c r="F98" t="n">
-        <v>47060.9444</v>
+        <v>12415.2193</v>
       </c>
       <c r="G98" t="n">
-        <v>612012.922947234</v>
+        <v>-565273.6647527659</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4184,28 +4241,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="C99" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="D99" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="E99" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="F99" t="n">
-        <v>150744.8104</v>
+        <v>55</v>
       </c>
       <c r="G99" t="n">
-        <v>612012.922947234</v>
+        <v>-565218.6647527659</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4219,28 +4277,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="C100" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="D100" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="E100" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="F100" t="n">
-        <v>196324.5417</v>
+        <v>173543.4475</v>
       </c>
       <c r="G100" t="n">
-        <v>612012.922947234</v>
+        <v>-738762.1122527659</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4254,28 +4313,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="C101" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="D101" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="E101" t="n">
-        <v>12.58</v>
+        <v>12.41</v>
       </c>
       <c r="F101" t="n">
-        <v>74569.47259999999</v>
+        <v>53</v>
       </c>
       <c r="G101" t="n">
-        <v>612012.922947234</v>
+        <v>-738709.1122527659</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4289,28 +4349,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.87</v>
+        <v>12.26</v>
       </c>
       <c r="C102" t="n">
-        <v>12.88</v>
+        <v>12.26</v>
       </c>
       <c r="D102" t="n">
-        <v>12.93</v>
+        <v>12.26</v>
       </c>
       <c r="E102" t="n">
-        <v>12.58</v>
+        <v>12.26</v>
       </c>
       <c r="F102" t="n">
-        <v>70144.22659999999</v>
+        <v>1228.9677</v>
       </c>
       <c r="G102" t="n">
-        <v>682157.1495472339</v>
+        <v>-739938.079952766</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4324,28 +4385,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.87</v>
+        <v>12.26</v>
       </c>
       <c r="C103" t="n">
-        <v>12.8</v>
+        <v>12.26</v>
       </c>
       <c r="D103" t="n">
-        <v>12.87</v>
+        <v>12.26</v>
       </c>
       <c r="E103" t="n">
-        <v>12.71</v>
+        <v>12.26</v>
       </c>
       <c r="F103" t="n">
-        <v>69785.0003</v>
+        <v>1481.3556</v>
       </c>
       <c r="G103" t="n">
-        <v>612372.149247234</v>
+        <v>-739938.079952766</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4359,34 +4421,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.79</v>
+        <v>12.26</v>
       </c>
       <c r="C104" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D104" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E104" t="n">
-        <v>12.79</v>
+        <v>12.15</v>
       </c>
       <c r="F104" t="n">
-        <v>3125.1875</v>
+        <v>2616.8071</v>
       </c>
       <c r="G104" t="n">
-        <v>612372.149247234</v>
+        <v>-737321.272852766</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4394,34 +4457,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.8</v>
+        <v>12.15</v>
       </c>
       <c r="C105" t="n">
-        <v>12.8</v>
+        <v>12.03</v>
       </c>
       <c r="D105" t="n">
-        <v>12.8</v>
+        <v>12.15</v>
       </c>
       <c r="E105" t="n">
-        <v>12.8</v>
+        <v>12.03</v>
       </c>
       <c r="F105" t="n">
-        <v>60202.0425</v>
+        <v>81378.1661</v>
       </c>
       <c r="G105" t="n">
-        <v>612372.149247234</v>
+        <v>-818699.438952766</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4429,34 +4493,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="C106" t="n">
-        <v>12.7</v>
+        <v>12.03</v>
       </c>
       <c r="D106" t="n">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="E106" t="n">
-        <v>12.7</v>
+        <v>12.03</v>
       </c>
       <c r="F106" t="n">
-        <v>20240.8611</v>
+        <v>13057.9861</v>
       </c>
       <c r="G106" t="n">
-        <v>592131.288147234</v>
+        <v>-818699.438952766</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4464,28 +4529,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.65</v>
+        <v>12.03</v>
       </c>
       <c r="C107" t="n">
-        <v>12.51</v>
+        <v>12.02</v>
       </c>
       <c r="D107" t="n">
-        <v>12.65</v>
+        <v>12.03</v>
       </c>
       <c r="E107" t="n">
-        <v>12.51</v>
+        <v>12.02</v>
       </c>
       <c r="F107" t="n">
-        <v>426011.1715</v>
+        <v>108112.2012</v>
       </c>
       <c r="G107" t="n">
-        <v>166120.116647234</v>
+        <v>-926811.640152766</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4499,28 +4565,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>12.49</v>
+        <v>11.93</v>
       </c>
       <c r="D108" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>12.49</v>
+        <v>11.93</v>
       </c>
       <c r="F108" t="n">
-        <v>358040.7656</v>
+        <v>69290.8806</v>
       </c>
       <c r="G108" t="n">
-        <v>-191920.648952766</v>
+        <v>-996102.5207527661</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4534,28 +4601,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.49</v>
+        <v>12.1</v>
       </c>
       <c r="C109" t="n">
-        <v>12.49</v>
+        <v>12.1</v>
       </c>
       <c r="D109" t="n">
-        <v>12.49</v>
+        <v>12.1</v>
       </c>
       <c r="E109" t="n">
-        <v>12.49</v>
+        <v>12.1</v>
       </c>
       <c r="F109" t="n">
-        <v>25166.929</v>
+        <v>3222</v>
       </c>
       <c r="G109" t="n">
-        <v>-191920.648952766</v>
+        <v>-992880.5207527661</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4569,28 +4637,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.49</v>
+        <v>11.96</v>
       </c>
       <c r="C110" t="n">
-        <v>12.49</v>
+        <v>11.96</v>
       </c>
       <c r="D110" t="n">
-        <v>12.49</v>
+        <v>11.96</v>
       </c>
       <c r="E110" t="n">
-        <v>12.49</v>
+        <v>11.96</v>
       </c>
       <c r="F110" t="n">
-        <v>7300</v>
+        <v>3159.392</v>
       </c>
       <c r="G110" t="n">
-        <v>-191920.648952766</v>
+        <v>-996039.912752766</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4604,28 +4673,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.31</v>
+        <v>12.1</v>
       </c>
       <c r="C111" t="n">
-        <v>12.12</v>
+        <v>12.1</v>
       </c>
       <c r="D111" t="n">
-        <v>12.31</v>
+        <v>12.1</v>
       </c>
       <c r="E111" t="n">
-        <v>12.12</v>
+        <v>12.1</v>
       </c>
       <c r="F111" t="n">
-        <v>8110.8774</v>
+        <v>43.718</v>
       </c>
       <c r="G111" t="n">
-        <v>-200031.526352766</v>
+        <v>-995996.1947527661</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4639,28 +4709,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.34</v>
+        <v>12.16</v>
       </c>
       <c r="C112" t="n">
         <v>12.16</v>
       </c>
       <c r="D112" t="n">
-        <v>12.35</v>
+        <v>12.16</v>
       </c>
       <c r="E112" t="n">
         <v>12.16</v>
       </c>
       <c r="F112" t="n">
-        <v>72424.0866</v>
+        <v>200</v>
       </c>
       <c r="G112" t="n">
-        <v>-127607.439752766</v>
+        <v>-995796.1947527661</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4674,28 +4745,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.18</v>
+        <v>11.97</v>
       </c>
       <c r="C113" t="n">
-        <v>12.15</v>
+        <v>11.95</v>
       </c>
       <c r="D113" t="n">
-        <v>12.18</v>
+        <v>11.97</v>
       </c>
       <c r="E113" t="n">
-        <v>12.15</v>
+        <v>11.95</v>
       </c>
       <c r="F113" t="n">
-        <v>80207.376</v>
+        <v>172639.6185</v>
       </c>
       <c r="G113" t="n">
-        <v>-207814.815752766</v>
+        <v>-1168435.813252766</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4709,28 +4781,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="C114" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="D114" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="E114" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="F114" t="n">
-        <v>51199.7726</v>
+        <v>42</v>
       </c>
       <c r="G114" t="n">
-        <v>-259014.588352766</v>
+        <v>-1168393.813252766</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4744,28 +4817,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.22</v>
+        <v>12.13</v>
       </c>
       <c r="C115" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D115" t="n">
         <v>12.13</v>
       </c>
-      <c r="D115" t="n">
-        <v>12.22</v>
-      </c>
       <c r="E115" t="n">
-        <v>12.13</v>
+        <v>12.11</v>
       </c>
       <c r="F115" t="n">
-        <v>92672.6243</v>
+        <v>233.3331</v>
       </c>
       <c r="G115" t="n">
-        <v>-351687.212652766</v>
+        <v>-1168627.146352766</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4779,28 +4853,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.12</v>
+        <v>12.1</v>
       </c>
       <c r="C116" t="n">
-        <v>12.1</v>
+        <v>12.13</v>
       </c>
       <c r="D116" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="E116" t="n">
         <v>12.1</v>
       </c>
       <c r="F116" t="n">
-        <v>7807.6335</v>
+        <v>160.6059</v>
       </c>
       <c r="G116" t="n">
-        <v>-359494.846152766</v>
+        <v>-1168466.540452766</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4814,28 +4889,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.09</v>
+        <v>12.13</v>
       </c>
       <c r="C117" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="D117" t="n">
-        <v>12.09</v>
+        <v>12.13</v>
       </c>
       <c r="E117" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="F117" t="n">
-        <v>301554.1764</v>
+        <v>77.7777</v>
       </c>
       <c r="G117" t="n">
-        <v>-661049.0225527659</v>
+        <v>-1168466.540452766</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4849,28 +4925,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="C118" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="D118" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="E118" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="F118" t="n">
-        <v>26102.652</v>
+        <v>19845.4248</v>
       </c>
       <c r="G118" t="n">
-        <v>-661049.0225527659</v>
+        <v>-1188311.965252766</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4884,28 +4961,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.11</v>
+        <v>12.01</v>
       </c>
       <c r="C119" t="n">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="D119" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="E119" t="n">
-        <v>12.1</v>
+        <v>11.91</v>
       </c>
       <c r="F119" t="n">
-        <v>4993.3884</v>
+        <v>78368.5913</v>
       </c>
       <c r="G119" t="n">
-        <v>-656055.6341527659</v>
+        <v>-1188311.965252766</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4919,28 +4997,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="C120" t="n">
-        <v>12.02</v>
+        <v>11.92</v>
       </c>
       <c r="D120" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="E120" t="n">
-        <v>12.02</v>
+        <v>11.92</v>
       </c>
       <c r="F120" t="n">
-        <v>2379.5362</v>
+        <v>142442.1357</v>
       </c>
       <c r="G120" t="n">
-        <v>-658435.1703527658</v>
+        <v>-1330754.100952766</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4954,28 +5033,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.02</v>
+        <v>12.13</v>
       </c>
       <c r="C121" t="n">
-        <v>11.88</v>
+        <v>12.14</v>
       </c>
       <c r="D121" t="n">
-        <v>12.02</v>
+        <v>12.14</v>
       </c>
       <c r="E121" t="n">
-        <v>11.88</v>
+        <v>12.13</v>
       </c>
       <c r="F121" t="n">
-        <v>68522.1663</v>
+        <v>80</v>
       </c>
       <c r="G121" t="n">
-        <v>-726957.3366527659</v>
+        <v>-1330674.100952766</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4989,28 +5069,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.9</v>
+        <v>12.14</v>
       </c>
       <c r="C122" t="n">
-        <v>11.91</v>
+        <v>12.14</v>
       </c>
       <c r="D122" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="E122" t="n">
-        <v>11.88</v>
+        <v>12.14</v>
       </c>
       <c r="F122" t="n">
-        <v>53622.7926</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>-673334.5440527658</v>
+        <v>-1330674.100952766</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5024,28 +5105,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="D123" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="F123" t="n">
-        <v>173156.3043</v>
+        <v>18738.2036</v>
       </c>
       <c r="G123" t="n">
-        <v>-500178.2397527659</v>
+        <v>-1349412.304552766</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5059,28 +5141,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="C124" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="D124" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="E124" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="F124" t="n">
-        <v>1506.0027</v>
+        <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>-500178.2397527659</v>
+        <v>-1349367.304552766</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5094,28 +5177,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.22</v>
+        <v>11.93</v>
       </c>
       <c r="C125" t="n">
-        <v>12.22</v>
+        <v>11.91</v>
       </c>
       <c r="D125" t="n">
-        <v>12.22</v>
+        <v>11.93</v>
       </c>
       <c r="E125" t="n">
-        <v>12.22</v>
+        <v>11.91</v>
       </c>
       <c r="F125" t="n">
-        <v>3614.4878</v>
+        <v>8850.5587</v>
       </c>
       <c r="G125" t="n">
-        <v>-496563.7519527659</v>
+        <v>-1358217.863252766</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5129,28 +5213,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.22</v>
+        <v>11.91</v>
       </c>
       <c r="C126" t="n">
-        <v>12.22</v>
+        <v>11.91</v>
       </c>
       <c r="D126" t="n">
-        <v>12.22</v>
+        <v>11.91</v>
       </c>
       <c r="E126" t="n">
-        <v>12.22</v>
+        <v>11.91</v>
       </c>
       <c r="F126" t="n">
-        <v>1111</v>
+        <v>63642.5726</v>
       </c>
       <c r="G126" t="n">
-        <v>-496563.7519527659</v>
+        <v>-1358217.863252766</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5164,28 +5249,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.99</v>
+        <v>11.93</v>
       </c>
       <c r="C127" t="n">
-        <v>12.26</v>
+        <v>11.9</v>
       </c>
       <c r="D127" t="n">
-        <v>12.26</v>
+        <v>11.93</v>
       </c>
       <c r="E127" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="F127" t="n">
-        <v>16888.2181</v>
+        <v>2188.7653</v>
       </c>
       <c r="G127" t="n">
-        <v>-479675.5338527659</v>
+        <v>-1360406.628552766</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5199,28 +5285,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.22</v>
+        <v>11.88</v>
       </c>
       <c r="C128" t="n">
-        <v>12.24</v>
+        <v>11.86</v>
       </c>
       <c r="D128" t="n">
-        <v>12.24</v>
+        <v>11.88</v>
       </c>
       <c r="E128" t="n">
-        <v>12.21</v>
+        <v>11.86</v>
       </c>
       <c r="F128" t="n">
-        <v>100033.5613</v>
+        <v>82428.6557</v>
       </c>
       <c r="G128" t="n">
-        <v>-579709.0951527659</v>
+        <v>-1442835.284252766</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5234,28 +5321,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.24</v>
+        <v>12</v>
       </c>
       <c r="C129" t="n">
-        <v>12.24</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
-        <v>12.24</v>
+        <v>12</v>
       </c>
       <c r="E129" t="n">
-        <v>12.24</v>
+        <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>70783.98299999999</v>
+        <v>1257.5109</v>
       </c>
       <c r="G129" t="n">
-        <v>-579709.0951527659</v>
+        <v>-1441577.773352766</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5269,28 +5357,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.26</v>
+        <v>12</v>
       </c>
       <c r="C130" t="n">
-        <v>12.28</v>
+        <v>11.87</v>
       </c>
       <c r="D130" t="n">
-        <v>12.28</v>
+        <v>12</v>
       </c>
       <c r="E130" t="n">
-        <v>12.26</v>
+        <v>11.87</v>
       </c>
       <c r="F130" t="n">
-        <v>7695.7111</v>
+        <v>5042.6897</v>
       </c>
       <c r="G130" t="n">
-        <v>-572013.3840527659</v>
+        <v>-1446620.463052766</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5304,28 +5393,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.28</v>
+        <v>12.06</v>
       </c>
       <c r="C131" t="n">
-        <v>12.65</v>
+        <v>12.06</v>
       </c>
       <c r="D131" t="n">
-        <v>12.65</v>
+        <v>12.06</v>
       </c>
       <c r="E131" t="n">
-        <v>12.28</v>
+        <v>12.06</v>
       </c>
       <c r="F131" t="n">
-        <v>18969.1455</v>
+        <v>43</v>
       </c>
       <c r="G131" t="n">
-        <v>-553044.2385527659</v>
+        <v>-1446577.463052766</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5339,28 +5429,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.65</v>
+        <v>12.01</v>
       </c>
       <c r="C132" t="n">
-        <v>12.65</v>
+        <v>12.01</v>
       </c>
       <c r="D132" t="n">
-        <v>12.65</v>
+        <v>12.01</v>
       </c>
       <c r="E132" t="n">
-        <v>12.65</v>
+        <v>12.01</v>
       </c>
       <c r="F132" t="n">
-        <v>28755.7259</v>
+        <v>44.4444</v>
       </c>
       <c r="G132" t="n">
-        <v>-553044.2385527659</v>
+        <v>-1446621.907452766</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5374,28 +5465,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.36</v>
+        <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>12.36</v>
+        <v>11.86</v>
       </c>
       <c r="D133" t="n">
-        <v>12.36</v>
+        <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>12.36</v>
+        <v>11.86</v>
       </c>
       <c r="F133" t="n">
-        <v>1828.6161</v>
+        <v>24041.3133</v>
       </c>
       <c r="G133" t="n">
-        <v>-554872.8546527659</v>
+        <v>-1470663.220752766</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5409,28 +5501,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.36</v>
+        <v>11.86</v>
       </c>
       <c r="C134" t="n">
-        <v>12.61</v>
+        <v>11.86</v>
       </c>
       <c r="D134" t="n">
-        <v>12.61</v>
+        <v>11.86</v>
       </c>
       <c r="E134" t="n">
-        <v>12.36</v>
+        <v>11.86</v>
       </c>
       <c r="F134" t="n">
-        <v>10209.5285</v>
+        <v>24147.7257</v>
       </c>
       <c r="G134" t="n">
-        <v>-544663.3261527659</v>
+        <v>-1470663.220752766</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5444,28 +5537,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.59</v>
+        <v>11.88</v>
       </c>
       <c r="C135" t="n">
-        <v>12.37</v>
+        <v>11.89</v>
       </c>
       <c r="D135" t="n">
-        <v>12.59</v>
+        <v>11.89</v>
       </c>
       <c r="E135" t="n">
-        <v>12.37</v>
+        <v>11.88</v>
       </c>
       <c r="F135" t="n">
-        <v>81</v>
+        <v>9931.6315</v>
       </c>
       <c r="G135" t="n">
-        <v>-544744.3261527659</v>
+        <v>-1460731.589252766</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5479,28 +5573,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.37</v>
+        <v>11.88</v>
       </c>
       <c r="C136" t="n">
-        <v>12.59</v>
+        <v>11.88</v>
       </c>
       <c r="D136" t="n">
-        <v>12.59</v>
+        <v>11.88</v>
       </c>
       <c r="E136" t="n">
-        <v>12.37</v>
+        <v>11.87</v>
       </c>
       <c r="F136" t="n">
-        <v>43</v>
+        <v>32588.8888</v>
       </c>
       <c r="G136" t="n">
-        <v>-544701.3261527659</v>
+        <v>-1493320.478052766</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5514,28 +5609,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.57</v>
+        <v>11.89</v>
       </c>
       <c r="C137" t="n">
-        <v>12.59</v>
+        <v>11.95</v>
       </c>
       <c r="D137" t="n">
-        <v>12.59</v>
+        <v>11.95</v>
       </c>
       <c r="E137" t="n">
-        <v>12.57</v>
+        <v>11.89</v>
       </c>
       <c r="F137" t="n">
-        <v>24058.3259</v>
+        <v>307.3332</v>
       </c>
       <c r="G137" t="n">
-        <v>-544701.3261527659</v>
+        <v>-1493013.144852766</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5549,28 +5645,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.35</v>
+        <v>11.95</v>
       </c>
       <c r="C138" t="n">
-        <v>12.35</v>
+        <v>12.01</v>
       </c>
       <c r="D138" t="n">
-        <v>12.35</v>
+        <v>12.01</v>
       </c>
       <c r="E138" t="n">
-        <v>12.35</v>
+        <v>11.95</v>
       </c>
       <c r="F138" t="n">
-        <v>14581.1123</v>
+        <v>16840.9043</v>
       </c>
       <c r="G138" t="n">
-        <v>-559282.4384527659</v>
+        <v>-1476172.240552766</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5584,28 +5681,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.13</v>
+        <v>11.95</v>
       </c>
       <c r="C139" t="n">
-        <v>12.13</v>
+        <v>11.84</v>
       </c>
       <c r="D139" t="n">
-        <v>12.13</v>
+        <v>11.95</v>
       </c>
       <c r="E139" t="n">
-        <v>12.13</v>
+        <v>11.84</v>
       </c>
       <c r="F139" t="n">
-        <v>5991.2263</v>
+        <v>206884.2121</v>
       </c>
       <c r="G139" t="n">
-        <v>-565273.6647527659</v>
+        <v>-1683056.452652766</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5619,28 +5717,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.13</v>
+        <v>11.84</v>
       </c>
       <c r="C140" t="n">
-        <v>12.13</v>
+        <v>11.78</v>
       </c>
       <c r="D140" t="n">
-        <v>12.13</v>
+        <v>11.84</v>
       </c>
       <c r="E140" t="n">
-        <v>12.13</v>
+        <v>11.78</v>
       </c>
       <c r="F140" t="n">
-        <v>12415.2193</v>
+        <v>109662.5145</v>
       </c>
       <c r="G140" t="n">
-        <v>-565273.6647527659</v>
+        <v>-1792718.967152766</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5654,28 +5753,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.41</v>
+        <v>11.78</v>
       </c>
       <c r="C141" t="n">
-        <v>12.41</v>
+        <v>11.91</v>
       </c>
       <c r="D141" t="n">
-        <v>12.41</v>
+        <v>11.95</v>
       </c>
       <c r="E141" t="n">
-        <v>12.41</v>
+        <v>11.78</v>
       </c>
       <c r="F141" t="n">
-        <v>55</v>
+        <v>41557.9817</v>
       </c>
       <c r="G141" t="n">
-        <v>-565218.6647527659</v>
+        <v>-1751160.985452766</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5689,28 +5789,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C142" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D142" t="n">
-        <v>12.41</v>
+        <v>11.9</v>
       </c>
       <c r="E142" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F142" t="n">
-        <v>173543.4475</v>
+        <v>1270</v>
       </c>
       <c r="G142" t="n">
-        <v>-738762.1122527659</v>
+        <v>-1752430.985452766</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5724,28 +5825,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.41</v>
+        <v>11.91</v>
       </c>
       <c r="C143" t="n">
-        <v>12.41</v>
+        <v>11.92</v>
       </c>
       <c r="D143" t="n">
-        <v>12.41</v>
+        <v>11.92</v>
       </c>
       <c r="E143" t="n">
-        <v>12.41</v>
+        <v>11.91</v>
       </c>
       <c r="F143" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G143" t="n">
-        <v>-738709.1122527659</v>
+        <v>-1752385.985452766</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5759,28 +5861,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.26</v>
+        <v>11.92</v>
       </c>
       <c r="C144" t="n">
-        <v>12.26</v>
+        <v>11.93</v>
       </c>
       <c r="D144" t="n">
-        <v>12.26</v>
+        <v>11.93</v>
       </c>
       <c r="E144" t="n">
-        <v>12.26</v>
+        <v>11.92</v>
       </c>
       <c r="F144" t="n">
-        <v>1228.9677</v>
+        <v>8721.3189</v>
       </c>
       <c r="G144" t="n">
-        <v>-739938.079952766</v>
+        <v>-1743664.666552766</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5794,28 +5897,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.26</v>
+        <v>11.94</v>
       </c>
       <c r="C145" t="n">
-        <v>12.26</v>
+        <v>11.94</v>
       </c>
       <c r="D145" t="n">
-        <v>12.26</v>
+        <v>11.94</v>
       </c>
       <c r="E145" t="n">
-        <v>12.26</v>
+        <v>11.94</v>
       </c>
       <c r="F145" t="n">
-        <v>1481.3556</v>
+        <v>8896.707899999999</v>
       </c>
       <c r="G145" t="n">
-        <v>-739938.079952766</v>
+        <v>-1734767.958652766</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5829,28 +5933,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.26</v>
+        <v>11.79</v>
       </c>
       <c r="C146" t="n">
-        <v>12.4</v>
+        <v>11.76</v>
       </c>
       <c r="D146" t="n">
-        <v>12.4</v>
+        <v>11.79</v>
       </c>
       <c r="E146" t="n">
-        <v>12.15</v>
+        <v>11.76</v>
       </c>
       <c r="F146" t="n">
-        <v>2616.8071</v>
+        <v>166894.2681</v>
       </c>
       <c r="G146" t="n">
-        <v>-737321.272852766</v>
+        <v>-1901662.226752766</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5864,28 +5969,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="C147" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="D147" t="n">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="E147" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="F147" t="n">
-        <v>81378.1661</v>
+        <v>43</v>
       </c>
       <c r="G147" t="n">
-        <v>-818699.438952766</v>
+        <v>-1901619.226752766</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5899,28 +6005,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.1</v>
+        <v>11.91</v>
       </c>
       <c r="C148" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="D148" t="n">
-        <v>12.1</v>
+        <v>11.91</v>
       </c>
       <c r="E148" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="F148" t="n">
-        <v>13057.9861</v>
+        <v>20195.5112</v>
       </c>
       <c r="G148" t="n">
-        <v>-818699.438952766</v>
+        <v>-1901619.226752766</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5934,28 +6041,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.03</v>
+        <v>11.9</v>
       </c>
       <c r="C149" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="D149" t="n">
-        <v>12.03</v>
+        <v>11.9</v>
       </c>
       <c r="E149" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="F149" t="n">
-        <v>108112.2012</v>
+        <v>77884.7458</v>
       </c>
       <c r="G149" t="n">
-        <v>-926811.640152766</v>
+        <v>-1979503.972552766</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5969,28 +6077,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C150" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="D150" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E150" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="F150" t="n">
-        <v>69290.8806</v>
+        <v>2593.2361</v>
       </c>
       <c r="G150" t="n">
-        <v>-996102.5207527661</v>
+        <v>-1979503.972552766</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6004,28 +6113,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C151" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D151" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E151" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F151" t="n">
-        <v>3222</v>
+        <v>53703.6597</v>
       </c>
       <c r="G151" t="n">
-        <v>-992880.5207527661</v>
+        <v>-1979503.972552766</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6039,28 +6149,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.96</v>
+        <v>11.91</v>
       </c>
       <c r="C152" t="n">
-        <v>11.96</v>
+        <v>11.92</v>
       </c>
       <c r="D152" t="n">
-        <v>11.96</v>
+        <v>11.92</v>
       </c>
       <c r="E152" t="n">
-        <v>11.96</v>
+        <v>11.91</v>
       </c>
       <c r="F152" t="n">
-        <v>3159.392</v>
+        <v>45</v>
       </c>
       <c r="G152" t="n">
-        <v>-996039.912752766</v>
+        <v>-1979458.972552766</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6074,28 +6185,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C153" t="n">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="D153" t="n">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E153" t="n">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
       <c r="F153" t="n">
-        <v>43.718</v>
+        <v>93028.2184</v>
       </c>
       <c r="G153" t="n">
-        <v>-995996.1947527661</v>
+        <v>-1886430.754152766</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6109,1476 +6221,7 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C154" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D154" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F154" t="n">
-        <v>200</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-995796.1947527661</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F155" t="n">
-        <v>172639.6185</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1168435.813252766</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F156" t="n">
-        <v>42</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1168393.813252766</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="C157" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D157" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E157" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F157" t="n">
-        <v>233.3331</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1168627.146352766</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="D158" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>160.6059</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1168466.540452766</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="C159" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="D159" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E159" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="F159" t="n">
-        <v>77.7777</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1168466.540452766</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C160" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D160" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E160" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19845.4248</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1188311.965252766</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C161" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D161" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F161" t="n">
-        <v>78368.5913</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1188311.965252766</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D162" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F162" t="n">
-        <v>142442.1357</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1330754.100952766</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="C163" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D163" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E163" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="F163" t="n">
-        <v>80</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1330674.100952766</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C164" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D164" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E164" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F164" t="n">
-        <v>100</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1330674.100952766</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F165" t="n">
-        <v>18738.2036</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1349412.304552766</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C166" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D166" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E166" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F166" t="n">
-        <v>45</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1349367.304552766</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F167" t="n">
-        <v>8850.5587</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1358217.863252766</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F168" t="n">
-        <v>63642.5726</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1358217.863252766</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2188.7653</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1360406.628552766</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F170" t="n">
-        <v>82428.6557</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1442835.284252766</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>12</v>
-      </c>
-      <c r="C171" t="n">
-        <v>12</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12</v>
-      </c>
-      <c r="E171" t="n">
-        <v>12</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1257.5109</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1441577.773352766</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>12</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5042.6897</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1446620.463052766</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C173" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D173" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E173" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F173" t="n">
-        <v>43</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1446577.463052766</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C174" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D174" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E174" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F174" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1446621.907452766</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>12</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D175" t="n">
-        <v>12</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F175" t="n">
-        <v>24041.3133</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1470663.220752766</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F176" t="n">
-        <v>24147.7257</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1470663.220752766</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="F177" t="n">
-        <v>9931.6315</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1460731.589252766</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F178" t="n">
-        <v>32588.8888</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1493320.478052766</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F179" t="n">
-        <v>307.3332</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1493013.144852766</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C180" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D180" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F180" t="n">
-        <v>16840.9043</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1476172.240552766</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F181" t="n">
-        <v>206884.2121</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1683056.452652766</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F182" t="n">
-        <v>109662.5145</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1792718.967152766</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F183" t="n">
-        <v>41557.9817</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1751160.985452766</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1270</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1752430.985452766</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F185" t="n">
-        <v>45</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1752385.985452766</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F186" t="n">
-        <v>8721.3189</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1743664.666552766</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F187" t="n">
-        <v>8896.707899999999</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1734767.958652766</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F188" t="n">
-        <v>166894.2681</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1901662.226752766</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F189" t="n">
-        <v>43</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1901619.226752766</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F190" t="n">
-        <v>20195.5112</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1901619.226752766</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F191" t="n">
-        <v>77884.7458</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1979503.972552766</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2593.2361</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1979503.972552766</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F193" t="n">
-        <v>53703.6597</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1979503.972552766</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C194" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D194" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F194" t="n">
-        <v>45</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1979458.972552766</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F195" t="n">
-        <v>93028.2184</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1886430.754152766</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.17</v>
+        <v>11.9</v>
       </c>
       <c r="C2" t="n">
-        <v>12.17</v>
+        <v>11.9</v>
       </c>
       <c r="D2" t="n">
-        <v>12.17</v>
+        <v>11.9</v>
       </c>
       <c r="E2" t="n">
-        <v>12.17</v>
+        <v>11.9</v>
       </c>
       <c r="F2" t="n">
-        <v>36201.9314</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>-3291416.419900001</v>
+        <v>-2013731.1935</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.03</v>
+        <v>11.74</v>
       </c>
       <c r="C3" t="n">
-        <v>12.03</v>
+        <v>11.59</v>
       </c>
       <c r="D3" t="n">
-        <v>12.03</v>
+        <v>11.74</v>
       </c>
       <c r="E3" t="n">
-        <v>12.03</v>
+        <v>11.59</v>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>4157.7766</v>
       </c>
       <c r="G3" t="n">
-        <v>-3341416.419900001</v>
+        <v>-2017888.9701</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,35 +510,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="C4" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="D4" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="E4" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="F4" t="n">
-        <v>3077.206</v>
+        <v>130000</v>
       </c>
       <c r="G4" t="n">
-        <v>-3341416.419900001</v>
+        <v>-1887888.9701</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.03</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.03</v>
+        <v>11.7</v>
       </c>
       <c r="C5" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="D5" t="n">
-        <v>12.03</v>
+        <v>11.7</v>
       </c>
       <c r="E5" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="F5" t="n">
-        <v>4145.8852</v>
+        <v>45099.7365</v>
       </c>
       <c r="G5" t="n">
-        <v>-3341416.419900001</v>
+        <v>-1887888.9701</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -594,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.85</v>
+        <v>11.58</v>
       </c>
       <c r="C6" t="n">
-        <v>11.85</v>
+        <v>11.57</v>
       </c>
       <c r="D6" t="n">
-        <v>11.85</v>
+        <v>11.58</v>
       </c>
       <c r="E6" t="n">
-        <v>11.85</v>
+        <v>11.57</v>
       </c>
       <c r="F6" t="n">
-        <v>1590.2043</v>
+        <v>231163.2687</v>
       </c>
       <c r="G6" t="n">
-        <v>-3343006.6242</v>
+        <v>-2119052.2388</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -638,35 +618,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.82</v>
+        <v>11.56</v>
       </c>
       <c r="C7" t="n">
-        <v>11.82</v>
+        <v>11.55</v>
       </c>
       <c r="D7" t="n">
-        <v>11.82</v>
+        <v>11.56</v>
       </c>
       <c r="E7" t="n">
-        <v>11.82</v>
+        <v>11.55</v>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>38965.7162</v>
       </c>
       <c r="G7" t="n">
-        <v>-3353006.6242</v>
+        <v>-2158017.955</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -678,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="C8" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="D8" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="E8" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="F8" t="n">
-        <v>27403.2412</v>
+        <v>3521.0744</v>
       </c>
       <c r="G8" t="n">
-        <v>-3380409.8654</v>
+        <v>-2154496.8806</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -722,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="C9" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="D9" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="E9" t="n">
-        <v>11.78</v>
+        <v>11.6</v>
       </c>
       <c r="F9" t="n">
-        <v>10980.7308</v>
+        <v>168914.2591</v>
       </c>
       <c r="G9" t="n">
-        <v>-3380409.8654</v>
+        <v>-2154496.8806</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -766,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.77</v>
+        <v>11.57</v>
       </c>
       <c r="C10" t="n">
-        <v>11.76</v>
+        <v>11.57</v>
       </c>
       <c r="D10" t="n">
-        <v>11.77</v>
+        <v>11.57</v>
       </c>
       <c r="E10" t="n">
-        <v>11.76</v>
+        <v>11.57</v>
       </c>
       <c r="F10" t="n">
-        <v>133369.0904</v>
+        <v>17131.0805</v>
       </c>
       <c r="G10" t="n">
-        <v>-3513778.955800001</v>
+        <v>-2171627.9611</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -810,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
       <c r="C11" t="n">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
       <c r="D11" t="n">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
       <c r="E11" t="n">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
       <c r="F11" t="n">
-        <v>12364.8482</v>
+        <v>4292.1904</v>
       </c>
       <c r="G11" t="n">
-        <v>-3501414.107600001</v>
+        <v>-2171627.9611</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -834,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -852,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.78</v>
+        <v>11.56</v>
       </c>
       <c r="C12" t="n">
-        <v>11.78</v>
+        <v>11.51</v>
       </c>
       <c r="D12" t="n">
-        <v>11.78</v>
+        <v>11.56</v>
       </c>
       <c r="E12" t="n">
-        <v>11.78</v>
+        <v>11.51</v>
       </c>
       <c r="F12" t="n">
-        <v>10819.2421</v>
+        <v>809323.5916</v>
       </c>
       <c r="G12" t="n">
-        <v>-3501414.107600001</v>
+        <v>-2980951.5527</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -896,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.78</v>
+        <v>11.53</v>
       </c>
       <c r="C13" t="n">
-        <v>11.78</v>
+        <v>11.51</v>
       </c>
       <c r="D13" t="n">
-        <v>11.78</v>
+        <v>11.53</v>
       </c>
       <c r="E13" t="n">
-        <v>11.78</v>
+        <v>11.51</v>
       </c>
       <c r="F13" t="n">
-        <v>16228.8633</v>
+        <v>99861.41620000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-3501414.107600001</v>
+        <v>-2980951.5527</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -920,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -938,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="C14" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="E14" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="F14" t="n">
-        <v>14876.4579</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>-3486537.649700001</v>
+        <v>-2980908.5527</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -982,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.82</v>
+        <v>11.51</v>
       </c>
       <c r="C15" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D15" t="n">
-        <v>11.82</v>
+        <v>11.51</v>
       </c>
       <c r="E15" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F15" t="n">
-        <v>121463.5406</v>
+        <v>103212.4967</v>
       </c>
       <c r="G15" t="n">
-        <v>-3486537.649700001</v>
+        <v>-3084121.0494</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1026,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8</v>
+        <v>11.51</v>
       </c>
       <c r="C16" t="n">
-        <v>11.7</v>
+        <v>11.64</v>
       </c>
       <c r="D16" t="n">
-        <v>11.8</v>
+        <v>11.64</v>
       </c>
       <c r="E16" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="F16" t="n">
-        <v>429244.656</v>
+        <v>5912.5081</v>
       </c>
       <c r="G16" t="n">
-        <v>-3915782.305700001</v>
+        <v>-3078208.5413</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1070,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.71</v>
+        <v>11.51</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="D17" t="n">
-        <v>11.71</v>
+        <v>11.51</v>
       </c>
       <c r="E17" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="F17" t="n">
-        <v>62075.714</v>
+        <v>261305.5279</v>
       </c>
       <c r="G17" t="n">
-        <v>-3915782.305700001</v>
+        <v>-3339514.0692</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1114,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7</v>
+        <v>11.63</v>
       </c>
       <c r="C18" t="n">
-        <v>11.7</v>
+        <v>11.63</v>
       </c>
       <c r="D18" t="n">
-        <v>11.7</v>
+        <v>11.63</v>
       </c>
       <c r="E18" t="n">
-        <v>11.7</v>
+        <v>11.63</v>
       </c>
       <c r="F18" t="n">
-        <v>22457.5645</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>-3915782.305700001</v>
+        <v>-3339471.0692</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1138,16 +1038,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="K18" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.51</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1158,38 +1054,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.66</v>
+        <v>11.63</v>
       </c>
       <c r="C19" t="n">
-        <v>11.92</v>
+        <v>11.63</v>
       </c>
       <c r="D19" t="n">
-        <v>11.92</v>
+        <v>11.63</v>
       </c>
       <c r="E19" t="n">
-        <v>11.65</v>
+        <v>11.63</v>
       </c>
       <c r="F19" t="n">
-        <v>12649.4919</v>
+        <v>46128.0599</v>
       </c>
       <c r="G19" t="n">
-        <v>-3903132.813800001</v>
+        <v>-3339471.0692</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>11.85</v>
+        <v>11.51</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1202,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.74</v>
+        <v>11.55</v>
       </c>
       <c r="C20" t="n">
-        <v>11.74</v>
+        <v>11.62</v>
       </c>
       <c r="D20" t="n">
-        <v>11.74</v>
+        <v>11.62</v>
       </c>
       <c r="E20" t="n">
-        <v>11.74</v>
+        <v>11.55</v>
       </c>
       <c r="F20" t="n">
-        <v>376.9705</v>
+        <v>75357.8459</v>
       </c>
       <c r="G20" t="n">
-        <v>-3903509.784300001</v>
+        <v>-3414828.9151</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1226,14 +1120,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.92</v>
+        <v>11.63</v>
       </c>
       <c r="K20" t="n">
-        <v>11.85</v>
+        <v>11.51</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1246,40 +1140,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.91</v>
+        <v>11.62</v>
       </c>
       <c r="C21" t="n">
-        <v>11.91</v>
+        <v>11.62</v>
       </c>
       <c r="D21" t="n">
-        <v>11.91</v>
+        <v>11.62</v>
       </c>
       <c r="E21" t="n">
-        <v>11.91</v>
+        <v>11.62</v>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>60442.1541</v>
       </c>
       <c r="G21" t="n">
-        <v>-3903467.784300001</v>
+        <v>-3414828.9151</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1290,38 +1176,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.77</v>
+        <v>11.69</v>
       </c>
       <c r="C22" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="D22" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="E22" t="n">
-        <v>11.77</v>
+        <v>11.69</v>
       </c>
       <c r="F22" t="n">
-        <v>1214.4907</v>
+        <v>8180.0434</v>
       </c>
       <c r="G22" t="n">
-        <v>-3904682.275000001</v>
+        <v>-3406648.8717</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.62</v>
+      </c>
       <c r="K22" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.62</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1332,38 +1216,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="C23" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="D23" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="E23" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="F23" t="n">
-        <v>11972.55734919286</v>
+        <v>246828.1012</v>
       </c>
       <c r="G23" t="n">
-        <v>-3904682.275000001</v>
+        <v>-3406648.8717</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>11.77</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>11.85</v>
+        <v>11.62</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1376,38 +1258,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.68</v>
+        <v>11.59</v>
       </c>
       <c r="C24" t="n">
-        <v>11.67</v>
+        <v>11.59</v>
       </c>
       <c r="D24" t="n">
-        <v>11.68</v>
+        <v>11.59</v>
       </c>
       <c r="E24" t="n">
-        <v>11.67</v>
+        <v>11.59</v>
       </c>
       <c r="F24" t="n">
-        <v>41033.6646</v>
+        <v>48784.9425</v>
       </c>
       <c r="G24" t="n">
-        <v>-3945715.939600001</v>
+        <v>-3455433.8142</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>11.77</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>11.85</v>
+        <v>11.62</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1420,40 +1300,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="C25" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="D25" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="E25" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="F25" t="n">
         <v>43</v>
       </c>
       <c r="G25" t="n">
-        <v>-3945672.939600001</v>
+        <v>-3455390.8142</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1464,40 +1336,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.77</v>
+        <v>11.76</v>
       </c>
       <c r="C26" t="n">
-        <v>12.12</v>
+        <v>11.76</v>
       </c>
       <c r="D26" t="n">
-        <v>12.12</v>
+        <v>11.76</v>
       </c>
       <c r="E26" t="n">
-        <v>11.77</v>
+        <v>11.76</v>
       </c>
       <c r="F26" t="n">
-        <v>442485.709463926</v>
+        <v>43</v>
       </c>
       <c r="G26" t="n">
-        <v>-3503187.230136075</v>
+        <v>-3455347.8142</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K26" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1508,40 +1372,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.11</v>
+        <v>11.62</v>
       </c>
       <c r="C27" t="n">
-        <v>12.15</v>
+        <v>11.61</v>
       </c>
       <c r="D27" t="n">
-        <v>12.15</v>
+        <v>11.62</v>
       </c>
       <c r="E27" t="n">
-        <v>12.11</v>
+        <v>11.61</v>
       </c>
       <c r="F27" t="n">
-        <v>254620.912</v>
+        <v>34444.702</v>
       </c>
       <c r="G27" t="n">
-        <v>-3248566.318136075</v>
+        <v>-3489792.5162</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1552,40 +1408,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.13</v>
+        <v>11.6</v>
       </c>
       <c r="C28" t="n">
-        <v>12.19</v>
+        <v>11.6</v>
       </c>
       <c r="D28" t="n">
-        <v>12.22</v>
+        <v>11.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.03</v>
+        <v>11.6</v>
       </c>
       <c r="F28" t="n">
-        <v>402571.4204</v>
+        <v>81619.66280000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-2845994.897736074</v>
+        <v>-3571412.179</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,40 +1444,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.03</v>
+        <v>11.76</v>
       </c>
       <c r="C29" t="n">
-        <v>12.22</v>
+        <v>11.76</v>
       </c>
       <c r="D29" t="n">
-        <v>12.23</v>
+        <v>11.76</v>
       </c>
       <c r="E29" t="n">
-        <v>12.03</v>
+        <v>11.76</v>
       </c>
       <c r="F29" t="n">
-        <v>178273.6406868812</v>
+        <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>-2667721.257049193</v>
+        <v>-3571369.179</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1640,22 +1480,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.22</v>
+        <v>11.63</v>
       </c>
       <c r="C30" t="n">
-        <v>12.27</v>
+        <v>11.63</v>
       </c>
       <c r="D30" t="n">
-        <v>12.27</v>
+        <v>11.63</v>
       </c>
       <c r="E30" t="n">
-        <v>12.22</v>
+        <v>11.63</v>
       </c>
       <c r="F30" t="n">
-        <v>124887.8887</v>
+        <v>81</v>
       </c>
       <c r="G30" t="n">
-        <v>-2542833.368349193</v>
+        <v>-3571450.179</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1664,16 +1504,12 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.22</v>
+        <v>11.76</v>
       </c>
       <c r="K30" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.76</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1684,36 +1520,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.22</v>
+        <v>11.74</v>
       </c>
       <c r="C31" t="n">
-        <v>12.5</v>
+        <v>11.74</v>
       </c>
       <c r="D31" t="n">
-        <v>12.5</v>
+        <v>11.74</v>
       </c>
       <c r="E31" t="n">
-        <v>12.22</v>
+        <v>11.74</v>
       </c>
       <c r="F31" t="n">
-        <v>952645.5450131188</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>-1590187.823336074</v>
+        <v>-3571407.179</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>11.63</v>
+      </c>
       <c r="K31" t="n">
-        <v>11.85</v>
+        <v>11.76</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1726,36 +1564,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.52</v>
+        <v>11.74</v>
       </c>
       <c r="C32" t="n">
-        <v>12.76</v>
+        <v>11.74</v>
       </c>
       <c r="D32" t="n">
-        <v>12.76</v>
+        <v>11.74</v>
       </c>
       <c r="E32" t="n">
-        <v>12.51</v>
+        <v>11.74</v>
       </c>
       <c r="F32" t="n">
-        <v>305872.5509</v>
+        <v>10736.1069</v>
       </c>
       <c r="G32" t="n">
-        <v>-1284315.272436074</v>
+        <v>-3571407.179</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.74</v>
+      </c>
       <c r="K32" t="n">
-        <v>11.85</v>
+        <v>11.76</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1768,38 +1608,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.76</v>
+        <v>11.69</v>
       </c>
       <c r="C33" t="n">
-        <v>12.79</v>
+        <v>11.69</v>
       </c>
       <c r="D33" t="n">
-        <v>13.14</v>
+        <v>11.69</v>
       </c>
       <c r="E33" t="n">
-        <v>12.76</v>
+        <v>11.69</v>
       </c>
       <c r="F33" t="n">
-        <v>982794.9059840125</v>
+        <v>172523.3424</v>
       </c>
       <c r="G33" t="n">
-        <v>-301520.3664520619</v>
+        <v>-3743930.5214</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.74</v>
+      </c>
       <c r="K33" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.74</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1810,36 +1648,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.78</v>
+        <v>11.69</v>
       </c>
       <c r="C34" t="n">
-        <v>12.75</v>
+        <v>11.69</v>
       </c>
       <c r="D34" t="n">
-        <v>12.78</v>
+        <v>11.69</v>
       </c>
       <c r="E34" t="n">
-        <v>12.75</v>
+        <v>11.69</v>
       </c>
       <c r="F34" t="n">
-        <v>62656.88280070422</v>
+        <v>9159.166800000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-364177.2492527661</v>
+        <v>-3743930.5214</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K34" t="n">
-        <v>11.85</v>
+        <v>11.74</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1852,36 +1692,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.74</v>
+        <v>11.69</v>
       </c>
       <c r="C35" t="n">
-        <v>12.6</v>
+        <v>11.69</v>
       </c>
       <c r="D35" t="n">
-        <v>12.74</v>
+        <v>11.69</v>
       </c>
       <c r="E35" t="n">
-        <v>12.6</v>
+        <v>11.69</v>
       </c>
       <c r="F35" t="n">
-        <v>18879.5169</v>
+        <v>6806.4921</v>
       </c>
       <c r="G35" t="n">
-        <v>-383056.7661527661</v>
+        <v>-3743930.5214</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K35" t="n">
-        <v>11.85</v>
+        <v>11.74</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1894,38 +1736,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.69</v>
+        <v>11.69</v>
       </c>
       <c r="C36" t="n">
-        <v>12.67</v>
+        <v>11.69</v>
       </c>
       <c r="D36" t="n">
-        <v>12.69</v>
+        <v>11.69</v>
       </c>
       <c r="E36" t="n">
-        <v>12.41</v>
+        <v>11.69</v>
       </c>
       <c r="F36" t="n">
-        <v>64885.6952</v>
+        <v>41596.504</v>
       </c>
       <c r="G36" t="n">
-        <v>-318171.0709527661</v>
+        <v>-3743930.5214</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K36" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.69</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1936,36 +1776,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.66</v>
+        <v>11.69</v>
       </c>
       <c r="C37" t="n">
-        <v>12.37</v>
+        <v>11.69</v>
       </c>
       <c r="D37" t="n">
-        <v>12.66</v>
+        <v>11.69</v>
       </c>
       <c r="E37" t="n">
-        <v>12.09</v>
+        <v>11.69</v>
       </c>
       <c r="F37" t="n">
-        <v>157329.2626</v>
+        <v>15671.2461</v>
       </c>
       <c r="G37" t="n">
-        <v>-475500.3335527661</v>
+        <v>-3743930.5214</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K37" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1978,36 +1820,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.4</v>
+        <v>11.64</v>
       </c>
       <c r="C38" t="n">
-        <v>12.59</v>
+        <v>11.63</v>
       </c>
       <c r="D38" t="n">
-        <v>12.67</v>
+        <v>11.64</v>
       </c>
       <c r="E38" t="n">
-        <v>12.4</v>
+        <v>11.63</v>
       </c>
       <c r="F38" t="n">
-        <v>322505.9553</v>
+        <v>41596.504</v>
       </c>
       <c r="G38" t="n">
-        <v>-152994.3782527662</v>
+        <v>-3785527.025400001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K38" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -2020,32 +1864,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.66</v>
+        <v>11.7</v>
       </c>
       <c r="C39" t="n">
-        <v>12.42</v>
+        <v>11.77</v>
       </c>
       <c r="D39" t="n">
-        <v>12.67</v>
+        <v>11.77</v>
       </c>
       <c r="E39" t="n">
-        <v>12.42</v>
+        <v>11.7</v>
       </c>
       <c r="F39" t="n">
-        <v>324610.4448</v>
+        <v>202693.2351</v>
       </c>
       <c r="G39" t="n">
-        <v>-477604.8230527662</v>
+        <v>-3582833.7903</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>11.63</v>
+      </c>
       <c r="K39" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2062,32 +1908,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.6</v>
+        <v>11.76</v>
       </c>
       <c r="C40" t="n">
-        <v>12.62</v>
+        <v>11.76</v>
       </c>
       <c r="D40" t="n">
-        <v>12.66</v>
+        <v>11.76</v>
       </c>
       <c r="E40" t="n">
-        <v>12.6</v>
+        <v>11.76</v>
       </c>
       <c r="F40" t="n">
-        <v>4400</v>
+        <v>5260</v>
       </c>
       <c r="G40" t="n">
-        <v>-473204.8230527662</v>
+        <v>-3588093.7903</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11.77</v>
+      </c>
       <c r="K40" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2104,32 +1952,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.61</v>
+        <v>11.77</v>
       </c>
       <c r="C41" t="n">
-        <v>12.41</v>
+        <v>11.77</v>
       </c>
       <c r="D41" t="n">
-        <v>12.61</v>
+        <v>11.77</v>
       </c>
       <c r="E41" t="n">
-        <v>12.14</v>
+        <v>11.77</v>
       </c>
       <c r="F41" t="n">
-        <v>395361.9014</v>
+        <v>13683.8967</v>
       </c>
       <c r="G41" t="n">
-        <v>-868566.7244527661</v>
+        <v>-3574409.893600001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.76</v>
+      </c>
       <c r="K41" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2146,32 +1996,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.49</v>
+        <v>11.79</v>
       </c>
       <c r="C42" t="n">
-        <v>12.49</v>
+        <v>12.15</v>
       </c>
       <c r="D42" t="n">
-        <v>12.49</v>
+        <v>12.15</v>
       </c>
       <c r="E42" t="n">
-        <v>12.2</v>
+        <v>11.79</v>
       </c>
       <c r="F42" t="n">
-        <v>73925.894</v>
+        <v>22306.4183</v>
       </c>
       <c r="G42" t="n">
-        <v>-794640.8304527662</v>
+        <v>-3552103.475300001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.77</v>
+      </c>
       <c r="K42" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2188,22 +2040,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="C43" t="n">
-        <v>12.5</v>
+        <v>12.22</v>
       </c>
       <c r="D43" t="n">
-        <v>12.5</v>
+        <v>12.22</v>
       </c>
       <c r="E43" t="n">
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="F43" t="n">
-        <v>40</v>
+        <v>21136.553</v>
       </c>
       <c r="G43" t="n">
-        <v>-794600.8304527662</v>
+        <v>-3530966.922300001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2213,7 +2065,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2230,22 +2082,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.5</v>
+        <v>12.21</v>
       </c>
       <c r="C44" t="n">
-        <v>12.7</v>
+        <v>12.21</v>
       </c>
       <c r="D44" t="n">
-        <v>12.92</v>
+        <v>12.21</v>
       </c>
       <c r="E44" t="n">
-        <v>12.5</v>
+        <v>12.21</v>
       </c>
       <c r="F44" t="n">
-        <v>239136.0099</v>
+        <v>4878.8356</v>
       </c>
       <c r="G44" t="n">
-        <v>-555464.8205527661</v>
+        <v>-3535845.757900001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2255,7 +2107,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2272,22 +2124,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.7</v>
+        <v>12.21</v>
       </c>
       <c r="C45" t="n">
-        <v>12.98</v>
+        <v>11.76</v>
       </c>
       <c r="D45" t="n">
-        <v>12.98</v>
+        <v>12.21</v>
       </c>
       <c r="E45" t="n">
-        <v>12.7</v>
+        <v>11.76</v>
       </c>
       <c r="F45" t="n">
-        <v>247917.5562</v>
+        <v>13280.8748</v>
       </c>
       <c r="G45" t="n">
-        <v>-307547.2643527661</v>
+        <v>-3549126.6327</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2297,7 +2149,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2314,22 +2166,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.04</v>
+        <v>12.21</v>
       </c>
       <c r="C46" t="n">
-        <v>13.15</v>
+        <v>12.21</v>
       </c>
       <c r="D46" t="n">
-        <v>13.16</v>
+        <v>12.21</v>
       </c>
       <c r="E46" t="n">
-        <v>13.04</v>
+        <v>12.21</v>
       </c>
       <c r="F46" t="n">
-        <v>228116.3585</v>
+        <v>486.5893</v>
       </c>
       <c r="G46" t="n">
-        <v>-79430.9058527661</v>
+        <v>-3548640.0434</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2339,7 +2191,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2356,22 +2208,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.17</v>
+        <v>12.05</v>
       </c>
       <c r="C47" t="n">
-        <v>13.22</v>
+        <v>12.06</v>
       </c>
       <c r="D47" t="n">
-        <v>13.31</v>
+        <v>12.06</v>
       </c>
       <c r="E47" t="n">
-        <v>13.15</v>
+        <v>12.05</v>
       </c>
       <c r="F47" t="n">
-        <v>1394857.2097</v>
+        <v>132102.2312</v>
       </c>
       <c r="G47" t="n">
-        <v>1315426.303847234</v>
+        <v>-3680742.2746</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2381,7 +2233,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2398,22 +2250,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.21</v>
+        <v>12.08</v>
       </c>
       <c r="C48" t="n">
-        <v>13.08</v>
+        <v>12.06</v>
       </c>
       <c r="D48" t="n">
-        <v>13.22</v>
+        <v>12.08</v>
       </c>
       <c r="E48" t="n">
-        <v>13.08</v>
+        <v>12.06</v>
       </c>
       <c r="F48" t="n">
-        <v>227021.8965</v>
+        <v>294325.8936</v>
       </c>
       <c r="G48" t="n">
-        <v>1088404.407347234</v>
+        <v>-3680742.2746</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2423,7 +2275,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2440,66 +2292,64 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.2</v>
+        <v>12.06</v>
       </c>
       <c r="C49" t="n">
-        <v>12.7</v>
+        <v>12.06</v>
       </c>
       <c r="D49" t="n">
-        <v>13.2</v>
+        <v>12.06</v>
       </c>
       <c r="E49" t="n">
-        <v>12.7</v>
+        <v>12.06</v>
       </c>
       <c r="F49" t="n">
-        <v>181034.0182</v>
+        <v>4135.5721</v>
       </c>
       <c r="G49" t="n">
-        <v>907370.3891472339</v>
+        <v>-3680742.2746</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1.066729957805907</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.033106960950764</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.09</v>
+        <v>12.06</v>
       </c>
       <c r="C50" t="n">
-        <v>12.85</v>
+        <v>12.06</v>
       </c>
       <c r="D50" t="n">
-        <v>13.09</v>
+        <v>12.06</v>
       </c>
       <c r="E50" t="n">
-        <v>12.57</v>
+        <v>12.06</v>
       </c>
       <c r="F50" t="n">
-        <v>105864.0392</v>
+        <v>93652.0448</v>
       </c>
       <c r="G50" t="n">
-        <v>1013234.428347234</v>
+        <v>-3680742.2746</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2508,8 +2358,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2520,22 +2376,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.69</v>
+        <v>12.06</v>
       </c>
       <c r="C51" t="n">
-        <v>12.8</v>
+        <v>12.06</v>
       </c>
       <c r="D51" t="n">
-        <v>13.18</v>
+        <v>12.06</v>
       </c>
       <c r="E51" t="n">
-        <v>12.69</v>
+        <v>12.06</v>
       </c>
       <c r="F51" t="n">
-        <v>209997.3861</v>
+        <v>5687.0171</v>
       </c>
       <c r="G51" t="n">
-        <v>803237.0422472339</v>
+        <v>-3680742.2746</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2544,8 +2400,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2556,22 +2418,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.8</v>
+        <v>12.02</v>
       </c>
       <c r="C52" t="n">
-        <v>12.56</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>12.8</v>
+        <v>12.02</v>
       </c>
       <c r="E52" t="n">
-        <v>12.56</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>115712.7233</v>
+        <v>12161.9573</v>
       </c>
       <c r="G52" t="n">
-        <v>687524.318947234</v>
+        <v>-3692904.2319</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2580,8 +2442,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2460,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.56</v>
+        <v>11.92</v>
       </c>
       <c r="C53" t="n">
-        <v>13.05</v>
+        <v>11.81</v>
       </c>
       <c r="D53" t="n">
-        <v>13.08</v>
+        <v>11.92</v>
       </c>
       <c r="E53" t="n">
-        <v>12.56</v>
+        <v>11.81</v>
       </c>
       <c r="F53" t="n">
-        <v>142608.2106</v>
+        <v>180729.524</v>
       </c>
       <c r="G53" t="n">
-        <v>830132.5295472339</v>
+        <v>-3873633.7559</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2616,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2628,22 +2502,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.72</v>
+        <v>11.81</v>
       </c>
       <c r="C54" t="n">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="D54" t="n">
-        <v>12.72</v>
+        <v>11.81</v>
       </c>
       <c r="E54" t="n">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="F54" t="n">
-        <v>218119.6066</v>
+        <v>26117.9441</v>
       </c>
       <c r="G54" t="n">
-        <v>612012.922947234</v>
+        <v>-3899751.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2652,8 +2526,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2664,22 +2544,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.7</v>
+        <v>11.71</v>
       </c>
       <c r="C55" t="n">
-        <v>12.7</v>
+        <v>11.71</v>
       </c>
       <c r="D55" t="n">
-        <v>12.7</v>
+        <v>11.71</v>
       </c>
       <c r="E55" t="n">
-        <v>12.7</v>
+        <v>11.71</v>
       </c>
       <c r="F55" t="n">
-        <v>18018.3603</v>
+        <v>5687.0171</v>
       </c>
       <c r="G55" t="n">
-        <v>612012.922947234</v>
+        <v>-3905438.7171</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2688,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2586,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="D56" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="E56" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="F56" t="n">
-        <v>47060.9444</v>
+        <v>130.0781</v>
       </c>
       <c r="G56" t="n">
-        <v>612012.922947234</v>
+        <v>-3905308.639</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2724,8 +2610,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2736,22 +2628,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="C57" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="D57" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="E57" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="F57" t="n">
-        <v>150744.8104</v>
+        <v>313.5581</v>
       </c>
       <c r="G57" t="n">
-        <v>612012.922947234</v>
+        <v>-3905308.639</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2760,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2772,22 +2670,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.7</v>
+        <v>11.89</v>
       </c>
       <c r="C58" t="n">
-        <v>12.7</v>
+        <v>11.89</v>
       </c>
       <c r="D58" t="n">
-        <v>12.7</v>
+        <v>11.89</v>
       </c>
       <c r="E58" t="n">
-        <v>12.7</v>
+        <v>11.89</v>
       </c>
       <c r="F58" t="n">
-        <v>196324.5417</v>
+        <v>183343.2667</v>
       </c>
       <c r="G58" t="n">
-        <v>612012.922947234</v>
+        <v>-4088651.9057</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2796,8 +2694,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2808,22 +2712,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="C59" t="n">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="D59" t="n">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="E59" t="n">
-        <v>12.58</v>
+        <v>11.8</v>
       </c>
       <c r="F59" t="n">
-        <v>74569.47259999999</v>
+        <v>6627.253</v>
       </c>
       <c r="G59" t="n">
-        <v>612012.922947234</v>
+        <v>-4095279.1587</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2832,8 +2736,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2844,22 +2754,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.87</v>
+        <v>11.8</v>
       </c>
       <c r="C60" t="n">
-        <v>12.88</v>
+        <v>11.8</v>
       </c>
       <c r="D60" t="n">
-        <v>12.93</v>
+        <v>11.8</v>
       </c>
       <c r="E60" t="n">
-        <v>12.58</v>
+        <v>11.8</v>
       </c>
       <c r="F60" t="n">
-        <v>70144.22659999999</v>
+        <v>1662.6645</v>
       </c>
       <c r="G60" t="n">
-        <v>682157.1495472339</v>
+        <v>-4095279.1587</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2868,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2880,32 +2796,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.87</v>
+        <v>11.77</v>
       </c>
       <c r="C61" t="n">
-        <v>12.8</v>
+        <v>11.73</v>
       </c>
       <c r="D61" t="n">
-        <v>12.87</v>
+        <v>11.77</v>
       </c>
       <c r="E61" t="n">
-        <v>12.71</v>
+        <v>11.73</v>
       </c>
       <c r="F61" t="n">
-        <v>69785.0003</v>
+        <v>44997.1376</v>
       </c>
       <c r="G61" t="n">
-        <v>612372.149247234</v>
+        <v>-4140276.2963</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2916,32 +2838,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.79</v>
+        <v>11.73</v>
       </c>
       <c r="C62" t="n">
-        <v>12.8</v>
+        <v>11.73</v>
       </c>
       <c r="D62" t="n">
-        <v>12.8</v>
+        <v>11.73</v>
       </c>
       <c r="E62" t="n">
-        <v>12.79</v>
+        <v>11.73</v>
       </c>
       <c r="F62" t="n">
-        <v>3125.1875</v>
+        <v>60701.455</v>
       </c>
       <c r="G62" t="n">
-        <v>612372.149247234</v>
+        <v>-4140276.2963</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2952,32 +2880,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.8</v>
+        <v>11.74</v>
       </c>
       <c r="C63" t="n">
-        <v>12.8</v>
+        <v>11.73</v>
       </c>
       <c r="D63" t="n">
-        <v>12.8</v>
+        <v>11.74</v>
       </c>
       <c r="E63" t="n">
-        <v>12.8</v>
+        <v>11.73</v>
       </c>
       <c r="F63" t="n">
-        <v>60202.0425</v>
+        <v>64661.157</v>
       </c>
       <c r="G63" t="n">
-        <v>612372.149247234</v>
+        <v>-4140276.2963</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2988,32 +2922,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.7</v>
+        <v>11.77</v>
       </c>
       <c r="C64" t="n">
-        <v>12.7</v>
+        <v>12.06</v>
       </c>
       <c r="D64" t="n">
-        <v>12.7</v>
+        <v>12.06</v>
       </c>
       <c r="E64" t="n">
-        <v>12.7</v>
+        <v>11.77</v>
       </c>
       <c r="F64" t="n">
-        <v>20240.8611</v>
+        <v>477516.1594</v>
       </c>
       <c r="G64" t="n">
-        <v>592131.288147234</v>
+        <v>-3662760.1369</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K64" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3024,32 +2966,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.65</v>
+        <v>12.06</v>
       </c>
       <c r="C65" t="n">
-        <v>12.51</v>
+        <v>12.06</v>
       </c>
       <c r="D65" t="n">
-        <v>12.65</v>
+        <v>12.06</v>
       </c>
       <c r="E65" t="n">
-        <v>12.51</v>
+        <v>12.06</v>
       </c>
       <c r="F65" t="n">
-        <v>426011.1715</v>
+        <v>81619.66280000001</v>
       </c>
       <c r="G65" t="n">
-        <v>166120.116647234</v>
+        <v>-3662760.1369</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3060,32 +3008,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.5</v>
+        <v>12.12</v>
       </c>
       <c r="C66" t="n">
-        <v>12.49</v>
+        <v>12.12</v>
       </c>
       <c r="D66" t="n">
-        <v>12.5</v>
+        <v>12.12</v>
       </c>
       <c r="E66" t="n">
-        <v>12.49</v>
+        <v>12.12</v>
       </c>
       <c r="F66" t="n">
-        <v>358040.7656</v>
+        <v>25261.3891</v>
       </c>
       <c r="G66" t="n">
-        <v>-191920.648952766</v>
+        <v>-3637498.7478</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3096,22 +3050,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.49</v>
+        <v>12.07</v>
       </c>
       <c r="C67" t="n">
-        <v>12.49</v>
+        <v>12.07</v>
       </c>
       <c r="D67" t="n">
-        <v>12.49</v>
+        <v>12.07</v>
       </c>
       <c r="E67" t="n">
-        <v>12.49</v>
+        <v>12.07</v>
       </c>
       <c r="F67" t="n">
-        <v>25166.929</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>-191920.648952766</v>
+        <v>-3647498.7478</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3120,8 +3074,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3132,22 +3092,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.49</v>
+        <v>12.07</v>
       </c>
       <c r="C68" t="n">
-        <v>12.49</v>
+        <v>12.06</v>
       </c>
       <c r="D68" t="n">
-        <v>12.49</v>
+        <v>12.07</v>
       </c>
       <c r="E68" t="n">
-        <v>12.49</v>
+        <v>12.06</v>
       </c>
       <c r="F68" t="n">
-        <v>7300</v>
+        <v>76654.6771</v>
       </c>
       <c r="G68" t="n">
-        <v>-191920.648952766</v>
+        <v>-3724153.4249</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3156,8 +3116,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3168,32 +3134,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.31</v>
+        <v>12.11</v>
       </c>
       <c r="C69" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="D69" t="n">
-        <v>12.31</v>
+        <v>12.11</v>
       </c>
       <c r="E69" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="F69" t="n">
-        <v>8110.8774</v>
+        <v>42</v>
       </c>
       <c r="G69" t="n">
-        <v>-200031.526352766</v>
+        <v>-3724111.4249</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3204,22 +3176,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.34</v>
+        <v>12.1</v>
       </c>
       <c r="C70" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="D70" t="n">
-        <v>12.35</v>
+        <v>12.14</v>
       </c>
       <c r="E70" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="F70" t="n">
-        <v>72424.0866</v>
+        <v>188843.0313</v>
       </c>
       <c r="G70" t="n">
-        <v>-127607.439752766</v>
+        <v>-3535268.393600001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3228,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3240,22 +3218,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.18</v>
+        <v>12.14</v>
       </c>
       <c r="C71" t="n">
         <v>12.15</v>
       </c>
       <c r="D71" t="n">
-        <v>12.18</v>
+        <v>12.15</v>
       </c>
       <c r="E71" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="F71" t="n">
-        <v>80207.376</v>
+        <v>243804.5656</v>
       </c>
       <c r="G71" t="n">
-        <v>-207814.815752766</v>
+        <v>-3291463.828000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3264,8 +3242,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3276,22 +3260,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.14</v>
+        <v>12.17</v>
       </c>
       <c r="C72" t="n">
-        <v>12.14</v>
+        <v>12.17</v>
       </c>
       <c r="D72" t="n">
-        <v>12.14</v>
+        <v>12.17</v>
       </c>
       <c r="E72" t="n">
-        <v>12.14</v>
+        <v>12.17</v>
       </c>
       <c r="F72" t="n">
-        <v>51199.7726</v>
+        <v>47.4081</v>
       </c>
       <c r="G72" t="n">
-        <v>-259014.588352766</v>
+        <v>-3291416.419900001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3300,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3312,32 +3302,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.22</v>
+        <v>12.17</v>
       </c>
       <c r="C73" t="n">
-        <v>12.13</v>
+        <v>12.17</v>
       </c>
       <c r="D73" t="n">
-        <v>12.22</v>
+        <v>12.17</v>
       </c>
       <c r="E73" t="n">
-        <v>12.13</v>
+        <v>12.17</v>
       </c>
       <c r="F73" t="n">
-        <v>92672.6243</v>
+        <v>36201.9314</v>
       </c>
       <c r="G73" t="n">
-        <v>-351687.212652766</v>
+        <v>-3291416.419900001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3348,22 +3344,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.12</v>
+        <v>12.03</v>
       </c>
       <c r="C74" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="D74" t="n">
-        <v>12.12</v>
+        <v>12.03</v>
       </c>
       <c r="E74" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="F74" t="n">
-        <v>7807.6335</v>
+        <v>50000</v>
       </c>
       <c r="G74" t="n">
-        <v>-359494.846152766</v>
+        <v>-3341416.419900001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3372,8 +3368,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3384,22 +3386,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="C75" t="n">
         <v>12.03</v>
       </c>
       <c r="D75" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="E75" t="n">
         <v>12.03</v>
       </c>
       <c r="F75" t="n">
-        <v>301554.1764</v>
+        <v>3077.206</v>
       </c>
       <c r="G75" t="n">
-        <v>-661049.0225527659</v>
+        <v>-3341416.419900001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3408,8 +3410,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3432,10 +3440,10 @@
         <v>12.03</v>
       </c>
       <c r="F76" t="n">
-        <v>26102.652</v>
+        <v>4145.8852</v>
       </c>
       <c r="G76" t="n">
-        <v>-661049.0225527659</v>
+        <v>-3341416.419900001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3444,8 +3452,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3456,22 +3470,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.11</v>
+        <v>11.85</v>
       </c>
       <c r="C77" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="D77" t="n">
-        <v>12.11</v>
+        <v>11.85</v>
       </c>
       <c r="E77" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="F77" t="n">
-        <v>4993.3884</v>
+        <v>1590.2043</v>
       </c>
       <c r="G77" t="n">
-        <v>-656055.6341527659</v>
+        <v>-3343006.6242</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3480,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3492,22 +3512,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.03</v>
+        <v>11.82</v>
       </c>
       <c r="C78" t="n">
-        <v>12.02</v>
+        <v>11.82</v>
       </c>
       <c r="D78" t="n">
-        <v>12.03</v>
+        <v>11.82</v>
       </c>
       <c r="E78" t="n">
-        <v>12.02</v>
+        <v>11.82</v>
       </c>
       <c r="F78" t="n">
-        <v>2379.5362</v>
+        <v>10000</v>
       </c>
       <c r="G78" t="n">
-        <v>-658435.1703527658</v>
+        <v>-3353006.6242</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3516,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3528,22 +3554,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.02</v>
+        <v>11.78</v>
       </c>
       <c r="C79" t="n">
-        <v>11.88</v>
+        <v>11.78</v>
       </c>
       <c r="D79" t="n">
-        <v>12.02</v>
+        <v>11.78</v>
       </c>
       <c r="E79" t="n">
-        <v>11.88</v>
+        <v>11.78</v>
       </c>
       <c r="F79" t="n">
-        <v>68522.1663</v>
+        <v>27403.2412</v>
       </c>
       <c r="G79" t="n">
-        <v>-726957.3366527659</v>
+        <v>-3380409.8654</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3552,8 +3578,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3564,32 +3596,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.9</v>
+        <v>11.78</v>
       </c>
       <c r="C80" t="n">
-        <v>11.91</v>
+        <v>11.78</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>11.78</v>
       </c>
       <c r="E80" t="n">
-        <v>11.88</v>
+        <v>11.78</v>
       </c>
       <c r="F80" t="n">
-        <v>53622.7926</v>
+        <v>10980.7308</v>
       </c>
       <c r="G80" t="n">
-        <v>-673334.5440527658</v>
+        <v>-3380409.8654</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3600,32 +3640,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="C81" t="n">
-        <v>12.1</v>
+        <v>11.76</v>
       </c>
       <c r="D81" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="E81" t="n">
-        <v>12.1</v>
+        <v>11.76</v>
       </c>
       <c r="F81" t="n">
-        <v>173156.3043</v>
+        <v>133369.0904</v>
       </c>
       <c r="G81" t="n">
-        <v>-500178.2397527659</v>
+        <v>-3513778.955800001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3636,32 +3684,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
       <c r="C82" t="n">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
       <c r="D82" t="n">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
       <c r="E82" t="n">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
       <c r="F82" t="n">
-        <v>1506.0027</v>
+        <v>12364.8482</v>
       </c>
       <c r="G82" t="n">
-        <v>-500178.2397527659</v>
+        <v>-3501414.107600001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3672,32 +3728,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="C83" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="D83" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="E83" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="F83" t="n">
-        <v>3614.4878</v>
+        <v>10819.2421</v>
       </c>
       <c r="G83" t="n">
-        <v>-496563.7519527659</v>
+        <v>-3501414.107600001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3708,32 +3772,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="C84" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="D84" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="E84" t="n">
-        <v>12.22</v>
+        <v>11.78</v>
       </c>
       <c r="F84" t="n">
-        <v>1111</v>
+        <v>16228.8633</v>
       </c>
       <c r="G84" t="n">
-        <v>-496563.7519527659</v>
+        <v>-3501414.107600001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K84" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3744,32 +3816,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="C85" t="n">
-        <v>12.26</v>
+        <v>11.8</v>
       </c>
       <c r="D85" t="n">
-        <v>12.26</v>
+        <v>11.8</v>
       </c>
       <c r="E85" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="F85" t="n">
-        <v>16888.2181</v>
+        <v>14876.4579</v>
       </c>
       <c r="G85" t="n">
-        <v>-479675.5338527659</v>
+        <v>-3486537.649700001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3780,32 +3860,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.22</v>
+        <v>11.82</v>
       </c>
       <c r="C86" t="n">
-        <v>12.24</v>
+        <v>11.8</v>
       </c>
       <c r="D86" t="n">
-        <v>12.24</v>
+        <v>11.82</v>
       </c>
       <c r="E86" t="n">
-        <v>12.21</v>
+        <v>11.8</v>
       </c>
       <c r="F86" t="n">
-        <v>100033.5613</v>
+        <v>121463.5406</v>
       </c>
       <c r="G86" t="n">
-        <v>-579709.0951527659</v>
+        <v>-3486537.649700001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K86" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3816,22 +3904,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.24</v>
+        <v>11.8</v>
       </c>
       <c r="C87" t="n">
-        <v>12.24</v>
+        <v>11.7</v>
       </c>
       <c r="D87" t="n">
-        <v>12.24</v>
+        <v>11.8</v>
       </c>
       <c r="E87" t="n">
-        <v>12.24</v>
+        <v>11.7</v>
       </c>
       <c r="F87" t="n">
-        <v>70783.98299999999</v>
+        <v>429244.656</v>
       </c>
       <c r="G87" t="n">
-        <v>-579709.0951527659</v>
+        <v>-3915782.305700001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3840,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3852,22 +3946,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.26</v>
+        <v>11.71</v>
       </c>
       <c r="C88" t="n">
-        <v>12.28</v>
+        <v>11.7</v>
       </c>
       <c r="D88" t="n">
-        <v>12.28</v>
+        <v>11.71</v>
       </c>
       <c r="E88" t="n">
-        <v>12.26</v>
+        <v>11.7</v>
       </c>
       <c r="F88" t="n">
-        <v>7695.7111</v>
+        <v>62075.714</v>
       </c>
       <c r="G88" t="n">
-        <v>-572013.3840527659</v>
+        <v>-3915782.305700001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3876,8 +3970,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3888,22 +3988,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.28</v>
+        <v>11.7</v>
       </c>
       <c r="C89" t="n">
-        <v>12.65</v>
+        <v>11.7</v>
       </c>
       <c r="D89" t="n">
-        <v>12.65</v>
+        <v>11.7</v>
       </c>
       <c r="E89" t="n">
-        <v>12.28</v>
+        <v>11.7</v>
       </c>
       <c r="F89" t="n">
-        <v>18969.1455</v>
+        <v>22457.5645</v>
       </c>
       <c r="G89" t="n">
-        <v>-553044.2385527659</v>
+        <v>-3915782.305700001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3912,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +4030,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.65</v>
+        <v>11.66</v>
       </c>
       <c r="C90" t="n">
-        <v>12.65</v>
+        <v>11.92</v>
       </c>
       <c r="D90" t="n">
-        <v>12.65</v>
+        <v>11.92</v>
       </c>
       <c r="E90" t="n">
-        <v>12.65</v>
+        <v>11.65</v>
       </c>
       <c r="F90" t="n">
-        <v>28755.7259</v>
+        <v>12649.4919</v>
       </c>
       <c r="G90" t="n">
-        <v>-553044.2385527659</v>
+        <v>-3903132.813800001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3948,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3960,32 +4072,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.36</v>
+        <v>11.74</v>
       </c>
       <c r="C91" t="n">
-        <v>12.36</v>
+        <v>11.74</v>
       </c>
       <c r="D91" t="n">
-        <v>12.36</v>
+        <v>11.74</v>
       </c>
       <c r="E91" t="n">
-        <v>12.36</v>
+        <v>11.74</v>
       </c>
       <c r="F91" t="n">
-        <v>1828.6161</v>
+        <v>376.9705</v>
       </c>
       <c r="G91" t="n">
-        <v>-554872.8546527659</v>
+        <v>-3903509.784300001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3996,32 +4114,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.36</v>
+        <v>11.91</v>
       </c>
       <c r="C92" t="n">
-        <v>12.61</v>
+        <v>11.91</v>
       </c>
       <c r="D92" t="n">
-        <v>12.61</v>
+        <v>11.91</v>
       </c>
       <c r="E92" t="n">
-        <v>12.36</v>
+        <v>11.91</v>
       </c>
       <c r="F92" t="n">
-        <v>10209.5285</v>
+        <v>42</v>
       </c>
       <c r="G92" t="n">
-        <v>-544663.3261527659</v>
+        <v>-3903467.784300001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4032,32 +4156,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.59</v>
+        <v>11.77</v>
       </c>
       <c r="C93" t="n">
-        <v>12.37</v>
+        <v>11.77</v>
       </c>
       <c r="D93" t="n">
-        <v>12.59</v>
+        <v>11.77</v>
       </c>
       <c r="E93" t="n">
-        <v>12.37</v>
+        <v>11.77</v>
       </c>
       <c r="F93" t="n">
-        <v>81</v>
+        <v>1214.4907</v>
       </c>
       <c r="G93" t="n">
-        <v>-544744.3261527659</v>
+        <v>-3904682.275000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4068,32 +4198,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.37</v>
+        <v>11.77</v>
       </c>
       <c r="C94" t="n">
-        <v>12.59</v>
+        <v>11.77</v>
       </c>
       <c r="D94" t="n">
-        <v>12.59</v>
+        <v>11.77</v>
       </c>
       <c r="E94" t="n">
-        <v>12.37</v>
+        <v>11.77</v>
       </c>
       <c r="F94" t="n">
-        <v>43</v>
+        <v>11972.55734919286</v>
       </c>
       <c r="G94" t="n">
-        <v>-544701.3261527659</v>
+        <v>-3904682.275000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4104,32 +4240,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.57</v>
+        <v>11.68</v>
       </c>
       <c r="C95" t="n">
-        <v>12.59</v>
+        <v>11.67</v>
       </c>
       <c r="D95" t="n">
-        <v>12.59</v>
+        <v>11.68</v>
       </c>
       <c r="E95" t="n">
-        <v>12.57</v>
+        <v>11.67</v>
       </c>
       <c r="F95" t="n">
-        <v>24058.3259</v>
+        <v>41033.6646</v>
       </c>
       <c r="G95" t="n">
-        <v>-544701.3261527659</v>
+        <v>-3945715.939600001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4140,32 +4282,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.35</v>
+        <v>11.77</v>
       </c>
       <c r="C96" t="n">
-        <v>12.35</v>
+        <v>11.77</v>
       </c>
       <c r="D96" t="n">
-        <v>12.35</v>
+        <v>11.77</v>
       </c>
       <c r="E96" t="n">
-        <v>12.35</v>
+        <v>11.77</v>
       </c>
       <c r="F96" t="n">
-        <v>14581.1123</v>
+        <v>43</v>
       </c>
       <c r="G96" t="n">
-        <v>-559282.4384527659</v>
+        <v>-3945672.939600001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4176,32 +4324,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.13</v>
+        <v>11.77</v>
       </c>
       <c r="C97" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="D97" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="E97" t="n">
-        <v>12.13</v>
+        <v>11.77</v>
       </c>
       <c r="F97" t="n">
-        <v>5991.2263</v>
+        <v>442485.709463926</v>
       </c>
       <c r="G97" t="n">
-        <v>-565273.6647527659</v>
+        <v>-3503187.230136075</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4212,22 +4366,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.13</v>
+        <v>12.11</v>
       </c>
       <c r="C98" t="n">
-        <v>12.13</v>
+        <v>12.15</v>
       </c>
       <c r="D98" t="n">
-        <v>12.13</v>
+        <v>12.15</v>
       </c>
       <c r="E98" t="n">
-        <v>12.13</v>
+        <v>12.11</v>
       </c>
       <c r="F98" t="n">
-        <v>12415.2193</v>
+        <v>254620.912</v>
       </c>
       <c r="G98" t="n">
-        <v>-565273.6647527659</v>
+        <v>-3248566.318136075</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4236,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4408,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.41</v>
+        <v>12.13</v>
       </c>
       <c r="C99" t="n">
-        <v>12.41</v>
+        <v>12.19</v>
       </c>
       <c r="D99" t="n">
-        <v>12.41</v>
+        <v>12.22</v>
       </c>
       <c r="E99" t="n">
-        <v>12.41</v>
+        <v>12.03</v>
       </c>
       <c r="F99" t="n">
-        <v>55</v>
+        <v>402571.4204</v>
       </c>
       <c r="G99" t="n">
-        <v>-565218.6647527659</v>
+        <v>-2845994.897736074</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4272,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4450,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3</v>
+        <v>12.03</v>
       </c>
       <c r="C100" t="n">
-        <v>12.3</v>
+        <v>12.22</v>
       </c>
       <c r="D100" t="n">
-        <v>12.41</v>
+        <v>12.23</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>12.03</v>
       </c>
       <c r="F100" t="n">
-        <v>173543.4475</v>
+        <v>178273.6406868812</v>
       </c>
       <c r="G100" t="n">
-        <v>-738762.1122527659</v>
+        <v>-2667721.257049193</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4308,8 +4474,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4320,22 +4492,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.41</v>
+        <v>12.22</v>
       </c>
       <c r="C101" t="n">
-        <v>12.41</v>
+        <v>12.27</v>
       </c>
       <c r="D101" t="n">
-        <v>12.41</v>
+        <v>12.27</v>
       </c>
       <c r="E101" t="n">
-        <v>12.41</v>
+        <v>12.22</v>
       </c>
       <c r="F101" t="n">
-        <v>53</v>
+        <v>124887.8887</v>
       </c>
       <c r="G101" t="n">
-        <v>-738709.1122527659</v>
+        <v>-2542833.368349193</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4344,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +4534,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
       <c r="C102" t="n">
-        <v>12.26</v>
+        <v>12.5</v>
       </c>
       <c r="D102" t="n">
-        <v>12.26</v>
+        <v>12.5</v>
       </c>
       <c r="E102" t="n">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
       <c r="F102" t="n">
-        <v>1228.9677</v>
+        <v>952645.5450131188</v>
       </c>
       <c r="G102" t="n">
-        <v>-739938.079952766</v>
+        <v>-1590187.823336074</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4380,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4392,22 +4576,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.26</v>
+        <v>12.52</v>
       </c>
       <c r="C103" t="n">
-        <v>12.26</v>
+        <v>12.76</v>
       </c>
       <c r="D103" t="n">
-        <v>12.26</v>
+        <v>12.76</v>
       </c>
       <c r="E103" t="n">
-        <v>12.26</v>
+        <v>12.51</v>
       </c>
       <c r="F103" t="n">
-        <v>1481.3556</v>
+        <v>305872.5509</v>
       </c>
       <c r="G103" t="n">
-        <v>-739938.079952766</v>
+        <v>-1284315.272436074</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4416,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4428,22 +4618,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.26</v>
+        <v>12.76</v>
       </c>
       <c r="C104" t="n">
-        <v>12.4</v>
+        <v>12.79</v>
       </c>
       <c r="D104" t="n">
-        <v>12.4</v>
+        <v>13.14</v>
       </c>
       <c r="E104" t="n">
-        <v>12.15</v>
+        <v>12.76</v>
       </c>
       <c r="F104" t="n">
-        <v>2616.8071</v>
+        <v>982794.9059840125</v>
       </c>
       <c r="G104" t="n">
-        <v>-737321.272852766</v>
+        <v>-301520.3664520619</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4452,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4464,22 +4660,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.15</v>
+        <v>12.78</v>
       </c>
       <c r="C105" t="n">
-        <v>12.03</v>
+        <v>12.75</v>
       </c>
       <c r="D105" t="n">
-        <v>12.15</v>
+        <v>12.78</v>
       </c>
       <c r="E105" t="n">
-        <v>12.03</v>
+        <v>12.75</v>
       </c>
       <c r="F105" t="n">
-        <v>81378.1661</v>
+        <v>62656.88280070422</v>
       </c>
       <c r="G105" t="n">
-        <v>-818699.438952766</v>
+        <v>-364177.2492527661</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4488,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4500,22 +4702,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.1</v>
+        <v>12.74</v>
       </c>
       <c r="C106" t="n">
-        <v>12.03</v>
+        <v>12.6</v>
       </c>
       <c r="D106" t="n">
-        <v>12.1</v>
+        <v>12.74</v>
       </c>
       <c r="E106" t="n">
-        <v>12.03</v>
+        <v>12.6</v>
       </c>
       <c r="F106" t="n">
-        <v>13057.9861</v>
+        <v>18879.5169</v>
       </c>
       <c r="G106" t="n">
-        <v>-818699.438952766</v>
+        <v>-383056.7661527661</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4524,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4536,22 +4744,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.03</v>
+        <v>12.69</v>
       </c>
       <c r="C107" t="n">
-        <v>12.02</v>
+        <v>12.67</v>
       </c>
       <c r="D107" t="n">
-        <v>12.03</v>
+        <v>12.69</v>
       </c>
       <c r="E107" t="n">
-        <v>12.02</v>
+        <v>12.41</v>
       </c>
       <c r="F107" t="n">
-        <v>108112.2012</v>
+        <v>64885.6952</v>
       </c>
       <c r="G107" t="n">
-        <v>-926811.640152766</v>
+        <v>-318171.0709527661</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4560,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4572,22 +4786,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="C108" t="n">
-        <v>11.93</v>
+        <v>12.37</v>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="E108" t="n">
-        <v>11.93</v>
+        <v>12.09</v>
       </c>
       <c r="F108" t="n">
-        <v>69290.8806</v>
+        <v>157329.2626</v>
       </c>
       <c r="G108" t="n">
-        <v>-996102.5207527661</v>
+        <v>-475500.3335527661</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4596,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4608,22 +4828,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>12.59</v>
       </c>
       <c r="D109" t="n">
-        <v>12.1</v>
+        <v>12.67</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F109" t="n">
-        <v>3222</v>
+        <v>322505.9553</v>
       </c>
       <c r="G109" t="n">
-        <v>-992880.5207527661</v>
+        <v>-152994.3782527662</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4632,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4644,22 +4870,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.96</v>
+        <v>12.66</v>
       </c>
       <c r="C110" t="n">
-        <v>11.96</v>
+        <v>12.42</v>
       </c>
       <c r="D110" t="n">
-        <v>11.96</v>
+        <v>12.67</v>
       </c>
       <c r="E110" t="n">
-        <v>11.96</v>
+        <v>12.42</v>
       </c>
       <c r="F110" t="n">
-        <v>3159.392</v>
+        <v>324610.4448</v>
       </c>
       <c r="G110" t="n">
-        <v>-996039.912752766</v>
+        <v>-477604.8230527662</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4668,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4680,22 +4912,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="C111" t="n">
-        <v>12.1</v>
+        <v>12.62</v>
       </c>
       <c r="D111" t="n">
-        <v>12.1</v>
+        <v>12.66</v>
       </c>
       <c r="E111" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="F111" t="n">
-        <v>43.718</v>
+        <v>4400</v>
       </c>
       <c r="G111" t="n">
-        <v>-995996.1947527661</v>
+        <v>-473204.8230527662</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4704,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4716,22 +4954,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.16</v>
+        <v>12.61</v>
       </c>
       <c r="C112" t="n">
-        <v>12.16</v>
+        <v>12.41</v>
       </c>
       <c r="D112" t="n">
-        <v>12.16</v>
+        <v>12.61</v>
       </c>
       <c r="E112" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>395361.9014</v>
       </c>
       <c r="G112" t="n">
-        <v>-995796.1947527661</v>
+        <v>-868566.7244527661</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4740,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4752,22 +4996,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.97</v>
+        <v>12.49</v>
       </c>
       <c r="C113" t="n">
-        <v>11.95</v>
+        <v>12.49</v>
       </c>
       <c r="D113" t="n">
-        <v>11.97</v>
+        <v>12.49</v>
       </c>
       <c r="E113" t="n">
-        <v>11.95</v>
+        <v>12.2</v>
       </c>
       <c r="F113" t="n">
-        <v>172639.6185</v>
+        <v>73925.894</v>
       </c>
       <c r="G113" t="n">
-        <v>-1168435.813252766</v>
+        <v>-794640.8304527662</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4776,8 +5020,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4788,22 +5038,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.16</v>
+        <v>12.5</v>
       </c>
       <c r="C114" t="n">
-        <v>12.16</v>
+        <v>12.5</v>
       </c>
       <c r="D114" t="n">
-        <v>12.16</v>
+        <v>12.5</v>
       </c>
       <c r="E114" t="n">
-        <v>12.16</v>
+        <v>12.5</v>
       </c>
       <c r="F114" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
-        <v>-1168393.813252766</v>
+        <v>-794600.8304527662</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4812,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +5080,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.13</v>
+        <v>12.5</v>
       </c>
       <c r="C115" t="n">
-        <v>12.11</v>
+        <v>12.7</v>
       </c>
       <c r="D115" t="n">
-        <v>12.13</v>
+        <v>12.92</v>
       </c>
       <c r="E115" t="n">
-        <v>12.11</v>
+        <v>12.5</v>
       </c>
       <c r="F115" t="n">
-        <v>233.3331</v>
+        <v>239136.0099</v>
       </c>
       <c r="G115" t="n">
-        <v>-1168627.146352766</v>
+        <v>-555464.8205527661</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4848,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +5122,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="C116" t="n">
-        <v>12.13</v>
+        <v>12.98</v>
       </c>
       <c r="D116" t="n">
-        <v>12.13</v>
+        <v>12.98</v>
       </c>
       <c r="E116" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="F116" t="n">
-        <v>160.6059</v>
+        <v>247917.5562</v>
       </c>
       <c r="G116" t="n">
-        <v>-1168466.540452766</v>
+        <v>-307547.2643527661</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4884,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4896,22 +5164,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.13</v>
+        <v>13.04</v>
       </c>
       <c r="C117" t="n">
-        <v>12.13</v>
+        <v>13.15</v>
       </c>
       <c r="D117" t="n">
-        <v>12.13</v>
+        <v>13.16</v>
       </c>
       <c r="E117" t="n">
-        <v>12.13</v>
+        <v>13.04</v>
       </c>
       <c r="F117" t="n">
-        <v>77.7777</v>
+        <v>228116.3585</v>
       </c>
       <c r="G117" t="n">
-        <v>-1168466.540452766</v>
+        <v>-79430.9058527661</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4920,8 +5188,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4932,22 +5206,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.12</v>
+        <v>13.17</v>
       </c>
       <c r="C118" t="n">
-        <v>12.12</v>
+        <v>13.22</v>
       </c>
       <c r="D118" t="n">
-        <v>12.12</v>
+        <v>13.31</v>
       </c>
       <c r="E118" t="n">
-        <v>12.12</v>
+        <v>13.15</v>
       </c>
       <c r="F118" t="n">
-        <v>19845.4248</v>
+        <v>1394857.2097</v>
       </c>
       <c r="G118" t="n">
-        <v>-1188311.965252766</v>
+        <v>1315426.303847234</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4956,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4968,22 +5248,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.01</v>
+        <v>13.21</v>
       </c>
       <c r="C119" t="n">
-        <v>12.12</v>
+        <v>13.08</v>
       </c>
       <c r="D119" t="n">
-        <v>12.12</v>
+        <v>13.22</v>
       </c>
       <c r="E119" t="n">
-        <v>11.91</v>
+        <v>13.08</v>
       </c>
       <c r="F119" t="n">
-        <v>78368.5913</v>
+        <v>227021.8965</v>
       </c>
       <c r="G119" t="n">
-        <v>-1188311.965252766</v>
+        <v>1088404.407347234</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4992,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5004,22 +5290,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.12</v>
+        <v>13.2</v>
       </c>
       <c r="C120" t="n">
-        <v>11.92</v>
+        <v>12.7</v>
       </c>
       <c r="D120" t="n">
-        <v>12.12</v>
+        <v>13.2</v>
       </c>
       <c r="E120" t="n">
-        <v>11.92</v>
+        <v>12.7</v>
       </c>
       <c r="F120" t="n">
-        <v>142442.1357</v>
+        <v>181034.0182</v>
       </c>
       <c r="G120" t="n">
-        <v>-1330754.100952766</v>
+        <v>907370.3891472339</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5028,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5040,22 +5332,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.13</v>
+        <v>13.09</v>
       </c>
       <c r="C121" t="n">
-        <v>12.14</v>
+        <v>12.85</v>
       </c>
       <c r="D121" t="n">
-        <v>12.14</v>
+        <v>13.09</v>
       </c>
       <c r="E121" t="n">
-        <v>12.13</v>
+        <v>12.57</v>
       </c>
       <c r="F121" t="n">
-        <v>80</v>
+        <v>105864.0392</v>
       </c>
       <c r="G121" t="n">
-        <v>-1330674.100952766</v>
+        <v>1013234.428347234</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5064,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5076,64 +5374,72 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.14</v>
+        <v>12.69</v>
       </c>
       <c r="C122" t="n">
-        <v>12.14</v>
+        <v>12.8</v>
       </c>
       <c r="D122" t="n">
-        <v>12.14</v>
+        <v>13.18</v>
       </c>
       <c r="E122" t="n">
-        <v>12.14</v>
+        <v>12.69</v>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>209997.3861</v>
       </c>
       <c r="G122" t="n">
-        <v>-1330674.100952766</v>
+        <v>803237.0422472339</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>1.089952951240376</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.03568320278503</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.93</v>
+        <v>12.8</v>
       </c>
       <c r="C123" t="n">
-        <v>11.93</v>
+        <v>12.56</v>
       </c>
       <c r="D123" t="n">
-        <v>11.93</v>
+        <v>12.8</v>
       </c>
       <c r="E123" t="n">
-        <v>11.93</v>
+        <v>12.56</v>
       </c>
       <c r="F123" t="n">
-        <v>18738.2036</v>
+        <v>115712.7233</v>
       </c>
       <c r="G123" t="n">
-        <v>-1349412.304552766</v>
+        <v>687524.318947234</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5148,22 +5454,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.14</v>
+        <v>12.56</v>
       </c>
       <c r="C124" t="n">
-        <v>12.14</v>
+        <v>13.05</v>
       </c>
       <c r="D124" t="n">
-        <v>12.14</v>
+        <v>13.08</v>
       </c>
       <c r="E124" t="n">
-        <v>12.14</v>
+        <v>12.56</v>
       </c>
       <c r="F124" t="n">
-        <v>45</v>
+        <v>142608.2106</v>
       </c>
       <c r="G124" t="n">
-        <v>-1349367.304552766</v>
+        <v>830132.5295472339</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5184,28 +5490,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.93</v>
+        <v>12.72</v>
       </c>
       <c r="C125" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="D125" t="n">
-        <v>11.93</v>
+        <v>12.72</v>
       </c>
       <c r="E125" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="F125" t="n">
-        <v>8850.5587</v>
+        <v>218119.6066</v>
       </c>
       <c r="G125" t="n">
-        <v>-1358217.863252766</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5220,28 +5526,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="C126" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="D126" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="E126" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="F126" t="n">
-        <v>63642.5726</v>
+        <v>18018.3603</v>
       </c>
       <c r="G126" t="n">
-        <v>-1358217.863252766</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5256,28 +5562,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.93</v>
+        <v>12.7</v>
       </c>
       <c r="C127" t="n">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="D127" t="n">
-        <v>11.93</v>
+        <v>12.7</v>
       </c>
       <c r="E127" t="n">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="F127" t="n">
-        <v>2188.7653</v>
+        <v>47060.9444</v>
       </c>
       <c r="G127" t="n">
-        <v>-1360406.628552766</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5292,28 +5598,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.88</v>
+        <v>12.7</v>
       </c>
       <c r="C128" t="n">
-        <v>11.86</v>
+        <v>12.7</v>
       </c>
       <c r="D128" t="n">
-        <v>11.88</v>
+        <v>12.7</v>
       </c>
       <c r="E128" t="n">
-        <v>11.86</v>
+        <v>12.7</v>
       </c>
       <c r="F128" t="n">
-        <v>82428.6557</v>
+        <v>150744.8104</v>
       </c>
       <c r="G128" t="n">
-        <v>-1442835.284252766</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5328,28 +5634,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="C129" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="D129" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="F129" t="n">
-        <v>1257.5109</v>
+        <v>196324.5417</v>
       </c>
       <c r="G129" t="n">
-        <v>-1441577.773352766</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5364,28 +5670,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="C130" t="n">
-        <v>11.87</v>
+        <v>12.7</v>
       </c>
       <c r="D130" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="E130" t="n">
-        <v>11.87</v>
+        <v>12.58</v>
       </c>
       <c r="F130" t="n">
-        <v>5042.6897</v>
+        <v>74569.47259999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-1446620.463052766</v>
+        <v>612012.922947234</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5400,28 +5706,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.06</v>
+        <v>12.87</v>
       </c>
       <c r="C131" t="n">
-        <v>12.06</v>
+        <v>12.88</v>
       </c>
       <c r="D131" t="n">
-        <v>12.06</v>
+        <v>12.93</v>
       </c>
       <c r="E131" t="n">
-        <v>12.06</v>
+        <v>12.58</v>
       </c>
       <c r="F131" t="n">
-        <v>43</v>
+        <v>70144.22659999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-1446577.463052766</v>
+        <v>682157.1495472339</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5436,28 +5742,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.01</v>
+        <v>12.87</v>
       </c>
       <c r="C132" t="n">
-        <v>12.01</v>
+        <v>12.8</v>
       </c>
       <c r="D132" t="n">
-        <v>12.01</v>
+        <v>12.87</v>
       </c>
       <c r="E132" t="n">
-        <v>12.01</v>
+        <v>12.71</v>
       </c>
       <c r="F132" t="n">
-        <v>44.4444</v>
+        <v>69785.0003</v>
       </c>
       <c r="G132" t="n">
-        <v>-1446621.907452766</v>
+        <v>612372.149247234</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5472,28 +5778,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12</v>
+        <v>12.79</v>
       </c>
       <c r="C133" t="n">
-        <v>11.86</v>
+        <v>12.8</v>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="E133" t="n">
-        <v>11.86</v>
+        <v>12.79</v>
       </c>
       <c r="F133" t="n">
-        <v>24041.3133</v>
+        <v>3125.1875</v>
       </c>
       <c r="G133" t="n">
-        <v>-1470663.220752766</v>
+        <v>612372.149247234</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5508,28 +5814,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.86</v>
+        <v>12.8</v>
       </c>
       <c r="C134" t="n">
-        <v>11.86</v>
+        <v>12.8</v>
       </c>
       <c r="D134" t="n">
-        <v>11.86</v>
+        <v>12.8</v>
       </c>
       <c r="E134" t="n">
-        <v>11.86</v>
+        <v>12.8</v>
       </c>
       <c r="F134" t="n">
-        <v>24147.7257</v>
+        <v>60202.0425</v>
       </c>
       <c r="G134" t="n">
-        <v>-1470663.220752766</v>
+        <v>612372.149247234</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5544,28 +5850,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.88</v>
+        <v>12.7</v>
       </c>
       <c r="C135" t="n">
-        <v>11.89</v>
+        <v>12.7</v>
       </c>
       <c r="D135" t="n">
-        <v>11.89</v>
+        <v>12.7</v>
       </c>
       <c r="E135" t="n">
-        <v>11.88</v>
+        <v>12.7</v>
       </c>
       <c r="F135" t="n">
-        <v>9931.6315</v>
+        <v>20240.8611</v>
       </c>
       <c r="G135" t="n">
-        <v>-1460731.589252766</v>
+        <v>592131.288147234</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5580,28 +5886,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.88</v>
+        <v>12.65</v>
       </c>
       <c r="C136" t="n">
-        <v>11.88</v>
+        <v>12.51</v>
       </c>
       <c r="D136" t="n">
-        <v>11.88</v>
+        <v>12.65</v>
       </c>
       <c r="E136" t="n">
-        <v>11.87</v>
+        <v>12.51</v>
       </c>
       <c r="F136" t="n">
-        <v>32588.8888</v>
+        <v>426011.1715</v>
       </c>
       <c r="G136" t="n">
-        <v>-1493320.478052766</v>
+        <v>166120.116647234</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5616,28 +5922,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.89</v>
+        <v>12.5</v>
       </c>
       <c r="C137" t="n">
-        <v>11.95</v>
+        <v>12.49</v>
       </c>
       <c r="D137" t="n">
-        <v>11.95</v>
+        <v>12.5</v>
       </c>
       <c r="E137" t="n">
-        <v>11.89</v>
+        <v>12.49</v>
       </c>
       <c r="F137" t="n">
-        <v>307.3332</v>
+        <v>358040.7656</v>
       </c>
       <c r="G137" t="n">
-        <v>-1493013.144852766</v>
+        <v>-191920.648952766</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5652,28 +5958,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.95</v>
+        <v>12.49</v>
       </c>
       <c r="C138" t="n">
-        <v>12.01</v>
+        <v>12.49</v>
       </c>
       <c r="D138" t="n">
-        <v>12.01</v>
+        <v>12.49</v>
       </c>
       <c r="E138" t="n">
-        <v>11.95</v>
+        <v>12.49</v>
       </c>
       <c r="F138" t="n">
-        <v>16840.9043</v>
+        <v>25166.929</v>
       </c>
       <c r="G138" t="n">
-        <v>-1476172.240552766</v>
+        <v>-191920.648952766</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5688,28 +5994,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.95</v>
+        <v>12.49</v>
       </c>
       <c r="C139" t="n">
-        <v>11.84</v>
+        <v>12.49</v>
       </c>
       <c r="D139" t="n">
-        <v>11.95</v>
+        <v>12.49</v>
       </c>
       <c r="E139" t="n">
-        <v>11.84</v>
+        <v>12.49</v>
       </c>
       <c r="F139" t="n">
-        <v>206884.2121</v>
+        <v>7300</v>
       </c>
       <c r="G139" t="n">
-        <v>-1683056.452652766</v>
+        <v>-191920.648952766</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5724,22 +6030,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.84</v>
+        <v>12.31</v>
       </c>
       <c r="C140" t="n">
-        <v>11.78</v>
+        <v>12.12</v>
       </c>
       <c r="D140" t="n">
-        <v>11.84</v>
+        <v>12.31</v>
       </c>
       <c r="E140" t="n">
-        <v>11.78</v>
+        <v>12.12</v>
       </c>
       <c r="F140" t="n">
-        <v>109662.5145</v>
+        <v>8110.8774</v>
       </c>
       <c r="G140" t="n">
-        <v>-1792718.967152766</v>
+        <v>-200031.526352766</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5760,22 +6066,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.78</v>
+        <v>12.34</v>
       </c>
       <c r="C141" t="n">
-        <v>11.91</v>
+        <v>12.16</v>
       </c>
       <c r="D141" t="n">
-        <v>11.95</v>
+        <v>12.35</v>
       </c>
       <c r="E141" t="n">
-        <v>11.78</v>
+        <v>12.16</v>
       </c>
       <c r="F141" t="n">
-        <v>41557.9817</v>
+        <v>72424.0866</v>
       </c>
       <c r="G141" t="n">
-        <v>-1751160.985452766</v>
+        <v>-127607.439752766</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5796,22 +6102,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.9</v>
+        <v>12.18</v>
       </c>
       <c r="C142" t="n">
-        <v>11.9</v>
+        <v>12.15</v>
       </c>
       <c r="D142" t="n">
-        <v>11.9</v>
+        <v>12.18</v>
       </c>
       <c r="E142" t="n">
-        <v>11.9</v>
+        <v>12.15</v>
       </c>
       <c r="F142" t="n">
-        <v>1270</v>
+        <v>80207.376</v>
       </c>
       <c r="G142" t="n">
-        <v>-1752430.985452766</v>
+        <v>-207814.815752766</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5832,22 +6138,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.91</v>
+        <v>12.14</v>
       </c>
       <c r="C143" t="n">
-        <v>11.92</v>
+        <v>12.14</v>
       </c>
       <c r="D143" t="n">
-        <v>11.92</v>
+        <v>12.14</v>
       </c>
       <c r="E143" t="n">
-        <v>11.91</v>
+        <v>12.14</v>
       </c>
       <c r="F143" t="n">
-        <v>45</v>
+        <v>51199.7726</v>
       </c>
       <c r="G143" t="n">
-        <v>-1752385.985452766</v>
+        <v>-259014.588352766</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5868,22 +6174,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.92</v>
+        <v>12.22</v>
       </c>
       <c r="C144" t="n">
-        <v>11.93</v>
+        <v>12.13</v>
       </c>
       <c r="D144" t="n">
-        <v>11.93</v>
+        <v>12.22</v>
       </c>
       <c r="E144" t="n">
-        <v>11.92</v>
+        <v>12.13</v>
       </c>
       <c r="F144" t="n">
-        <v>8721.3189</v>
+        <v>92672.6243</v>
       </c>
       <c r="G144" t="n">
-        <v>-1743664.666552766</v>
+        <v>-351687.212652766</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5904,22 +6210,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="C145" t="n">
-        <v>11.94</v>
+        <v>12.1</v>
       </c>
       <c r="D145" t="n">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="E145" t="n">
-        <v>11.94</v>
+        <v>12.1</v>
       </c>
       <c r="F145" t="n">
-        <v>8896.707899999999</v>
+        <v>7807.6335</v>
       </c>
       <c r="G145" t="n">
-        <v>-1734767.958652766</v>
+        <v>-359494.846152766</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5940,22 +6246,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.79</v>
+        <v>12.09</v>
       </c>
       <c r="C146" t="n">
-        <v>11.76</v>
+        <v>12.03</v>
       </c>
       <c r="D146" t="n">
-        <v>11.79</v>
+        <v>12.09</v>
       </c>
       <c r="E146" t="n">
-        <v>11.76</v>
+        <v>12.03</v>
       </c>
       <c r="F146" t="n">
-        <v>166894.2681</v>
+        <v>301554.1764</v>
       </c>
       <c r="G146" t="n">
-        <v>-1901662.226752766</v>
+        <v>-661049.0225527659</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5976,22 +6282,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="C147" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="D147" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="E147" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="F147" t="n">
-        <v>43</v>
+        <v>26102.652</v>
       </c>
       <c r="G147" t="n">
-        <v>-1901619.226752766</v>
+        <v>-661049.0225527659</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6012,22 +6318,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.91</v>
+        <v>12.11</v>
       </c>
       <c r="C148" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="D148" t="n">
-        <v>11.91</v>
+        <v>12.11</v>
       </c>
       <c r="E148" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="F148" t="n">
-        <v>20195.5112</v>
+        <v>4993.3884</v>
       </c>
       <c r="G148" t="n">
-        <v>-1901619.226752766</v>
+        <v>-656055.6341527659</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6048,22 +6354,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="C149" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="D149" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="E149" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="F149" t="n">
-        <v>77884.7458</v>
+        <v>2379.5362</v>
       </c>
       <c r="G149" t="n">
-        <v>-1979503.972552766</v>
+        <v>-658435.1703527658</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6084,22 +6390,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="C150" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="D150" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="E150" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="F150" t="n">
-        <v>2593.2361</v>
+        <v>68522.1663</v>
       </c>
       <c r="G150" t="n">
-        <v>-1979503.972552766</v>
+        <v>-726957.3366527659</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6123,19 +6429,19 @@
         <v>11.9</v>
       </c>
       <c r="C151" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="D151" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E151" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="F151" t="n">
-        <v>53703.6597</v>
+        <v>53622.7926</v>
       </c>
       <c r="G151" t="n">
-        <v>-1979503.972552766</v>
+        <v>-673334.5440527658</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6156,22 +6462,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="C152" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="D152" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="E152" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="F152" t="n">
-        <v>45</v>
+        <v>173156.3043</v>
       </c>
       <c r="G152" t="n">
-        <v>-1979458.972552766</v>
+        <v>-500178.2397527659</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6192,22 +6498,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C153" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="D153" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="E153" t="n">
-        <v>11.78</v>
+        <v>12.1</v>
       </c>
       <c r="F153" t="n">
-        <v>93028.2184</v>
+        <v>1506.0027</v>
       </c>
       <c r="G153" t="n">
-        <v>-1886430.754152766</v>
+        <v>-500178.2397527659</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6223,6 +6529,2562 @@
       </c>
       <c r="N153" t="inlineStr"/>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3614.4878</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-496563.7519527659</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-496563.7519527659</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16888.2181</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-479675.5338527659</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100033.5613</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-579709.0951527659</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F158" t="n">
+        <v>70783.98299999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-579709.0951527659</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7695.7111</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-572013.3840527659</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18969.1455</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-553044.2385527659</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F161" t="n">
+        <v>28755.7259</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-553044.2385527659</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1828.6161</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-554872.8546527659</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10209.5285</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-544663.3261527659</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F164" t="n">
+        <v>81</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-544744.3261527659</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F165" t="n">
+        <v>43</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-544701.3261527659</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24058.3259</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-544701.3261527659</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14581.1123</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-559282.4384527659</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5991.2263</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-565273.6647527659</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12415.2193</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-565273.6647527659</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="F170" t="n">
+        <v>55</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-565218.6647527659</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>173543.4475</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-738762.1122527659</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="F172" t="n">
+        <v>53</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-738709.1122527659</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1228.9677</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-739938.079952766</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1481.3556</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-739938.079952766</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2616.8071</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-737321.272852766</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F176" t="n">
+        <v>81378.1661</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-818699.438952766</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13057.9861</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-818699.438952766</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F178" t="n">
+        <v>108112.2012</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-926811.640152766</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F179" t="n">
+        <v>69290.8806</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-996102.5207527661</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3222</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-992880.5207527661</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3159.392</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-996039.912752766</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>43.718</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-995996.1947527661</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F183" t="n">
+        <v>200</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-995796.1947527661</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F184" t="n">
+        <v>172639.6185</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1168435.813252766</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F185" t="n">
+        <v>42</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1168393.813252766</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F186" t="n">
+        <v>233.3331</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1168627.146352766</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>160.6059</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1168466.540452766</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F188" t="n">
+        <v>77.7777</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1168466.540452766</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19845.4248</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1188311.965252766</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F190" t="n">
+        <v>78368.5913</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1188311.965252766</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F191" t="n">
+        <v>142442.1357</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1330754.100952766</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F192" t="n">
+        <v>80</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1330674.100952766</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F193" t="n">
+        <v>100</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1330674.100952766</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18738.2036</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1349412.304552766</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F195" t="n">
+        <v>45</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1349367.304552766</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8850.5587</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1358217.863252766</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F197" t="n">
+        <v>63642.5726</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1358217.863252766</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2188.7653</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1360406.628552766</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F199" t="n">
+        <v>82428.6557</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1442835.284252766</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1257.5109</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1441577.773352766</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5042.6897</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1446620.463052766</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F202" t="n">
+        <v>43</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1446577.463052766</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F203" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1446621.907452766</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F204" t="n">
+        <v>24041.3133</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1470663.220752766</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F205" t="n">
+        <v>24147.7257</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1470663.220752766</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E206" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F206" t="n">
+        <v>9931.6315</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1460731.589252766</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F207" t="n">
+        <v>32588.8888</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1493320.478052766</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F208" t="n">
+        <v>307.3332</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1493013.144852766</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C209" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D209" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F209" t="n">
+        <v>16840.9043</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1476172.240552766</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F210" t="n">
+        <v>206884.2121</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1683056.452652766</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F211" t="n">
+        <v>109662.5145</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1792718.967152766</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F212" t="n">
+        <v>41557.9817</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1751160.985452766</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1752430.985452766</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F214" t="n">
+        <v>45</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1752385.985452766</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8721.3189</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1743664.666552766</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C216" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D216" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8896.707899999999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1734767.958652766</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F217" t="n">
+        <v>166894.2681</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1901662.226752766</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F218" t="n">
+        <v>43</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1901619.226752766</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C219" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20195.5112</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1901619.226752766</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F220" t="n">
+        <v>77884.7458</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1979503.972552766</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2593.2361</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1979503.972552766</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F222" t="n">
+        <v>53703.6597</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1979503.972552766</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C223" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D223" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E223" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F223" t="n">
+        <v>45</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1979458.972552766</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F224" t="n">
+        <v>93028.2184</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1886430.754152766</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,19 @@
         <v>-2154496.8806</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +719,23 @@
         <v>-2171627.9611</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +760,23 @@
         <v>-2171627.9611</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>11.57</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +801,23 @@
         <v>-2980951.5527</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>11.57</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +842,23 @@
         <v>-2980951.5527</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +883,23 @@
         <v>-2980908.5527</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +924,23 @@
         <v>-3084121.0494</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>11.68</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +965,23 @@
         <v>-3078208.5413</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1006,23 @@
         <v>-3339514.0692</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>11.64</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,22 +1047,23 @@
         <v>-3339471.0692</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="J18" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1074,22 +1090,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,26 +1127,21 @@
         <v>-3414828.9151</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,16 +1168,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,22 +1205,21 @@
         <v>-3406648.8717</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,24 +1244,23 @@
         <v>-3406648.8717</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>11.72</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1276,24 +1285,23 @@
         <v>-3455433.8142</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>11.72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1318,18 +1326,23 @@
         <v>-3455390.8142</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>11.59</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1356,16 +1369,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1392,16 +1408,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1428,16 +1447,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1462,18 +1484,23 @@
         <v>-3571369.179</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1498,22 +1525,23 @@
         <v>-3571450.179</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="J30" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K30" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1538,26 +1566,23 @@
         <v>-3571407.179</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="J31" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,26 +1607,23 @@
         <v>-3571407.179</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="J32" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1626,22 +1648,23 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="J33" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,26 +1689,23 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="J34" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1710,26 +1730,23 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="J35" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K35" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1754,22 +1771,23 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="J36" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1794,26 +1812,23 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="J37" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1838,26 +1853,21 @@
         <v>-3785527.025400001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1882,26 +1892,21 @@
         <v>-3582833.7903</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1926,26 +1931,23 @@
         <v>-3588093.7903</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.77</v>
       </c>
       <c r="J40" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K40" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1970,26 +1972,23 @@
         <v>-3574409.893600001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="J41" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2014,26 +2013,23 @@
         <v>-3552103.475300001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.77</v>
       </c>
       <c r="J42" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2058,24 +2054,23 @@
         <v>-3530966.922300001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>12.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2100,24 +2095,23 @@
         <v>-3535845.757900001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>12.22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2142,24 +2136,23 @@
         <v>-3549126.6327</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>12.21</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2186,22 +2179,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2228,22 +2218,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,22 +2257,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2312,22 +2296,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2354,22 +2335,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2394,24 +2372,23 @@
         <v>-3680742.2746</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>12.06</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2436,24 +2413,23 @@
         <v>-3692904.2319</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>12.06</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2478,24 +2454,23 @@
         <v>-3873633.7559</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,24 +2495,23 @@
         <v>-3899751.7</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>11.81</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2562,24 +2536,23 @@
         <v>-3905438.7171</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2604,24 +2577,23 @@
         <v>-3905308.639</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>11.71</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2646,24 +2618,23 @@
         <v>-3905308.639</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2688,24 +2659,23 @@
         <v>-4088651.9057</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2730,24 +2700,23 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>11.89</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2772,24 +2741,23 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2816,22 +2784,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2858,22 +2823,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2900,22 +2862,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2940,26 +2899,21 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K64" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2986,22 +2940,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3028,22 +2979,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3070,22 +3018,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3112,22 +3057,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,22 +3096,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3196,22 +3135,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3238,22 +3174,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3280,22 +3213,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3322,22 +3252,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3364,22 +3291,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3406,22 +3330,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3448,22 +3369,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3490,22 +3408,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3532,22 +3447,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3574,22 +3486,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3614,26 +3523,21 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3658,26 +3562,21 @@
         <v>-3513778.955800001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3702,26 +3601,21 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K82" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3746,26 +3640,21 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3790,26 +3679,21 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K84" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3834,26 +3718,21 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K85" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3878,26 +3757,21 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3924,22 +3798,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3966,22 +3837,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4008,22 +3876,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4050,22 +3915,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4092,22 +3954,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4134,22 +3993,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4176,22 +4032,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4218,22 +4071,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4260,22 +4110,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4302,22 +4149,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4344,22 +4188,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4386,22 +4227,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4428,22 +4266,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4470,22 +4305,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4512,22 +4344,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4554,22 +4383,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4596,22 +4422,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4638,22 +4461,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4680,22 +4500,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4722,22 +4539,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4764,22 +4578,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4806,22 +4617,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4848,22 +4656,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4890,22 +4695,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4932,22 +4734,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4974,22 +4773,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5016,22 +4812,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5058,22 +4851,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5100,22 +4890,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5142,22 +4929,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5184,22 +4968,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5226,22 +5007,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5268,22 +5046,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5308,24 +5083,23 @@
         <v>907370.3891472339</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.089827586206897</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>1.03030303030303</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5350,24 +5124,15 @@
         <v>1013234.428347234</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5394,24 +5159,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1.089952951240376</v>
-      </c>
-      <c r="N122" t="n">
-        <v>1.03568320278503</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5438,16 +5192,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5472,18 +5223,15 @@
         <v>830132.5295472339</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5510,16 +5258,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5544,18 +5289,15 @@
         <v>612012.922947234</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5582,16 +5324,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5618,16 +5357,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5654,16 +5390,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5690,16 +5423,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5726,16 +5456,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5760,18 +5487,15 @@
         <v>612372.149247234</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5798,16 +5522,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5834,16 +5555,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5870,16 +5588,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5906,16 +5621,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5942,16 +5654,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5978,16 +5687,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6014,16 +5720,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6050,16 +5753,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6086,16 +5786,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6122,16 +5819,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6158,16 +5852,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6194,16 +5885,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6230,16 +5918,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6266,16 +5951,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6302,16 +5984,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6336,18 +6015,15 @@
         <v>-656055.6341527659</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6374,16 +6050,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6410,16 +6083,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6446,16 +6116,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6482,16 +6149,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6518,16 +6182,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6554,16 +6215,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6590,16 +6248,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6626,16 +6281,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6662,16 +6314,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6698,16 +6347,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6734,16 +6380,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6770,16 +6413,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6806,16 +6446,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6842,16 +6479,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6878,16 +6512,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6914,16 +6545,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6950,16 +6578,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6986,16 +6611,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7020,18 +6642,15 @@
         <v>-559282.4384527659</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7056,18 +6675,15 @@
         <v>-565273.6647527659</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7094,16 +6710,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7130,16 +6743,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7166,16 +6776,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7202,16 +6809,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7236,18 +6840,15 @@
         <v>-739938.079952766</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7274,16 +6875,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7310,16 +6908,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7344,18 +6939,15 @@
         <v>-818699.438952766</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7382,16 +6974,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7418,16 +7007,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7452,18 +7038,15 @@
         <v>-996102.5207527661</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7490,16 +7073,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7526,16 +7106,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7562,16 +7139,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7598,16 +7172,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7634,16 +7205,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7670,16 +7238,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7706,16 +7271,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7742,16 +7304,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7778,16 +7337,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7814,16 +7370,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7850,16 +7403,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7886,16 +7436,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7922,16 +7469,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7958,16 +7502,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7994,16 +7535,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8030,16 +7568,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8066,16 +7601,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8102,16 +7634,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8138,16 +7667,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8174,16 +7700,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8210,16 +7733,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8246,16 +7766,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8282,16 +7799,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8318,16 +7832,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8354,16 +7865,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8390,16 +7898,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8426,16 +7931,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8462,16 +7964,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8498,16 +7997,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8534,16 +8030,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8570,16 +8063,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8606,16 +8096,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8642,16 +8129,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8678,16 +8162,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8714,16 +8195,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8750,16 +8228,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8786,16 +8261,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8822,16 +8294,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8858,16 +8327,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8894,16 +8360,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8930,16 +8393,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8966,16 +8426,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9002,16 +8459,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9038,16 +8492,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9074,18 +8525,15 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>-2154496.8806</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,19 +715,11 @@
         <v>-2171627.9611</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -760,19 +748,11 @@
         <v>-2171627.9611</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,19 +781,11 @@
         <v>-2980951.5527</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -842,19 +814,11 @@
         <v>-2980951.5527</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,19 +847,11 @@
         <v>-2980908.5527</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -924,19 +880,11 @@
         <v>-3084121.0494</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -965,19 +913,11 @@
         <v>-3078208.5413</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,19 +946,11 @@
         <v>-3339514.0692</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,19 +979,15 @@
         <v>-3339471.0692</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>11.51</v>
       </c>
       <c r="J18" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.51</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1088,15 +1016,17 @@
         <v>-3339471.0692</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.63</v>
+      </c>
       <c r="J19" t="n">
-        <v>11.6</v>
+        <v>11.51</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1127,15 +1057,17 @@
         <v>-3414828.9151</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.63</v>
+      </c>
       <c r="J20" t="n">
-        <v>11.6</v>
+        <v>11.51</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1166,17 +1098,15 @@
         <v>-3414828.9151</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.62</v>
+      </c>
       <c r="J21" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.62</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,15 +1135,17 @@
         <v>-3406648.8717</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.62</v>
+      </c>
       <c r="J22" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1244,17 +1176,17 @@
         <v>-3406648.8717</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>11.72</v>
       </c>
       <c r="J23" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1285,19 +1217,15 @@
         <v>-3455433.8142</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>11.72</v>
       </c>
       <c r="J24" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.72</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1326,17 +1254,17 @@
         <v>-3455390.8142</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>11.59</v>
       </c>
       <c r="J25" t="n">
-        <v>11.6</v>
+        <v>11.72</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1371,11 +1299,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>11.6</v>
+        <v>11.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1409,14 +1337,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1448,14 +1370,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1484,19 +1400,11 @@
         <v>-3571369.179</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1525,19 +1433,15 @@
         <v>-3571450.179</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>11.76</v>
       </c>
       <c r="J30" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.76</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1566,17 +1470,17 @@
         <v>-3571407.179</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>11.63</v>
       </c>
       <c r="J31" t="n">
-        <v>11.6</v>
+        <v>11.76</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1607,17 +1511,17 @@
         <v>-3571407.179</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>11.74</v>
       </c>
       <c r="J32" t="n">
-        <v>11.6</v>
+        <v>11.76</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1648,19 +1552,15 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>11.74</v>
       </c>
       <c r="J33" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.74</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1689,17 +1589,17 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>11.69</v>
       </c>
       <c r="J34" t="n">
-        <v>11.6</v>
+        <v>11.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1730,17 +1630,17 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>11.69</v>
       </c>
       <c r="J35" t="n">
-        <v>11.6</v>
+        <v>11.74</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1771,19 +1671,11 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1812,19 +1704,15 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>11.69</v>
       </c>
       <c r="J37" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.69</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1853,15 +1741,17 @@
         <v>-3785527.025400001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J38" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1892,11 +1782,13 @@
         <v>-3582833.7903</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11.63</v>
+      </c>
       <c r="J39" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1931,13 +1823,11 @@
         <v>-3588093.7903</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1972,13 +1862,13 @@
         <v>-3574409.893600001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>11.76</v>
       </c>
       <c r="J41" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2013,13 +1903,11 @@
         <v>-3552103.475300001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2054,13 +1942,11 @@
         <v>-3530966.922300001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2095,13 +1981,11 @@
         <v>-3535845.757900001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2136,13 +2020,11 @@
         <v>-3549126.6327</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2181,7 +2063,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2220,7 +2102,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2259,7 +2141,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2298,7 +2180,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2337,7 +2219,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2372,13 +2254,11 @@
         <v>-3680742.2746</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2413,13 +2293,11 @@
         <v>-3692904.2319</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2454,13 +2332,11 @@
         <v>-3873633.7559</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2495,13 +2371,11 @@
         <v>-3899751.7</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2536,13 +2410,11 @@
         <v>-3905438.7171</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2577,13 +2449,11 @@
         <v>-3905308.639</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>11.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2618,13 +2488,11 @@
         <v>-3905308.639</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2659,13 +2527,11 @@
         <v>-4088651.9057</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2700,13 +2566,11 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2741,13 +2605,11 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2786,7 +2648,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2825,7 +2687,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2864,7 +2726,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2903,7 +2765,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2942,7 +2804,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2981,7 +2843,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3020,7 +2882,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3059,7 +2921,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3098,7 +2960,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3137,7 +2999,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3176,7 +3038,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3215,7 +3077,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3254,7 +3116,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3293,7 +3155,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3332,7 +3194,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3371,7 +3233,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3410,7 +3272,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3449,7 +3311,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3488,7 +3350,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3527,7 +3389,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3562,11 +3424,13 @@
         <v>-3513778.955800001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J81" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3601,11 +3465,13 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11.76</v>
+      </c>
       <c r="J82" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3640,11 +3506,13 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J83" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3679,11 +3547,13 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J84" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3718,11 +3588,13 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J85" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3761,7 +3633,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3800,7 +3672,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3839,7 +3711,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3878,7 +3750,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3917,7 +3789,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3956,7 +3828,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3995,7 +3867,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4034,7 +3906,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4073,7 +3945,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4112,7 +3984,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4151,7 +4023,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4190,7 +4062,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4229,7 +4101,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4268,7 +4140,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4307,7 +4179,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4346,7 +4218,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4385,7 +4257,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4424,7 +4296,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4463,7 +4335,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4502,7 +4374,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4541,7 +4413,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4580,7 +4452,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4619,7 +4491,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4658,7 +4530,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4697,7 +4569,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4736,7 +4608,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4775,7 +4647,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4814,7 +4686,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4853,7 +4725,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4892,7 +4764,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4931,7 +4803,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4970,7 +4842,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5009,7 +4881,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5048,7 +4920,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5083,23 +4955,21 @@
         <v>907370.3891472339</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.089827586206897</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.03030303030303</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5124,11 +4994,17 @@
         <v>1013234.428347234</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5160,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5193,8 +5075,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5223,11 +5111,17 @@
         <v>830132.5295472339</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5259,8 +5153,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5289,11 +5189,17 @@
         <v>612012.922947234</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5325,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5358,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5391,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5424,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5454,15 +5384,23 @@
         <v>682157.1495472339</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>1.096796407185629</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.03568320278503</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5487,7 +5425,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5586,7 +5524,7 @@
         <v>592131.288147234</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5619,7 +5557,7 @@
         <v>166120.116647234</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5652,7 +5590,7 @@
         <v>-191920.648952766</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5685,7 +5623,7 @@
         <v>-191920.648952766</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5718,7 +5656,7 @@
         <v>-191920.648952766</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5751,7 +5689,7 @@
         <v>-200031.526352766</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5784,7 +5722,7 @@
         <v>-127607.439752766</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5817,7 +5755,7 @@
         <v>-207814.815752766</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5850,7 +5788,7 @@
         <v>-259014.588352766</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5883,7 +5821,7 @@
         <v>-351687.212652766</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5916,7 +5854,7 @@
         <v>-359494.846152766</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5949,7 +5887,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5982,7 +5920,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6015,7 +5953,7 @@
         <v>-656055.6341527659</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6114,7 +6052,7 @@
         <v>-673334.5440527658</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6180,7 +6118,7 @@
         <v>-500178.2397527659</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6213,7 +6151,7 @@
         <v>-496563.7519527659</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6246,7 +6184,7 @@
         <v>-496563.7519527659</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6279,7 +6217,7 @@
         <v>-479675.5338527659</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6642,7 +6580,7 @@
         <v>-559282.4384527659</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6675,7 +6613,7 @@
         <v>-565273.6647527659</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6840,7 +6778,7 @@
         <v>-739938.079952766</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6939,7 +6877,7 @@
         <v>-818699.438952766</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7038,7 +6976,7 @@
         <v>-996102.5207527661</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -8534,6 +8472,6 @@
       <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,14 +979,10 @@
         <v>-3339471.0692</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1016,19 +1012,11 @@
         <v>-3339471.0692</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1057,19 +1045,11 @@
         <v>-3414828.9151</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1098,14 +1078,10 @@
         <v>-3414828.9151</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1135,19 +1111,11 @@
         <v>-3406648.8717</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1176,19 +1144,11 @@
         <v>-3406648.8717</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1217,14 +1177,10 @@
         <v>-3455433.8142</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>11.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1254,19 +1210,11 @@
         <v>-3455390.8142</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1298,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1375,10 @@
         <v>-3571450.179</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J30" t="n">
-        <v>11.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1470,19 +1408,11 @@
         <v>-3571407.179</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1511,19 +1441,11 @@
         <v>-3571407.179</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1474,10 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1589,19 +1507,11 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1630,19 +1540,11 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1606,10 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1741,2061 +1639,1733 @@
         <v>-3785527.025400001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>202693.2351</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-3582833.7903</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5260</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-3588093.7903</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13683.8967</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3574409.893600001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F42" t="n">
+        <v>22306.4183</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-3552103.475300001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21136.553</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-3530966.922300001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4878.8356</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-3535845.757900001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13280.8748</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-3549126.6327</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F46" t="n">
+        <v>486.5893</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-3548640.0434</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>132102.2312</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-3680742.2746</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>294325.8936</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-3680742.2746</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4135.5721</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-3680742.2746</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D50" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>93652.0448</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-3680742.2746</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5687.0171</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-3680742.2746</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12161.9573</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-3692904.2319</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F53" t="n">
+        <v>180729.524</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-3873633.7559</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26117.9441</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-3899751.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C55" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5687.0171</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-3905438.7171</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>130.0781</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-3905308.639</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>313.5581</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-3905308.639</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F58" t="n">
+        <v>183343.2667</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-4088651.9057</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6627.253</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-4095279.1587</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1662.6645</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-4095279.1587</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F61" t="n">
+        <v>44997.1376</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-4140276.2963</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60701.455</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-4140276.2963</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D63" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F63" t="n">
+        <v>64661.157</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4140276.2963</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F64" t="n">
+        <v>477516.1594</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-3662760.1369</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F65" t="n">
+        <v>81619.66280000001</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-3662760.1369</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25261.3891</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-3637498.7478</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-3647498.7478</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F68" t="n">
+        <v>76654.6771</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-3724153.4249</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F69" t="n">
+        <v>42</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-3724111.4249</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>188843.0313</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-3535268.393600001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F71" t="n">
+        <v>243804.5656</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-3291463.828000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F72" t="n">
+        <v>47.4081</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-3291416.419900001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F73" t="n">
+        <v>36201.9314</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-3291416.419900001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F74" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-3341416.419900001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D75" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3077.206</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-3341416.419900001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4145.8852</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-3341416.419900001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1590.2043</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-3343006.6242</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-3353006.6242</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D79" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F79" t="n">
+        <v>27403.2412</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3380409.8654</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10980.7308</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-3380409.8654</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F81" t="n">
+        <v>133369.0904</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3513778.955800001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12364.8482</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-3501414.107600001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10819.2421</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-3501414.107600001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F84" t="n">
+        <v>16228.8633</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3501414.107600001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14876.4579</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3486537.649700001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>121463.5406</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3486537.649700001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>429244.656</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3915782.305700001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>62075.714</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3915782.305700001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>22457.5645</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3915782.305700001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12649.4919</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3903132.813800001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E39" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>202693.2351</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-3582833.7903</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="C40" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5260</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-3588093.7903</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="C41" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D41" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E41" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="F41" t="n">
-        <v>13683.8967</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-3574409.893600001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E42" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F42" t="n">
-        <v>22306.4183</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-3552103.475300001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F43" t="n">
-        <v>21136.553</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-3530966.922300001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4878.8356</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-3535845.757900001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="C45" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F45" t="n">
-        <v>13280.8748</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-3549126.6327</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="C46" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E46" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F46" t="n">
-        <v>486.5893</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-3548640.0434</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C47" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F47" t="n">
-        <v>132102.2312</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="C48" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="E48" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F48" t="n">
-        <v>294325.8936</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4135.5721</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C50" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D50" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E50" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F50" t="n">
-        <v>93652.0448</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C51" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D51" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E51" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5687.0171</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C52" t="n">
-        <v>12</v>
-      </c>
-      <c r="D52" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12161.9573</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-3692904.2319</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C53" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="D53" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E53" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F53" t="n">
-        <v>180729.524</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-3873633.7559</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C54" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D54" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="E54" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>26117.9441</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-3899751.7</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C55" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D55" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E55" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5687.0171</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-3905438.7171</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>130.0781</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-3905308.639</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>313.5581</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-3905308.639</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C58" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D58" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E58" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F58" t="n">
-        <v>183343.2667</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-4088651.9057</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6627.253</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-4095279.1587</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1662.6645</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-4095279.1587</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="C61" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D61" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F61" t="n">
-        <v>44997.1376</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-4140276.2963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="C62" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D62" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F62" t="n">
-        <v>60701.455</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-4140276.2963</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C63" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D63" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F63" t="n">
-        <v>64661.157</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-4140276.2963</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D64" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="F64" t="n">
-        <v>477516.1594</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-3662760.1369</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C65" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D65" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F65" t="n">
-        <v>81619.66280000001</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-3662760.1369</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C66" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D66" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F66" t="n">
-        <v>25261.3891</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-3637498.7478</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="D67" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="F67" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-3647498.7478</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>76654.6771</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-3724153.4249</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C69" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F69" t="n">
-        <v>42</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-3724111.4249</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>188843.0313</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-3535268.393600001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F71" t="n">
-        <v>243804.5656</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-3291463.828000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E72" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F72" t="n">
-        <v>47.4081</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-3291416.419900001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F73" t="n">
-        <v>36201.9314</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-3291416.419900001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C74" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F74" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-3341416.419900001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C75" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D75" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E75" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3077.206</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-3341416.419900001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E76" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4145.8852</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-3341416.419900001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C77" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D77" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1590.2043</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-3343006.6242</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D78" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="F78" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-3353006.6242</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D79" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E79" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F79" t="n">
-        <v>27403.2412</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-3380409.8654</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C80" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D80" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E80" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10980.7308</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-3380409.8654</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F81" t="n">
-        <v>133369.0904</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-3513778.955800001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E82" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F82" t="n">
-        <v>12364.8482</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-3501414.107600001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10819.2421</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-3501414.107600001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F84" t="n">
-        <v>16228.8633</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-3501414.107600001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>14876.4579</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-3486537.649700001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D86" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F86" t="n">
-        <v>121463.5406</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-3486537.649700001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>429244.656</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-3915782.305700001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>62075.714</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3915782.305700001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>22457.5645</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-3915782.305700001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F90" t="n">
-        <v>12649.4919</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-3903132.813800001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3824,12 +3394,12 @@
         <v>-3903509.784300001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,12 +3433,12 @@
         <v>-3903467.784300001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,12 +3472,12 @@
         <v>-3904682.275000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,12 +3511,12 @@
         <v>-3904682.275000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,12 +3550,12 @@
         <v>-3945715.939600001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,12 +3589,12 @@
         <v>-3945672.939600001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,12 +3628,12 @@
         <v>-3503187.230136075</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4139,9 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,9 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,9 +3781,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,9 +3818,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,9 +3855,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,9 +3892,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4373,9 +3929,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,9 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,9 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,9 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,9 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,9 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4607,9 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,9 +4188,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4685,9 +4225,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,9 +4262,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,9 +4336,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,9 +4373,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,9 +4410,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4919,9 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,9 +4484,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4997,9 +4521,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,9 +4558,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,9 +4595,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,9 +4632,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,9 +4669,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,9 +4706,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5231,9 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,9 +4780,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,9 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,9 +4854,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,55 +4888,53 @@
         <v>682157.1495472339</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="F132" t="n">
+        <v>69785.0003</v>
+      </c>
+      <c r="G132" t="n">
+        <v>612372.149247234</v>
+      </c>
+      <c r="H132" t="n">
         <v>2</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K131" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1.096796407185629</v>
-      </c>
-      <c r="M131" t="n">
-        <v>1.03568320278503</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="F132" t="n">
-        <v>69785.0003</v>
-      </c>
-      <c r="G132" t="n">
-        <v>612372.149247234</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -5524,7 +5026,7 @@
         <v>592131.288147234</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5557,7 +5059,7 @@
         <v>166120.116647234</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5590,7 +5092,7 @@
         <v>-191920.648952766</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5623,7 +5125,7 @@
         <v>-191920.648952766</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5656,7 +5158,7 @@
         <v>-191920.648952766</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5689,7 +5191,7 @@
         <v>-200031.526352766</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5722,7 +5224,7 @@
         <v>-127607.439752766</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5755,7 +5257,7 @@
         <v>-207814.815752766</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5788,7 +5290,7 @@
         <v>-259014.588352766</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5821,7 +5323,7 @@
         <v>-351687.212652766</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5953,7 +5455,7 @@
         <v>-656055.6341527659</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6052,7 +5554,7 @@
         <v>-673334.5440527658</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6118,7 +5620,7 @@
         <v>-500178.2397527659</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6151,7 +5653,7 @@
         <v>-496563.7519527659</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6184,7 +5686,7 @@
         <v>-496563.7519527659</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6217,7 +5719,7 @@
         <v>-479675.5338527659</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -8472,6 +7974,6 @@
       <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -1540,10 +1540,14 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1573,11 +1577,19 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1618,19 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1659,19 @@
         <v>-3785527.025400001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1700,19 @@
         <v>-3582833.7903</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1741,19 @@
         <v>-3588093.7903</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1782,19 @@
         <v>-3574409.893600001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1823,19 @@
         <v>-3552103.475300001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1864,19 @@
         <v>-3530966.922300001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1908,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1947,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1986,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2025,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2064,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2103,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2142,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2181,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2220,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2259,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2298,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2334,19 @@
         <v>-3905438.7171</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2375,19 @@
         <v>-3905308.639</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2416,19 @@
         <v>-3905308.639</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2457,19 @@
         <v>-4088651.9057</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2498,19 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2539,19 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2580,19 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2621,19 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2662,19 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2703,19 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2744,19 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2941,19 @@
         <v>-3535268.393600001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2985,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3063,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3102,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3141,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3180,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3216,19 @@
         <v>-3343006.6242</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J77" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3257,19 @@
         <v>-3353006.6242</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3298,19 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3339,19 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J80" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3380,19 @@
         <v>-3513778.955800001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J81" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3421,19 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J82" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3462,19 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J83" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3503,19 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J84" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3544,19 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3585,19 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3626,19 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3667,19 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3708,19 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3360,10 +3754,12 @@
       <c r="I90" t="n">
         <v>11.7</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3399,7 +3795,9 @@
       <c r="I91" t="n">
         <v>11.92</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,7 +3836,9 @@
       <c r="I92" t="n">
         <v>11.74</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,7 +3877,9 @@
       <c r="I93" t="n">
         <v>11.91</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,7 +3918,9 @@
       <c r="I94" t="n">
         <v>11.77</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,7 +3959,9 @@
       <c r="I95" t="n">
         <v>11.77</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3594,7 +4000,9 @@
       <c r="I96" t="n">
         <v>11.67</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3633,7 +4041,9 @@
       <c r="I97" t="n">
         <v>11.77</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,7 +4080,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3707,7 +4119,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,7 +4158,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3781,7 +4197,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,7 +4236,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,7 +4275,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3892,7 +4314,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,7 +4353,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3966,7 +4392,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,7 +4431,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,7 +4470,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,7 +4509,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4114,7 +4548,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,7 +4587,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,7 +4626,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,7 +4665,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,7 +4704,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,7 +4743,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,7 +4782,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4373,7 +4821,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,19 +4857,23 @@
         <v>1315426.303847234</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.69</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>1.125881094952951</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.03568320278503</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4444,15 +4898,11 @@
         <v>1088404.407347234</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4481,15 +4931,11 @@
         <v>907370.3891472339</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4518,15 +4964,11 @@
         <v>1013234.428347234</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4555,15 +4997,11 @@
         <v>803237.0422472339</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +5034,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4629,15 +5063,11 @@
         <v>830132.5295472339</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4666,15 +5096,11 @@
         <v>612012.922947234</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4703,15 +5129,11 @@
         <v>612012.922947234</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4740,15 +5162,11 @@
         <v>612012.922947234</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4777,15 +5195,11 @@
         <v>612012.922947234</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4814,15 +5228,11 @@
         <v>612012.922947234</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +5265,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4892,11 +5298,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4929,12 +5331,10 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -4960,7 +5360,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4993,7 +5393,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5059,7 +5459,7 @@
         <v>166120.116647234</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5356,7 +5756,7 @@
         <v>-359494.846152766</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5389,7 +5789,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5422,7 +5822,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest TRV.xlsx
+++ b/BackTest/2020-01-21 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>-2013731.1935</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4157.7766</v>
       </c>
       <c r="G3" t="n">
-        <v>-2017888.9701</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>130000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1887888.9701</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>45099.7365</v>
       </c>
       <c r="G5" t="n">
-        <v>-1887888.9701</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>231163.2687</v>
       </c>
       <c r="G6" t="n">
-        <v>-2119052.2388</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>38965.7162</v>
       </c>
       <c r="G7" t="n">
-        <v>-2158017.955</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3521.0744</v>
       </c>
       <c r="G8" t="n">
-        <v>-2154496.8806</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>168914.2591</v>
       </c>
       <c r="G9" t="n">
-        <v>-2154496.8806</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>17131.0805</v>
       </c>
       <c r="G10" t="n">
-        <v>-2171627.9611</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4292.1904</v>
       </c>
       <c r="G11" t="n">
-        <v>-2171627.9611</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>809323.5916</v>
       </c>
       <c r="G12" t="n">
-        <v>-2980951.5527</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>99861.41620000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-2980951.5527</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,19 @@
         <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>-2980908.5527</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +837,23 @@
         <v>103212.4967</v>
       </c>
       <c r="G15" t="n">
-        <v>-3084121.0494</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>11.68</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +875,21 @@
         <v>5912.5081</v>
       </c>
       <c r="G16" t="n">
-        <v>-3078208.5413</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,23 @@
         <v>261305.5279</v>
       </c>
       <c r="G17" t="n">
-        <v>-3339514.0692</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>11.64</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +949,23 @@
         <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>-3339471.0692</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +987,23 @@
         <v>46128.0599</v>
       </c>
       <c r="G19" t="n">
-        <v>-3339471.0692</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>11.63</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1025,23 @@
         <v>75357.8459</v>
       </c>
       <c r="G20" t="n">
-        <v>-3414828.9151</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>11.63</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1063,23 @@
         <v>60442.1541</v>
       </c>
       <c r="G21" t="n">
-        <v>-3414828.9151</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>11.62</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1101,23 @@
         <v>8180.0434</v>
       </c>
       <c r="G22" t="n">
-        <v>-3406648.8717</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>11.62</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1139,23 @@
         <v>246828.1012</v>
       </c>
       <c r="G23" t="n">
-        <v>-3406648.8717</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>11.72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1177,23 @@
         <v>48784.9425</v>
       </c>
       <c r="G24" t="n">
-        <v>-3455433.8142</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>11.72</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1215,23 @@
         <v>43</v>
       </c>
       <c r="G25" t="n">
-        <v>-3455390.8142</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>11.59</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1253,21 @@
         <v>43</v>
       </c>
       <c r="G26" t="n">
-        <v>-3455347.8142</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1289,21 @@
         <v>34444.702</v>
       </c>
       <c r="G27" t="n">
-        <v>-3489792.5162</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1325,21 @@
         <v>81619.66280000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-3571412.179</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1361,21 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>-3571369.179</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1397,21 @@
         <v>81</v>
       </c>
       <c r="G30" t="n">
-        <v>-3571450.179</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1433,21 @@
         <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>-3571407.179</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1469,21 @@
         <v>10736.1069</v>
       </c>
       <c r="G32" t="n">
-        <v>-3571407.179</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1505,21 @@
         <v>172523.3424</v>
       </c>
       <c r="G33" t="n">
-        <v>-3743930.5214</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1541,21 @@
         <v>9159.166800000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-3743930.5214</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,22 +1577,21 @@
         <v>6806.4921</v>
       </c>
       <c r="G35" t="n">
-        <v>-3743930.5214</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1574,26 +1613,21 @@
         <v>41596.504</v>
       </c>
       <c r="G36" t="n">
-        <v>-3743930.5214</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1615,26 +1649,21 @@
         <v>15671.2461</v>
       </c>
       <c r="G37" t="n">
-        <v>-3743930.5214</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1656,26 +1685,21 @@
         <v>41596.504</v>
       </c>
       <c r="G38" t="n">
-        <v>-3785527.025400001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1697,26 +1721,21 @@
         <v>202693.2351</v>
       </c>
       <c r="G39" t="n">
-        <v>-3582833.7903</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1738,26 +1757,21 @@
         <v>5260</v>
       </c>
       <c r="G40" t="n">
-        <v>-3588093.7903</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1779,26 +1793,21 @@
         <v>13683.8967</v>
       </c>
       <c r="G41" t="n">
-        <v>-3574409.893600001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1820,26 +1829,21 @@
         <v>22306.4183</v>
       </c>
       <c r="G42" t="n">
-        <v>-3552103.475300001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1861,26 +1865,21 @@
         <v>21136.553</v>
       </c>
       <c r="G43" t="n">
-        <v>-3530966.922300001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1902,24 +1901,21 @@
         <v>4878.8356</v>
       </c>
       <c r="G44" t="n">
-        <v>-3535845.757900001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1941,24 +1937,21 @@
         <v>13280.8748</v>
       </c>
       <c r="G45" t="n">
-        <v>-3549126.6327</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1980,24 +1973,21 @@
         <v>486.5893</v>
       </c>
       <c r="G46" t="n">
-        <v>-3548640.0434</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2019,24 +2009,21 @@
         <v>132102.2312</v>
       </c>
       <c r="G47" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,24 +2045,21 @@
         <v>294325.8936</v>
       </c>
       <c r="G48" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2097,24 +2081,21 @@
         <v>4135.5721</v>
       </c>
       <c r="G49" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2136,24 +2117,21 @@
         <v>93652.0448</v>
       </c>
       <c r="G50" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2175,24 +2153,21 @@
         <v>5687.0171</v>
       </c>
       <c r="G51" t="n">
-        <v>-3680742.2746</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2214,24 +2189,21 @@
         <v>12161.9573</v>
       </c>
       <c r="G52" t="n">
-        <v>-3692904.2319</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2253,24 +2225,21 @@
         <v>180729.524</v>
       </c>
       <c r="G53" t="n">
-        <v>-3873633.7559</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2292,24 +2261,21 @@
         <v>26117.9441</v>
       </c>
       <c r="G54" t="n">
-        <v>-3899751.7</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2331,26 +2297,21 @@
         <v>5687.0171</v>
       </c>
       <c r="G55" t="n">
-        <v>-3905438.7171</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2372,26 +2333,21 @@
         <v>130.0781</v>
       </c>
       <c r="G56" t="n">
-        <v>-3905308.639</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2413,26 +2369,21 @@
         <v>313.5581</v>
       </c>
       <c r="G57" t="n">
-        <v>-3905308.639</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2454,26 +2405,21 @@
         <v>183343.2667</v>
       </c>
       <c r="G58" t="n">
-        <v>-4088651.9057</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2495,26 +2441,21 @@
         <v>6627.253</v>
       </c>
       <c r="G59" t="n">
-        <v>-4095279.1587</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2536,26 +2477,21 @@
         <v>1662.6645</v>
       </c>
       <c r="G60" t="n">
-        <v>-4095279.1587</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2577,26 +2513,21 @@
         <v>44997.1376</v>
       </c>
       <c r="G61" t="n">
-        <v>-4140276.2963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,26 +2549,21 @@
         <v>60701.455</v>
       </c>
       <c r="G62" t="n">
-        <v>-4140276.2963</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2659,26 +2585,21 @@
         <v>64661.157</v>
       </c>
       <c r="G63" t="n">
-        <v>-4140276.2963</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2700,26 +2621,21 @@
         <v>477516.1594</v>
       </c>
       <c r="G64" t="n">
-        <v>-3662760.1369</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2741,26 +2657,21 @@
         <v>81619.66280000001</v>
       </c>
       <c r="G65" t="n">
-        <v>-3662760.1369</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,24 +2693,21 @@
         <v>25261.3891</v>
       </c>
       <c r="G66" t="n">
-        <v>-3637498.7478</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2821,24 +2729,21 @@
         <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>-3647498.7478</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2860,24 +2765,21 @@
         <v>76654.6771</v>
       </c>
       <c r="G68" t="n">
-        <v>-3724153.4249</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2899,24 +2801,21 @@
         <v>42</v>
       </c>
       <c r="G69" t="n">
-        <v>-3724111.4249</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2938,26 +2837,21 @@
         <v>188843.0313</v>
       </c>
       <c r="G70" t="n">
-        <v>-3535268.393600001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2979,24 +2873,21 @@
         <v>243804.5656</v>
       </c>
       <c r="G71" t="n">
-        <v>-3291463.828000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3018,24 +2909,21 @@
         <v>47.4081</v>
       </c>
       <c r="G72" t="n">
-        <v>-3291416.419900001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3057,24 +2945,21 @@
         <v>36201.9314</v>
       </c>
       <c r="G73" t="n">
-        <v>-3291416.419900001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3096,24 +2981,21 @@
         <v>50000</v>
       </c>
       <c r="G74" t="n">
-        <v>-3341416.419900001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3135,24 +3017,21 @@
         <v>3077.206</v>
       </c>
       <c r="G75" t="n">
-        <v>-3341416.419900001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3174,24 +3053,21 @@
         <v>4145.8852</v>
       </c>
       <c r="G76" t="n">
-        <v>-3341416.419900001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3213,26 +3089,21 @@
         <v>1590.2043</v>
       </c>
       <c r="G77" t="n">
-        <v>-3343006.6242</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J77" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,26 +3125,21 @@
         <v>10000</v>
       </c>
       <c r="G78" t="n">
-        <v>-3353006.6242</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3295,26 +3161,21 @@
         <v>27403.2412</v>
       </c>
       <c r="G79" t="n">
-        <v>-3380409.8654</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J79" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,26 +3197,21 @@
         <v>10980.7308</v>
       </c>
       <c r="G80" t="n">
-        <v>-3380409.8654</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3377,26 +3233,21 @@
         <v>133369.0904</v>
       </c>
       <c r="G81" t="n">
-        <v>-3513778.955800001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3418,26 +3269,21 @@
         <v>12364.8482</v>
       </c>
       <c r="G82" t="n">
-        <v>-3501414.107600001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3459,26 +3305,21 @@
         <v>10819.2421</v>
       </c>
       <c r="G83" t="n">
-        <v>-3501414.107600001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3500,26 +3341,21 @@
         <v>16228.8633</v>
       </c>
       <c r="G84" t="n">
-        <v>-3501414.107600001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3541,26 +3377,21 @@
         <v>14876.4579</v>
       </c>
       <c r="G85" t="n">
-        <v>-3486537.649700001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3582,26 +3413,21 @@
         <v>121463.5406</v>
       </c>
       <c r="G86" t="n">
-        <v>-3486537.649700001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3623,26 +3449,21 @@
         <v>429244.656</v>
       </c>
       <c r="G87" t="n">
-        <v>-3915782.305700001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3664,26 +3485,21 @@
         <v>62075.714</v>
       </c>
       <c r="G88" t="n">
-        <v>-3915782.305700001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3705,26 +3521,21 @@
         <v>22457.5645</v>
       </c>
       <c r="G89" t="n">
-        <v>-3915782.305700001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3746,26 +3557,21 @@
         <v>12649.4919</v>
       </c>
       <c r="G90" t="n">
-        <v>-3903132.813800001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3787,26 +3593,21 @@
         <v>376.9705</v>
       </c>
       <c r="G91" t="n">
-        <v>-3903509.784300001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3828,26 +3629,21 @@
         <v>42</v>
       </c>
       <c r="G92" t="n">
-        <v>-3903467.784300001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3869,26 +3665,21 @@
         <v>1214.4907</v>
       </c>
       <c r="G93" t="n">
-        <v>-3904682.275000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3910,26 +3701,21 @@
         <v>11972.55734919286</v>
       </c>
       <c r="G94" t="n">
-        <v>-3904682.275000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3951,26 +3737,21 @@
         <v>41033.6646</v>
       </c>
       <c r="G95" t="n">
-        <v>-3945715.939600001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3992,26 +3773,21 @@
         <v>43</v>
       </c>
       <c r="G96" t="n">
-        <v>-3945672.939600001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J96" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4033,26 +3809,21 @@
         <v>442485.709463926</v>
       </c>
       <c r="G97" t="n">
-        <v>-3503187.230136075</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J97" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4074,24 +3845,21 @@
         <v>254620.912</v>
       </c>
       <c r="G98" t="n">
-        <v>-3248566.318136075</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4113,24 +3881,21 @@
         <v>402571.4204</v>
       </c>
       <c r="G99" t="n">
-        <v>-2845994.897736074</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4152,24 +3917,21 @@
         <v>178273.6406868812</v>
       </c>
       <c r="G100" t="n">
-        <v>-2667721.257049193</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4191,24 +3953,21 @@
         <v>124887.8887</v>
       </c>
       <c r="G101" t="n">
-        <v>-2542833.368349193</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4230,24 +3989,21 @@
         <v>952645.5450131188</v>
       </c>
       <c r="G102" t="n">
-        <v>-1590187.823336074</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4269,24 +4025,21 @@
         <v>305872.5509</v>
       </c>
       <c r="G103" t="n">
-        <v>-1284315.272436074</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4308,24 +4061,21 @@
         <v>982794.9059840125</v>
       </c>
       <c r="G104" t="n">
-        <v>-301520.3664520619</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4347,24 +4097,21 @@
         <v>62656.88280070422</v>
       </c>
       <c r="G105" t="n">
-        <v>-364177.2492527661</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4386,24 +4133,21 @@
         <v>18879.5169</v>
       </c>
       <c r="G106" t="n">
-        <v>-383056.7661527661</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4425,24 +4169,21 @@
         <v>64885.6952</v>
       </c>
       <c r="G107" t="n">
-        <v>-318171.0709527661</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4464,24 +4205,21 @@
         <v>157329.2626</v>
       </c>
       <c r="G108" t="n">
-        <v>-475500.3335527661</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4503,24 +4241,21 @@
         <v>322505.9553</v>
       </c>
       <c r="G109" t="n">
-        <v>-152994.3782527662</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4542,24 +4277,21 @@
         <v>324610.4448</v>
       </c>
       <c r="G110" t="n">
-        <v>-477604.8230527662</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4581,24 +4313,21 @@
         <v>4400</v>
       </c>
       <c r="G111" t="n">
-        <v>-473204.8230527662</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4620,24 +4349,21 @@
         <v>395361.9014</v>
       </c>
       <c r="G112" t="n">
-        <v>-868566.7244527661</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4659,24 +4385,21 @@
         <v>73925.894</v>
       </c>
       <c r="G113" t="n">
-        <v>-794640.8304527662</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4698,24 +4421,21 @@
         <v>40</v>
       </c>
       <c r="G114" t="n">
-        <v>-794600.8304527662</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4737,24 +4457,21 @@
         <v>239136.0099</v>
       </c>
       <c r="G115" t="n">
-        <v>-555464.8205527661</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4776,24 +4493,21 @@
         <v>247917.5562</v>
       </c>
       <c r="G116" t="n">
-        <v>-307547.2643527661</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4815,24 +4529,21 @@
         <v>228116.3585</v>
       </c>
       <c r="G117" t="n">
-        <v>-79430.9058527661</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4854,26 +4565,21 @@
         <v>1394857.2097</v>
       </c>
       <c r="G118" t="n">
-        <v>1315426.303847234</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1.125881094952951</v>
-      </c>
-      <c r="M118" t="n">
-        <v>1.03568320278503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4895,18 +4601,23 @@
         <v>227021.8965</v>
       </c>
       <c r="G119" t="n">
-        <v>1088404.407347234</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1.13140312771503</v>
+      </c>
       <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>1.03388357949609</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4928,18 +4639,15 @@
         <v>181034.0182</v>
       </c>
       <c r="G120" t="n">
-        <v>907370.3891472339</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4961,18 +4669,15 @@
         <v>105864.0392</v>
       </c>
       <c r="G121" t="n">
-        <v>1013234.428347234</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4994,18 +4699,15 @@
         <v>209997.3861</v>
       </c>
       <c r="G122" t="n">
-        <v>803237.0422472339</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5027,18 +4729,15 @@
         <v>115712.7233</v>
       </c>
       <c r="G123" t="n">
-        <v>687524.318947234</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5060,18 +4759,15 @@
         <v>142608.2106</v>
       </c>
       <c r="G124" t="n">
-        <v>830132.5295472339</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5093,18 +4789,15 @@
         <v>218119.6066</v>
       </c>
       <c r="G125" t="n">
-        <v>612012.922947234</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5126,18 +4819,15 @@
         <v>18018.3603</v>
       </c>
       <c r="G126" t="n">
-        <v>612012.922947234</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5159,18 +4849,15 @@
         <v>47060.9444</v>
       </c>
       <c r="G127" t="n">
-        <v>612012.922947234</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5192,18 +4879,15 @@
         <v>150744.8104</v>
       </c>
       <c r="G128" t="n">
-        <v>612012.922947234</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5225,18 +4909,15 @@
         <v>196324.5417</v>
       </c>
       <c r="G129" t="n">
-        <v>612012.922947234</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5258,18 +4939,15 @@
         <v>74569.47259999999</v>
       </c>
       <c r="G130" t="n">
-        <v>612012.922947234</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5291,18 +4969,15 @@
         <v>70144.22659999999</v>
       </c>
       <c r="G131" t="n">
-        <v>682157.1495472339</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5324,18 +4999,15 @@
         <v>69785.0003</v>
       </c>
       <c r="G132" t="n">
-        <v>612372.149247234</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5357,18 +5029,15 @@
         <v>3125.1875</v>
       </c>
       <c r="G133" t="n">
-        <v>612372.149247234</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5390,18 +5059,15 @@
         <v>60202.0425</v>
       </c>
       <c r="G134" t="n">
-        <v>612372.149247234</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5423,18 +5089,15 @@
         <v>20240.8611</v>
       </c>
       <c r="G135" t="n">
-        <v>592131.288147234</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5456,18 +5119,15 @@
         <v>426011.1715</v>
       </c>
       <c r="G136" t="n">
-        <v>166120.116647234</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5489,18 +5149,15 @@
         <v>358040.7656</v>
       </c>
       <c r="G137" t="n">
-        <v>-191920.648952766</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5522,18 +5179,15 @@
         <v>25166.929</v>
       </c>
       <c r="G138" t="n">
-        <v>-191920.648952766</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5555,18 +5209,15 @@
         <v>7300</v>
       </c>
       <c r="G139" t="n">
-        <v>-191920.648952766</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5588,18 +5239,15 @@
         <v>8110.8774</v>
       </c>
       <c r="G140" t="n">
-        <v>-200031.526352766</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5621,18 +5269,15 @@
         <v>72424.0866</v>
       </c>
       <c r="G141" t="n">
-        <v>-127607.439752766</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5654,18 +5299,15 @@
         <v>80207.376</v>
       </c>
       <c r="G142" t="n">
-        <v>-207814.815752766</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5687,18 +5329,15 @@
         <v>51199.7726</v>
       </c>
       <c r="G143" t="n">
-        <v>-259014.588352766</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5720,18 +5359,15 @@
         <v>92672.6243</v>
       </c>
       <c r="G144" t="n">
-        <v>-351687.212652766</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5753,18 +5389,15 @@
         <v>7807.6335</v>
       </c>
       <c r="G145" t="n">
-        <v>-359494.846152766</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5786,18 +5419,15 @@
         <v>301554.1764</v>
       </c>
       <c r="G146" t="n">
-        <v>-661049.0225527659</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5819,18 +5449,15 @@
         <v>26102.652</v>
       </c>
       <c r="G147" t="n">
-        <v>-661049.0225527659</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5852,18 +5479,15 @@
         <v>4993.3884</v>
       </c>
       <c r="G148" t="n">
-        <v>-656055.6341527659</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5885,18 +5509,15 @@
         <v>2379.5362</v>
       </c>
       <c r="G149" t="n">
-        <v>-658435.1703527658</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5918,18 +5539,15 @@
         <v>68522.1663</v>
       </c>
       <c r="G150" t="n">
-        <v>-726957.3366527659</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5951,18 +5569,15 @@
         <v>53622.7926</v>
       </c>
       <c r="G151" t="n">
-        <v>-673334.5440527658</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5984,18 +5599,15 @@
         <v>173156.3043</v>
       </c>
       <c r="G152" t="n">
-        <v>-500178.2397527659</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6017,18 +5629,15 @@
         <v>1506.0027</v>
       </c>
       <c r="G153" t="n">
-        <v>-500178.2397527659</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6050,18 +5659,15 @@
         <v>3614.4878</v>
       </c>
       <c r="G154" t="n">
-        <v>-496563.7519527659</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6083,18 +5689,15 @@
         <v>1111</v>
       </c>
       <c r="G155" t="n">
-        <v>-496563.7519527659</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6116,18 +5719,15 @@
         <v>16888.2181</v>
       </c>
       <c r="G156" t="n">
-        <v>-479675.5338527659</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6149,18 +5749,15 @@
         <v>100033.5613</v>
       </c>
       <c r="G157" t="n">
-        <v>-579709.0951527659</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6182,18 +5779,15 @@
         <v>70783.98299999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-579709.0951527659</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6215,18 +5809,15 @@
         <v>7695.7111</v>
       </c>
       <c r="G159" t="n">
-        <v>-572013.3840527659</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6248,18 +5839,15 @@
         <v>18969.1455</v>
       </c>
       <c r="G160" t="n">
-        <v>-553044.2385527659</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6281,18 +5869,15 @@
         <v>28755.7259</v>
       </c>
       <c r="G161" t="n">
-        <v>-553044.2385527659</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6314,18 +5899,15 @@
         <v>1828.6161</v>
       </c>
       <c r="G162" t="n">
-        <v>-554872.8546527659</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6347,18 +5929,15 @@
         <v>10209.5285</v>
       </c>
       <c r="G163" t="n">
-        <v>-544663.3261527659</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6380,18 +5959,15 @@
         <v>81</v>
       </c>
       <c r="G164" t="n">
-        <v>-544744.3261527659</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6413,18 +5989,15 @@
         <v>43</v>
       </c>
       <c r="G165" t="n">
-        <v>-544701.3261527659</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6446,18 +6019,15 @@
         <v>24058.3259</v>
       </c>
       <c r="G166" t="n">
-        <v>-544701.3261527659</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6479,18 +6049,15 @@
         <v>14581.1123</v>
       </c>
       <c r="G167" t="n">
-        <v>-559282.4384527659</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6512,18 +6079,15 @@
         <v>5991.2263</v>
       </c>
       <c r="G168" t="n">
-        <v>-565273.6647527659</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6545,18 +6109,15 @@
         <v>12415.2193</v>
       </c>
       <c r="G169" t="n">
-        <v>-565273.6647527659</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6578,18 +6139,15 @@
         <v>55</v>
       </c>
       <c r="G170" t="n">
-        <v>-565218.6647527659</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6611,18 +6169,15 @@
         <v>173543.4475</v>
       </c>
       <c r="G171" t="n">
-        <v>-738762.1122527659</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6644,18 +6199,15 @@
         <v>53</v>
       </c>
       <c r="G172" t="n">
-        <v>-738709.1122527659</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6677,18 +6229,15 @@
         <v>1228.9677</v>
       </c>
       <c r="G173" t="n">
-        <v>-739938.079952766</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6710,18 +6259,15 @@
         <v>1481.3556</v>
       </c>
       <c r="G174" t="n">
-        <v>-739938.079952766</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6743,18 +6289,15 @@
         <v>2616.8071</v>
       </c>
       <c r="G175" t="n">
-        <v>-737321.272852766</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6776,18 +6319,15 @@
         <v>81378.1661</v>
       </c>
       <c r="G176" t="n">
-        <v>-818699.438952766</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6809,18 +6349,15 @@
         <v>13057.9861</v>
       </c>
       <c r="G177" t="n">
-        <v>-818699.438952766</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6842,18 +6379,15 @@
         <v>108112.2012</v>
       </c>
       <c r="G178" t="n">
-        <v>-926811.640152766</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6875,18 +6409,15 @@
         <v>69290.8806</v>
       </c>
       <c r="G179" t="n">
-        <v>-996102.5207527661</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6908,18 +6439,15 @@
         <v>3222</v>
       </c>
       <c r="G180" t="n">
-        <v>-992880.5207527661</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6941,18 +6469,15 @@
         <v>3159.392</v>
       </c>
       <c r="G181" t="n">
-        <v>-996039.912752766</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6974,18 +6499,15 @@
         <v>43.718</v>
       </c>
       <c r="G182" t="n">
-        <v>-995996.1947527661</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7007,18 +6529,15 @@
         <v>200</v>
       </c>
       <c r="G183" t="n">
-        <v>-995796.1947527661</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7040,18 +6559,15 @@
         <v>172639.6185</v>
       </c>
       <c r="G184" t="n">
-        <v>-1168435.813252766</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7073,18 +6589,15 @@
         <v>42</v>
       </c>
       <c r="G185" t="n">
-        <v>-1168393.813252766</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7106,18 +6619,15 @@
         <v>233.3331</v>
       </c>
       <c r="G186" t="n">
-        <v>-1168627.146352766</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7139,18 +6649,15 @@
         <v>160.6059</v>
       </c>
       <c r="G187" t="n">
-        <v>-1168466.540452766</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7172,18 +6679,15 @@
         <v>77.7777</v>
       </c>
       <c r="G188" t="n">
-        <v>-1168466.540452766</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7205,18 +6709,15 @@
         <v>19845.4248</v>
       </c>
       <c r="G189" t="n">
-        <v>-1188311.965252766</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7238,18 +6739,15 @@
         <v>78368.5913</v>
       </c>
       <c r="G190" t="n">
-        <v>-1188311.965252766</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7271,18 +6769,15 @@
         <v>142442.1357</v>
       </c>
       <c r="G191" t="n">
-        <v>-1330754.100952766</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7304,18 +6799,15 @@
         <v>80</v>
       </c>
       <c r="G192" t="n">
-        <v>-1330674.100952766</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7337,18 +6829,15 @@
         <v>100</v>
       </c>
       <c r="G193" t="n">
-        <v>-1330674.100952766</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,18 +6859,15 @@
         <v>18738.2036</v>
       </c>
       <c r="G194" t="n">
-        <v>-1349412.304552766</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7403,18 +6889,15 @@
         <v>45</v>
       </c>
       <c r="G195" t="n">
-        <v>-1349367.304552766</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7436,18 +6919,15 @@
         <v>8850.5587</v>
       </c>
       <c r="G196" t="n">
-        <v>-1358217.863252766</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7469,18 +6949,15 @@
         <v>63642.5726</v>
       </c>
       <c r="G197" t="n">
-        <v>-1358217.863252766</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7502,18 +6979,15 @@
         <v>2188.7653</v>
       </c>
       <c r="G198" t="n">
-        <v>-1360406.628552766</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7535,18 +7009,15 @@
         <v>82428.6557</v>
       </c>
       <c r="G199" t="n">
-        <v>-1442835.284252766</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7568,18 +7039,15 @@
         <v>1257.5109</v>
       </c>
       <c r="G200" t="n">
-        <v>-1441577.773352766</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7601,18 +7069,15 @@
         <v>5042.6897</v>
       </c>
       <c r="G201" t="n">
-        <v>-1446620.463052766</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7634,18 +7099,15 @@
         <v>43</v>
       </c>
       <c r="G202" t="n">
-        <v>-1446577.463052766</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7667,18 +7129,15 @@
         <v>44.4444</v>
       </c>
       <c r="G203" t="n">
-        <v>-1446621.907452766</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7700,18 +7159,15 @@
         <v>24041.3133</v>
       </c>
       <c r="G204" t="n">
-        <v>-1470663.220752766</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7733,18 +7189,15 @@
         <v>24147.7257</v>
       </c>
       <c r="G205" t="n">
-        <v>-1470663.220752766</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7766,18 +7219,15 @@
         <v>9931.6315</v>
       </c>
       <c r="G206" t="n">
-        <v>-1460731.589252766</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7799,18 +7249,15 @@
         <v>32588.8888</v>
       </c>
       <c r="G207" t="n">
-        <v>-1493320.478052766</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7832,18 +7279,15 @@
         <v>307.3332</v>
       </c>
       <c r="G208" t="n">
-        <v>-1493013.144852766</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7865,18 +7309,15 @@
         <v>16840.9043</v>
       </c>
       <c r="G209" t="n">
-        <v>-1476172.240552766</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7898,18 +7339,15 @@
         <v>206884.2121</v>
       </c>
       <c r="G210" t="n">
-        <v>-1683056.452652766</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7931,18 +7369,15 @@
         <v>109662.5145</v>
       </c>
       <c r="G211" t="n">
-        <v>-1792718.967152766</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7964,18 +7399,15 @@
         <v>41557.9817</v>
       </c>
       <c r="G212" t="n">
-        <v>-1751160.985452766</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7997,18 +7429,15 @@
         <v>1270</v>
       </c>
       <c r="G213" t="n">
-        <v>-1752430.985452766</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8030,18 +7459,15 @@
         <v>45</v>
       </c>
       <c r="G214" t="n">
-        <v>-1752385.985452766</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8063,18 +7489,15 @@
         <v>8721.3189</v>
       </c>
       <c r="G215" t="n">
-        <v>-1743664.666552766</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8096,18 +7519,15 @@
         <v>8896.707899999999</v>
       </c>
       <c r="G216" t="n">
-        <v>-1734767.958652766</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8129,18 +7549,15 @@
         <v>166894.2681</v>
       </c>
       <c r="G217" t="n">
-        <v>-1901662.226752766</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8162,18 +7579,15 @@
         <v>43</v>
       </c>
       <c r="G218" t="n">
-        <v>-1901619.226752766</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8195,18 +7609,15 @@
         <v>20195.5112</v>
       </c>
       <c r="G219" t="n">
-        <v>-1901619.226752766</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8228,18 +7639,15 @@
         <v>77884.7458</v>
       </c>
       <c r="G220" t="n">
-        <v>-1979503.972552766</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8261,18 +7669,15 @@
         <v>2593.2361</v>
       </c>
       <c r="G221" t="n">
-        <v>-1979503.972552766</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8294,18 +7699,15 @@
         <v>53703.6597</v>
       </c>
       <c r="G222" t="n">
-        <v>-1979503.972552766</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8327,18 +7729,15 @@
         <v>45</v>
       </c>
       <c r="G223" t="n">
-        <v>-1979458.972552766</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8360,18 +7759,15 @@
         <v>93028.2184</v>
       </c>
       <c r="G224" t="n">
-        <v>-1886430.754152766</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
